--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9398314239249478</v>
+        <v>0.9398314239249483</v>
       </c>
       <c r="D2">
-        <v>0.9504186186153875</v>
+        <v>0.950418618615388</v>
       </c>
       <c r="E2">
-        <v>0.9540107034486345</v>
+        <v>0.9540107034486351</v>
       </c>
       <c r="F2">
-        <v>0.9569746008467319</v>
+        <v>0.9569746008467326</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.035997347579486</v>
       </c>
       <c r="J2">
-        <v>0.9639738067955753</v>
+        <v>0.9639738067955759</v>
       </c>
       <c r="K2">
-        <v>0.9626148247918832</v>
+        <v>0.9626148247918836</v>
       </c>
       <c r="L2">
-        <v>0.9661502329221815</v>
+        <v>0.9661502329221821</v>
       </c>
       <c r="M2">
-        <v>0.9690677748274885</v>
+        <v>0.9690677748274892</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.95362449305006</v>
+        <v>0.9536244930500594</v>
       </c>
       <c r="D3">
-        <v>0.9634247423511733</v>
+        <v>0.9634247423511729</v>
       </c>
       <c r="E3">
-        <v>0.9656203766762252</v>
+        <v>0.965620376676225</v>
       </c>
       <c r="F3">
-        <v>0.9704344118712529</v>
+        <v>0.9704344118712525</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039173654855325</v>
       </c>
       <c r="J3">
-        <v>0.9754645190328399</v>
+        <v>0.9754645190328392</v>
       </c>
       <c r="K3">
-        <v>0.9745480363063471</v>
+        <v>0.9745480363063465</v>
       </c>
       <c r="L3">
-        <v>0.9767129081024192</v>
+        <v>0.9767129081024186</v>
       </c>
       <c r="M3">
-        <v>0.9814601091508123</v>
+        <v>0.9814601091508119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9620467415947266</v>
+        <v>0.962046741594728</v>
       </c>
       <c r="D4">
-        <v>0.9713737002516866</v>
+        <v>0.9713737002516879</v>
       </c>
       <c r="E4">
-        <v>0.9727210748931687</v>
+        <v>0.9727210748931695</v>
       </c>
       <c r="F4">
-        <v>0.9786510041744729</v>
+        <v>0.9786510041744745</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041081994312227</v>
       </c>
       <c r="J4">
-        <v>0.9824737758198495</v>
+        <v>0.9824737758198508</v>
       </c>
       <c r="K4">
-        <v>0.98183035551216</v>
+        <v>0.9818303555121614</v>
       </c>
       <c r="L4">
-        <v>0.9831602775990147</v>
+        <v>0.9831602775990157</v>
       </c>
       <c r="M4">
-        <v>0.9890141100073676</v>
+        <v>0.9890141100073693</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9654797203002901</v>
+        <v>0.9654797203002927</v>
       </c>
       <c r="D5">
-        <v>0.974615246654664</v>
+        <v>0.9746152466546668</v>
       </c>
       <c r="E5">
-        <v>0.975617848751737</v>
+        <v>0.9756178487517394</v>
       </c>
       <c r="F5">
-        <v>0.9819993020122317</v>
+        <v>0.9819993020122343</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04185202989976</v>
+        <v>1.041852029899761</v>
       </c>
       <c r="J5">
-        <v>0.9853288953703886</v>
+        <v>0.9853288953703913</v>
       </c>
       <c r="K5">
-        <v>0.9847974455844553</v>
+        <v>0.9847974455844578</v>
       </c>
       <c r="L5">
-        <v>0.9857874887417813</v>
+        <v>0.9857874887417837</v>
       </c>
       <c r="M5">
-        <v>0.9920897537438682</v>
+        <v>0.9920897537438708</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9660501412242208</v>
+        <v>0.9660501412242218</v>
       </c>
       <c r="D6">
-        <v>0.9751539402565713</v>
+        <v>0.9751539402565719</v>
       </c>
       <c r="E6">
-        <v>0.9760993112001022</v>
+        <v>0.9760993112001027</v>
       </c>
       <c r="F6">
-        <v>0.9825555933800758</v>
+        <v>0.9825555933800768</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04197950864936</v>
+        <v>1.041979508649359</v>
       </c>
       <c r="J6">
-        <v>0.9858031818888947</v>
+        <v>0.9858031818888957</v>
       </c>
       <c r="K6">
-        <v>0.9852903758572095</v>
+        <v>0.9852903758572102</v>
       </c>
       <c r="L6">
-        <v>0.9862239715458896</v>
+        <v>0.98622397154589</v>
       </c>
       <c r="M6">
-        <v>0.9926005896329676</v>
+        <v>0.9926005896329685</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9620930215011402</v>
+        <v>0.96209302150114</v>
       </c>
       <c r="D7">
-        <v>0.9714173938574266</v>
+        <v>0.9714173938574262</v>
       </c>
       <c r="E7">
-        <v>0.9727601168028361</v>
+        <v>0.9727601168028359</v>
       </c>
       <c r="F7">
-        <v>0.9786961463035021</v>
+        <v>0.9786961463035017</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041092406686347</v>
       </c>
       <c r="J7">
-        <v>0.982512273469762</v>
+        <v>0.9825122734697618</v>
       </c>
       <c r="K7">
-        <v>0.9818703599997259</v>
+        <v>0.9818703599997255</v>
       </c>
       <c r="L7">
-        <v>0.9831956983899888</v>
+        <v>0.9831956983899887</v>
       </c>
       <c r="M7">
-        <v>0.9890555867342909</v>
+        <v>0.9890555867342907</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446053349298067</v>
+        <v>0.9446053349298082</v>
       </c>
       <c r="D8">
-        <v>0.9549184339104573</v>
+        <v>0.9549184339104587</v>
       </c>
       <c r="E8">
-        <v>0.9580261864724897</v>
+        <v>0.9580261864724908</v>
       </c>
       <c r="F8">
-        <v>0.9616334045882303</v>
+        <v>0.9616334045882318</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037103169943365</v>
+        <v>1.037103169943366</v>
       </c>
       <c r="J8">
-        <v>0.9679522495680349</v>
+        <v>0.9679522495680363</v>
       </c>
       <c r="K8">
-        <v>0.9667457907942001</v>
+        <v>0.9667457907942014</v>
       </c>
       <c r="L8">
-        <v>0.9698064254094749</v>
+        <v>0.9698064254094763</v>
       </c>
       <c r="M8">
-        <v>0.9733594388707951</v>
+        <v>0.9733594388707965</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9092107644614557</v>
+        <v>0.9092107644614574</v>
       </c>
       <c r="D9">
-        <v>0.9216035607106288</v>
+        <v>0.9216035607106302</v>
       </c>
       <c r="E9">
-        <v>0.9283271036433342</v>
+        <v>0.9283271036433356</v>
       </c>
       <c r="F9">
-        <v>0.9271013431222349</v>
+        <v>0.9271013431222364</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028779579841688</v>
       </c>
       <c r="J9">
-        <v>0.9384339748778562</v>
+        <v>0.9384339748778574</v>
       </c>
       <c r="K9">
-        <v>0.9361109753888538</v>
+        <v>0.9361109753888552</v>
       </c>
       <c r="L9">
-        <v>0.942700922195885</v>
+        <v>0.9427009221958862</v>
       </c>
       <c r="M9">
-        <v>0.941499327709833</v>
+        <v>0.9414993277098342</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8811260883959748</v>
+        <v>0.8811260883959722</v>
       </c>
       <c r="D10">
-        <v>0.8952563180457946</v>
+        <v>0.8952563180457918</v>
       </c>
       <c r="E10">
-        <v>0.9048894456179472</v>
+        <v>0.9048894456179446</v>
       </c>
       <c r="F10">
-        <v>0.8997452832053608</v>
+        <v>0.8997452832053584</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022037696778493</v>
+        <v>1.022037696778492</v>
       </c>
       <c r="J10">
-        <v>0.9150028094390134</v>
+        <v>0.9150028094390109</v>
       </c>
       <c r="K10">
-        <v>0.911814730292221</v>
+        <v>0.9118147302922183</v>
       </c>
       <c r="L10">
-        <v>0.9212181514977364</v>
+        <v>0.9212181514977341</v>
       </c>
       <c r="M10">
-        <v>0.9161958327715792</v>
+        <v>0.9161958327715769</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8673969059584441</v>
+        <v>0.8673969059584465</v>
       </c>
       <c r="D11">
-        <v>0.8824086467094718</v>
+        <v>0.8824086467094743</v>
       </c>
       <c r="E11">
-        <v>0.8934772563795185</v>
+        <v>0.8934772563795205</v>
       </c>
       <c r="F11">
-        <v>0.8863980683868989</v>
+        <v>0.8863980683869009</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018721875361784</v>
       </c>
       <c r="J11">
-        <v>0.9035554696938964</v>
+        <v>0.9035554696938985</v>
       </c>
       <c r="K11">
-        <v>0.8999503461615888</v>
+        <v>0.899950346161591</v>
       </c>
       <c r="L11">
-        <v>0.9107325772701212</v>
+        <v>0.9107325772701234</v>
       </c>
       <c r="M11">
-        <v>0.9038354326045606</v>
+        <v>0.9038354326045626</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>0.8619944490747252</v>
+        <v>0.8619944490747242</v>
       </c>
       <c r="D12">
-        <v>0.8773593426143189</v>
+        <v>0.8773593426143177</v>
       </c>
       <c r="E12">
-        <v>0.8889952128010982</v>
+        <v>0.8889952128010969</v>
       </c>
       <c r="F12">
-        <v>0.8811517699918809</v>
+        <v>0.8811517699918795</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017415693267834</v>
+        <v>1.017415693267833</v>
       </c>
       <c r="J12">
-        <v>0.8990531753577947</v>
+        <v>0.8990531753577936</v>
       </c>
       <c r="K12">
-        <v>0.8952849272038254</v>
+        <v>0.8952849272038241</v>
       </c>
       <c r="L12">
-        <v>0.9066102731469445</v>
+        <v>0.9066102731469434</v>
       </c>
       <c r="M12">
-        <v>0.8989749219445966</v>
+        <v>0.8989749219445954</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8631684176955082</v>
+        <v>0.8631684176955093</v>
       </c>
       <c r="D13">
-        <v>0.8784562593855579</v>
+        <v>0.8784562593855593</v>
       </c>
       <c r="E13">
-        <v>0.8899687464864984</v>
+        <v>0.8899687464864997</v>
       </c>
       <c r="F13">
-        <v>0.8822915018483855</v>
+        <v>0.8822915018483865</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017699560608514</v>
+        <v>1.017699560608515</v>
       </c>
       <c r="J13">
-        <v>0.9000314103464095</v>
+        <v>0.9000314103464105</v>
       </c>
       <c r="K13">
-        <v>0.8962985634667838</v>
+        <v>0.8962985634667849</v>
       </c>
       <c r="L13">
-        <v>0.9075058637927187</v>
+        <v>0.9075058637927199</v>
       </c>
       <c r="M13">
-        <v>0.9000309348580904</v>
+        <v>0.9000309348580913</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.866957013535999</v>
+        <v>0.866957013536001</v>
       </c>
       <c r="D14">
-        <v>0.8819973737918103</v>
+        <v>0.8819973737918125</v>
       </c>
       <c r="E14">
-        <v>0.8931121215127122</v>
+        <v>0.8931121215127139</v>
       </c>
       <c r="F14">
-        <v>0.8859707598425753</v>
+        <v>0.8859707598425773</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018615536824978</v>
       </c>
       <c r="J14">
-        <v>0.903188818845903</v>
+        <v>0.903188818845905</v>
       </c>
       <c r="K14">
-        <v>0.8995703925825432</v>
+        <v>0.8995703925825452</v>
       </c>
       <c r="L14">
-        <v>0.9103968353278674</v>
+        <v>0.9103968353278686</v>
       </c>
       <c r="M14">
-        <v>0.9034395873503284</v>
+        <v>0.9034395873503304</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8692486412705106</v>
+        <v>0.8692486412705129</v>
       </c>
       <c r="D15">
-        <v>0.8841401683933592</v>
+        <v>0.8841401683933616</v>
       </c>
       <c r="E15">
-        <v>0.8950146576774632</v>
+        <v>0.8950146576774652</v>
       </c>
       <c r="F15">
-        <v>0.8881970791859769</v>
+        <v>0.8881970791859785</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019169464395896</v>
       </c>
       <c r="J15">
-        <v>0.9050989916155143</v>
+        <v>0.9050989916155165</v>
       </c>
       <c r="K15">
-        <v>0.9015499061636159</v>
+        <v>0.9015499061636182</v>
       </c>
       <c r="L15">
-        <v>0.9121460497852337</v>
+        <v>0.9121460497852359</v>
       </c>
       <c r="M15">
-        <v>0.9055018969780465</v>
+        <v>0.9055018969780481</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8819991056647704</v>
+        <v>0.8819991056647708</v>
       </c>
       <c r="D16">
-        <v>0.8960740294502266</v>
+        <v>0.896074029450227</v>
       </c>
       <c r="E16">
-        <v>0.9056161704877896</v>
+        <v>0.9056161704877902</v>
       </c>
       <c r="F16">
-        <v>0.9005946708478143</v>
+        <v>0.9005946708478146</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.022248262707232</v>
       </c>
       <c r="J16">
-        <v>0.9157309548506312</v>
+        <v>0.9157309548506314</v>
       </c>
       <c r="K16">
-        <v>0.9125695194374075</v>
+        <v>0.9125695194374078</v>
       </c>
       <c r="L16">
-        <v>0.921885335649834</v>
+        <v>0.9218853356498343</v>
       </c>
       <c r="M16">
-        <v>0.9169821364605919</v>
+        <v>0.916982136460592</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8895380671284703</v>
+        <v>0.8895380671284707</v>
       </c>
       <c r="D17">
-        <v>0.9031389778302856</v>
+        <v>0.9031389778302864</v>
       </c>
       <c r="E17">
-        <v>0.9118968536123433</v>
+        <v>0.9118968536123438</v>
       </c>
       <c r="F17">
-        <v>0.9079325092848619</v>
+        <v>0.9079325092848625</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024064572903418</v>
+        <v>1.024064572903419</v>
       </c>
       <c r="J17">
-        <v>0.9220197146438668</v>
+        <v>0.9220197146438674</v>
       </c>
       <c r="K17">
-        <v>0.9190890014503674</v>
+        <v>0.9190890014503681</v>
       </c>
       <c r="L17">
-        <v>0.9276486775800283</v>
+        <v>0.9276486775800288</v>
       </c>
       <c r="M17">
-        <v>0.9237734186622879</v>
+        <v>0.9237734186622883</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8937897479774033</v>
+        <v>0.8937897479774017</v>
       </c>
       <c r="D18">
-        <v>0.9071261040295456</v>
+        <v>0.907126104029544</v>
       </c>
       <c r="E18">
-        <v>0.9154428285264857</v>
+        <v>0.9154428285264846</v>
       </c>
       <c r="F18">
-        <v>0.9120729231607718</v>
+        <v>0.9120729231607702</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025086988695294</v>
+        <v>1.025086988695293</v>
       </c>
       <c r="J18">
-        <v>0.9255668641644602</v>
+        <v>0.9255668641644584</v>
       </c>
       <c r="K18">
-        <v>0.922766784955816</v>
+        <v>0.9227667849558142</v>
       </c>
       <c r="L18">
-        <v>0.930900333308044</v>
+        <v>0.9309003333080428</v>
       </c>
       <c r="M18">
-        <v>0.927604115033507</v>
+        <v>0.9276041150335057</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8952163617214555</v>
+        <v>0.8952163617214517</v>
       </c>
       <c r="D19">
-        <v>0.9084643862935747</v>
+        <v>0.9084643862935707</v>
       </c>
       <c r="E19">
-        <v>0.9166332707502484</v>
+        <v>0.9166332707502451</v>
       </c>
       <c r="F19">
-        <v>0.9134625241897746</v>
+        <v>0.913462524189771</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025429689664193</v>
+        <v>1.025429689664192</v>
       </c>
       <c r="J19">
-        <v>0.9267571422955191</v>
+        <v>0.9267571422955154</v>
       </c>
       <c r="K19">
-        <v>0.9240009812638732</v>
+        <v>0.9240009812638694</v>
       </c>
       <c r="L19">
-        <v>0.9319915972782407</v>
+        <v>0.9319915972782374</v>
       </c>
       <c r="M19">
-        <v>0.9288895426805778</v>
+        <v>0.9288895426805746</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8887446718324241</v>
+        <v>0.8887446718324236</v>
       </c>
       <c r="D20">
-        <v>0.9023951690165816</v>
+        <v>0.902395169016581</v>
       </c>
       <c r="E20">
-        <v>0.9112354581117702</v>
+        <v>0.9112354581117695</v>
       </c>
       <c r="F20">
-        <v>0.9071600428318244</v>
+        <v>0.9071600428318237</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023873616736765</v>
       </c>
       <c r="J20">
-        <v>0.9213578270859861</v>
+        <v>0.9213578270859857</v>
       </c>
       <c r="K20">
-        <v>0.918402778228711</v>
+        <v>0.9184027782287102</v>
       </c>
       <c r="L20">
-        <v>0.9270419977982856</v>
+        <v>0.927041997798285</v>
       </c>
       <c r="M20">
-        <v>0.9230586267898437</v>
+        <v>0.9230586267898433</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8658504195929495</v>
+        <v>0.8658504195929503</v>
       </c>
       <c r="D21">
-        <v>0.8809628808618365</v>
+        <v>0.8809628808618373</v>
       </c>
       <c r="E21">
-        <v>0.8921937333349216</v>
+        <v>0.8921937333349222</v>
       </c>
       <c r="F21">
-        <v>0.8848959231857164</v>
+        <v>0.884895923185717</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018348015698167</v>
+        <v>1.018348015698168</v>
       </c>
       <c r="J21">
-        <v>0.9022665123207854</v>
+        <v>0.902266512320786</v>
       </c>
       <c r="K21">
-        <v>0.8986146377481359</v>
+        <v>0.8986146377481369</v>
       </c>
       <c r="L21">
-        <v>0.9095523082281615</v>
+        <v>0.9095523082281622</v>
       </c>
       <c r="M21">
-        <v>0.9024438594904861</v>
+        <v>0.9024438594904866</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8496436842366039</v>
+        <v>0.8496436842366041</v>
       </c>
       <c r="D22">
-        <v>0.8658299838677962</v>
+        <v>0.8658299838677961</v>
       </c>
       <c r="E22">
-        <v>0.8787678352298088</v>
+        <v>0.8787678352298091</v>
       </c>
       <c r="F22">
-        <v>0.8691721257787618</v>
+        <v>0.8691721257787619</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014429396694063</v>
       </c>
       <c r="J22">
-        <v>0.8887664432357336</v>
+        <v>0.8887664432357337</v>
       </c>
       <c r="K22">
-        <v>0.8846272771391568</v>
+        <v>0.8846272771391567</v>
       </c>
       <c r="L22">
-        <v>0.8971953381145503</v>
+        <v>0.8971953381145507</v>
       </c>
       <c r="M22">
-        <v>0.887872448518387</v>
+        <v>0.8878724485183872</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8584385868009116</v>
+        <v>0.8584385868009147</v>
       </c>
       <c r="D23">
-        <v>0.8740379337272491</v>
+        <v>0.874037933727252</v>
       </c>
       <c r="E23">
-        <v>0.8860479158106248</v>
+        <v>0.8860479158106274</v>
       </c>
       <c r="F23">
-        <v>0.8777006723699932</v>
+        <v>0.8777006723699957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016555837319505</v>
+        <v>1.016555837319506</v>
       </c>
       <c r="J23">
-        <v>0.8960906313088117</v>
+        <v>0.8960906313088146</v>
       </c>
       <c r="K23">
-        <v>0.8922153100969212</v>
+        <v>0.8922153100969241</v>
       </c>
       <c r="L23">
-        <v>0.9038982910337715</v>
+        <v>0.9038982910337741</v>
       </c>
       <c r="M23">
-        <v>0.8957770292170482</v>
+        <v>0.8957770292170504</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.889103618495301</v>
+        <v>0.8891036184952994</v>
       </c>
       <c r="D24">
-        <v>0.9027316732539075</v>
+        <v>0.9027316732539059</v>
       </c>
       <c r="E24">
-        <v>0.911534673490167</v>
+        <v>0.9115346734901655</v>
       </c>
       <c r="F24">
-        <v>0.9075095142650983</v>
+        <v>0.907509514265097</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02396001492734</v>
       </c>
       <c r="J24">
-        <v>0.9216572756289797</v>
+        <v>0.921657275628978</v>
       </c>
       <c r="K24">
-        <v>0.9187132350658388</v>
+        <v>0.9187132350658371</v>
       </c>
       <c r="L24">
-        <v>0.9273164667603797</v>
+        <v>0.9273164667603783</v>
       </c>
       <c r="M24">
-        <v>0.9233820098179896</v>
+        <v>0.9233820098179885</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9190237024348524</v>
+        <v>0.9190237024348521</v>
       </c>
       <c r="D25">
-        <v>0.930828467411584</v>
+        <v>0.9308284674115835</v>
       </c>
       <c r="E25">
-        <v>0.936543827571731</v>
+        <v>0.9365438275717305</v>
       </c>
       <c r="F25">
-        <v>0.9366715170761021</v>
+        <v>0.9366715170761022</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.031112428800474</v>
       </c>
       <c r="J25">
-        <v>0.9466213218496017</v>
+        <v>0.9466213218496012</v>
       </c>
       <c r="K25">
-        <v>0.9446047160276198</v>
+        <v>0.9446047160276194</v>
       </c>
       <c r="L25">
-        <v>0.9502141574778329</v>
+        <v>0.9502141574778323</v>
       </c>
       <c r="M25">
         <v>0.950339499833522</v>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9398314239249483</v>
+        <v>0.9398314239249478</v>
       </c>
       <c r="D2">
-        <v>0.950418618615388</v>
+        <v>0.9504186186153875</v>
       </c>
       <c r="E2">
-        <v>0.9540107034486351</v>
+        <v>0.9540107034486345</v>
       </c>
       <c r="F2">
-        <v>0.9569746008467326</v>
+        <v>0.9569746008467319</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.035997347579486</v>
       </c>
       <c r="J2">
-        <v>0.9639738067955759</v>
+        <v>0.9639738067955753</v>
       </c>
       <c r="K2">
-        <v>0.9626148247918836</v>
+        <v>0.9626148247918832</v>
       </c>
       <c r="L2">
-        <v>0.9661502329221821</v>
+        <v>0.9661502329221815</v>
       </c>
       <c r="M2">
-        <v>0.9690677748274892</v>
+        <v>0.9690677748274885</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9536244930500594</v>
+        <v>0.95362449305006</v>
       </c>
       <c r="D3">
-        <v>0.9634247423511729</v>
+        <v>0.9634247423511733</v>
       </c>
       <c r="E3">
-        <v>0.965620376676225</v>
+        <v>0.9656203766762252</v>
       </c>
       <c r="F3">
-        <v>0.9704344118712525</v>
+        <v>0.9704344118712529</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.039173654855325</v>
       </c>
       <c r="J3">
-        <v>0.9754645190328392</v>
+        <v>0.9754645190328399</v>
       </c>
       <c r="K3">
-        <v>0.9745480363063465</v>
+        <v>0.9745480363063471</v>
       </c>
       <c r="L3">
-        <v>0.9767129081024186</v>
+        <v>0.9767129081024192</v>
       </c>
       <c r="M3">
-        <v>0.9814601091508119</v>
+        <v>0.9814601091508123</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.962046741594728</v>
+        <v>0.9620467415947266</v>
       </c>
       <c r="D4">
-        <v>0.9713737002516879</v>
+        <v>0.9713737002516866</v>
       </c>
       <c r="E4">
-        <v>0.9727210748931695</v>
+        <v>0.9727210748931687</v>
       </c>
       <c r="F4">
-        <v>0.9786510041744745</v>
+        <v>0.9786510041744729</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.041081994312227</v>
       </c>
       <c r="J4">
-        <v>0.9824737758198508</v>
+        <v>0.9824737758198495</v>
       </c>
       <c r="K4">
-        <v>0.9818303555121614</v>
+        <v>0.98183035551216</v>
       </c>
       <c r="L4">
-        <v>0.9831602775990157</v>
+        <v>0.9831602775990147</v>
       </c>
       <c r="M4">
-        <v>0.9890141100073693</v>
+        <v>0.9890141100073676</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9654797203002927</v>
+        <v>0.9654797203002901</v>
       </c>
       <c r="D5">
-        <v>0.9746152466546668</v>
+        <v>0.974615246654664</v>
       </c>
       <c r="E5">
-        <v>0.9756178487517394</v>
+        <v>0.975617848751737</v>
       </c>
       <c r="F5">
-        <v>0.9819993020122343</v>
+        <v>0.9819993020122317</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041852029899761</v>
+        <v>1.04185202989976</v>
       </c>
       <c r="J5">
-        <v>0.9853288953703913</v>
+        <v>0.9853288953703886</v>
       </c>
       <c r="K5">
-        <v>0.9847974455844578</v>
+        <v>0.9847974455844553</v>
       </c>
       <c r="L5">
-        <v>0.9857874887417837</v>
+        <v>0.9857874887417813</v>
       </c>
       <c r="M5">
-        <v>0.9920897537438708</v>
+        <v>0.9920897537438682</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9660501412242218</v>
+        <v>0.9660501412242208</v>
       </c>
       <c r="D6">
-        <v>0.9751539402565719</v>
+        <v>0.9751539402565713</v>
       </c>
       <c r="E6">
-        <v>0.9760993112001027</v>
+        <v>0.9760993112001022</v>
       </c>
       <c r="F6">
-        <v>0.9825555933800768</v>
+        <v>0.9825555933800758</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041979508649359</v>
+        <v>1.04197950864936</v>
       </c>
       <c r="J6">
-        <v>0.9858031818888957</v>
+        <v>0.9858031818888947</v>
       </c>
       <c r="K6">
-        <v>0.9852903758572102</v>
+        <v>0.9852903758572095</v>
       </c>
       <c r="L6">
-        <v>0.98622397154589</v>
+        <v>0.9862239715458896</v>
       </c>
       <c r="M6">
-        <v>0.9926005896329685</v>
+        <v>0.9926005896329676</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.96209302150114</v>
+        <v>0.9620930215011402</v>
       </c>
       <c r="D7">
-        <v>0.9714173938574262</v>
+        <v>0.9714173938574266</v>
       </c>
       <c r="E7">
-        <v>0.9727601168028359</v>
+        <v>0.9727601168028361</v>
       </c>
       <c r="F7">
-        <v>0.9786961463035017</v>
+        <v>0.9786961463035021</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.041092406686347</v>
       </c>
       <c r="J7">
-        <v>0.9825122734697618</v>
+        <v>0.982512273469762</v>
       </c>
       <c r="K7">
-        <v>0.9818703599997255</v>
+        <v>0.9818703599997259</v>
       </c>
       <c r="L7">
-        <v>0.9831956983899887</v>
+        <v>0.9831956983899888</v>
       </c>
       <c r="M7">
-        <v>0.9890555867342907</v>
+        <v>0.9890555867342909</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446053349298082</v>
+        <v>0.9446053349298067</v>
       </c>
       <c r="D8">
-        <v>0.9549184339104587</v>
+        <v>0.9549184339104573</v>
       </c>
       <c r="E8">
-        <v>0.9580261864724908</v>
+        <v>0.9580261864724897</v>
       </c>
       <c r="F8">
-        <v>0.9616334045882318</v>
+        <v>0.9616334045882303</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037103169943366</v>
+        <v>1.037103169943365</v>
       </c>
       <c r="J8">
-        <v>0.9679522495680363</v>
+        <v>0.9679522495680349</v>
       </c>
       <c r="K8">
-        <v>0.9667457907942014</v>
+        <v>0.9667457907942001</v>
       </c>
       <c r="L8">
-        <v>0.9698064254094763</v>
+        <v>0.9698064254094749</v>
       </c>
       <c r="M8">
-        <v>0.9733594388707965</v>
+        <v>0.9733594388707951</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9092107644614574</v>
+        <v>0.9092107644614557</v>
       </c>
       <c r="D9">
-        <v>0.9216035607106302</v>
+        <v>0.9216035607106288</v>
       </c>
       <c r="E9">
-        <v>0.9283271036433356</v>
+        <v>0.9283271036433342</v>
       </c>
       <c r="F9">
-        <v>0.9271013431222364</v>
+        <v>0.9271013431222349</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.028779579841688</v>
       </c>
       <c r="J9">
-        <v>0.9384339748778574</v>
+        <v>0.9384339748778562</v>
       </c>
       <c r="K9">
-        <v>0.9361109753888552</v>
+        <v>0.9361109753888538</v>
       </c>
       <c r="L9">
-        <v>0.9427009221958862</v>
+        <v>0.942700922195885</v>
       </c>
       <c r="M9">
-        <v>0.9414993277098342</v>
+        <v>0.941499327709833</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8811260883959722</v>
+        <v>0.8811260883959748</v>
       </c>
       <c r="D10">
-        <v>0.8952563180457918</v>
+        <v>0.8952563180457946</v>
       </c>
       <c r="E10">
-        <v>0.9048894456179446</v>
+        <v>0.9048894456179472</v>
       </c>
       <c r="F10">
-        <v>0.8997452832053584</v>
+        <v>0.8997452832053608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022037696778492</v>
+        <v>1.022037696778493</v>
       </c>
       <c r="J10">
-        <v>0.9150028094390109</v>
+        <v>0.9150028094390134</v>
       </c>
       <c r="K10">
-        <v>0.9118147302922183</v>
+        <v>0.911814730292221</v>
       </c>
       <c r="L10">
-        <v>0.9212181514977341</v>
+        <v>0.9212181514977364</v>
       </c>
       <c r="M10">
-        <v>0.9161958327715769</v>
+        <v>0.9161958327715792</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8673969059584465</v>
+        <v>0.8673969059584441</v>
       </c>
       <c r="D11">
-        <v>0.8824086467094743</v>
+        <v>0.8824086467094718</v>
       </c>
       <c r="E11">
-        <v>0.8934772563795205</v>
+        <v>0.8934772563795185</v>
       </c>
       <c r="F11">
-        <v>0.8863980683869009</v>
+        <v>0.8863980683868989</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.018721875361784</v>
       </c>
       <c r="J11">
-        <v>0.9035554696938985</v>
+        <v>0.9035554696938964</v>
       </c>
       <c r="K11">
-        <v>0.899950346161591</v>
+        <v>0.8999503461615888</v>
       </c>
       <c r="L11">
-        <v>0.9107325772701234</v>
+        <v>0.9107325772701212</v>
       </c>
       <c r="M11">
-        <v>0.9038354326045626</v>
+        <v>0.9038354326045606</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8619944490747242</v>
+        <v>0.8619944490747252</v>
       </c>
       <c r="D12">
-        <v>0.8773593426143177</v>
+        <v>0.8773593426143189</v>
       </c>
       <c r="E12">
-        <v>0.8889952128010969</v>
+        <v>0.8889952128010982</v>
       </c>
       <c r="F12">
-        <v>0.8811517699918795</v>
+        <v>0.8811517699918809</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017415693267833</v>
+        <v>1.017415693267834</v>
       </c>
       <c r="J12">
-        <v>0.8990531753577936</v>
+        <v>0.8990531753577947</v>
       </c>
       <c r="K12">
-        <v>0.8952849272038241</v>
+        <v>0.8952849272038254</v>
       </c>
       <c r="L12">
-        <v>0.9066102731469434</v>
+        <v>0.9066102731469445</v>
       </c>
       <c r="M12">
-        <v>0.8989749219445954</v>
+        <v>0.8989749219445966</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8631684176955093</v>
+        <v>0.8631684176955082</v>
       </c>
       <c r="D13">
-        <v>0.8784562593855593</v>
+        <v>0.8784562593855579</v>
       </c>
       <c r="E13">
-        <v>0.8899687464864997</v>
+        <v>0.8899687464864984</v>
       </c>
       <c r="F13">
-        <v>0.8822915018483865</v>
+        <v>0.8822915018483855</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017699560608515</v>
+        <v>1.017699560608514</v>
       </c>
       <c r="J13">
-        <v>0.9000314103464105</v>
+        <v>0.9000314103464095</v>
       </c>
       <c r="K13">
-        <v>0.8962985634667849</v>
+        <v>0.8962985634667838</v>
       </c>
       <c r="L13">
-        <v>0.9075058637927199</v>
+        <v>0.9075058637927187</v>
       </c>
       <c r="M13">
-        <v>0.9000309348580913</v>
+        <v>0.9000309348580904</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.866957013536001</v>
+        <v>0.866957013535999</v>
       </c>
       <c r="D14">
-        <v>0.8819973737918125</v>
+        <v>0.8819973737918103</v>
       </c>
       <c r="E14">
-        <v>0.8931121215127139</v>
+        <v>0.8931121215127122</v>
       </c>
       <c r="F14">
-        <v>0.8859707598425773</v>
+        <v>0.8859707598425753</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.018615536824978</v>
       </c>
       <c r="J14">
-        <v>0.903188818845905</v>
+        <v>0.903188818845903</v>
       </c>
       <c r="K14">
-        <v>0.8995703925825452</v>
+        <v>0.8995703925825432</v>
       </c>
       <c r="L14">
-        <v>0.9103968353278686</v>
+        <v>0.9103968353278674</v>
       </c>
       <c r="M14">
-        <v>0.9034395873503304</v>
+        <v>0.9034395873503284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8692486412705129</v>
+        <v>0.8692486412705106</v>
       </c>
       <c r="D15">
-        <v>0.8841401683933616</v>
+        <v>0.8841401683933592</v>
       </c>
       <c r="E15">
-        <v>0.8950146576774652</v>
+        <v>0.8950146576774632</v>
       </c>
       <c r="F15">
-        <v>0.8881970791859785</v>
+        <v>0.8881970791859769</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.019169464395896</v>
       </c>
       <c r="J15">
-        <v>0.9050989916155165</v>
+        <v>0.9050989916155143</v>
       </c>
       <c r="K15">
-        <v>0.9015499061636182</v>
+        <v>0.9015499061636159</v>
       </c>
       <c r="L15">
-        <v>0.9121460497852359</v>
+        <v>0.9121460497852337</v>
       </c>
       <c r="M15">
-        <v>0.9055018969780481</v>
+        <v>0.9055018969780465</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8819991056647708</v>
+        <v>0.8819991056647704</v>
       </c>
       <c r="D16">
-        <v>0.896074029450227</v>
+        <v>0.8960740294502266</v>
       </c>
       <c r="E16">
-        <v>0.9056161704877902</v>
+        <v>0.9056161704877896</v>
       </c>
       <c r="F16">
-        <v>0.9005946708478146</v>
+        <v>0.9005946708478143</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.022248262707232</v>
       </c>
       <c r="J16">
-        <v>0.9157309548506314</v>
+        <v>0.9157309548506312</v>
       </c>
       <c r="K16">
-        <v>0.9125695194374078</v>
+        <v>0.9125695194374075</v>
       </c>
       <c r="L16">
-        <v>0.9218853356498343</v>
+        <v>0.921885335649834</v>
       </c>
       <c r="M16">
-        <v>0.916982136460592</v>
+        <v>0.9169821364605919</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8895380671284707</v>
+        <v>0.8895380671284703</v>
       </c>
       <c r="D17">
-        <v>0.9031389778302864</v>
+        <v>0.9031389778302856</v>
       </c>
       <c r="E17">
-        <v>0.9118968536123438</v>
+        <v>0.9118968536123433</v>
       </c>
       <c r="F17">
-        <v>0.9079325092848625</v>
+        <v>0.9079325092848619</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024064572903419</v>
+        <v>1.024064572903418</v>
       </c>
       <c r="J17">
-        <v>0.9220197146438674</v>
+        <v>0.9220197146438668</v>
       </c>
       <c r="K17">
-        <v>0.9190890014503681</v>
+        <v>0.9190890014503674</v>
       </c>
       <c r="L17">
-        <v>0.9276486775800288</v>
+        <v>0.9276486775800283</v>
       </c>
       <c r="M17">
-        <v>0.9237734186622883</v>
+        <v>0.9237734186622879</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8937897479774017</v>
+        <v>0.8937897479774033</v>
       </c>
       <c r="D18">
-        <v>0.907126104029544</v>
+        <v>0.9071261040295456</v>
       </c>
       <c r="E18">
-        <v>0.9154428285264846</v>
+        <v>0.9154428285264857</v>
       </c>
       <c r="F18">
-        <v>0.9120729231607702</v>
+        <v>0.9120729231607718</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025086988695293</v>
+        <v>1.025086988695294</v>
       </c>
       <c r="J18">
-        <v>0.9255668641644584</v>
+        <v>0.9255668641644602</v>
       </c>
       <c r="K18">
-        <v>0.9227667849558142</v>
+        <v>0.922766784955816</v>
       </c>
       <c r="L18">
-        <v>0.9309003333080428</v>
+        <v>0.930900333308044</v>
       </c>
       <c r="M18">
-        <v>0.9276041150335057</v>
+        <v>0.927604115033507</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8952163617214517</v>
+        <v>0.8952163617214555</v>
       </c>
       <c r="D19">
-        <v>0.9084643862935707</v>
+        <v>0.9084643862935747</v>
       </c>
       <c r="E19">
-        <v>0.9166332707502451</v>
+        <v>0.9166332707502484</v>
       </c>
       <c r="F19">
-        <v>0.913462524189771</v>
+        <v>0.9134625241897746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025429689664192</v>
+        <v>1.025429689664193</v>
       </c>
       <c r="J19">
-        <v>0.9267571422955154</v>
+        <v>0.9267571422955191</v>
       </c>
       <c r="K19">
-        <v>0.9240009812638694</v>
+        <v>0.9240009812638732</v>
       </c>
       <c r="L19">
-        <v>0.9319915972782374</v>
+        <v>0.9319915972782407</v>
       </c>
       <c r="M19">
-        <v>0.9288895426805746</v>
+        <v>0.9288895426805778</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8887446718324236</v>
+        <v>0.8887446718324241</v>
       </c>
       <c r="D20">
-        <v>0.902395169016581</v>
+        <v>0.9023951690165816</v>
       </c>
       <c r="E20">
-        <v>0.9112354581117695</v>
+        <v>0.9112354581117702</v>
       </c>
       <c r="F20">
-        <v>0.9071600428318237</v>
+        <v>0.9071600428318244</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.023873616736765</v>
       </c>
       <c r="J20">
-        <v>0.9213578270859857</v>
+        <v>0.9213578270859861</v>
       </c>
       <c r="K20">
-        <v>0.9184027782287102</v>
+        <v>0.918402778228711</v>
       </c>
       <c r="L20">
-        <v>0.927041997798285</v>
+        <v>0.9270419977982856</v>
       </c>
       <c r="M20">
-        <v>0.9230586267898433</v>
+        <v>0.9230586267898437</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8658504195929503</v>
+        <v>0.8658504195929495</v>
       </c>
       <c r="D21">
-        <v>0.8809628808618373</v>
+        <v>0.8809628808618365</v>
       </c>
       <c r="E21">
-        <v>0.8921937333349222</v>
+        <v>0.8921937333349216</v>
       </c>
       <c r="F21">
-        <v>0.884895923185717</v>
+        <v>0.8848959231857164</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018348015698168</v>
+        <v>1.018348015698167</v>
       </c>
       <c r="J21">
-        <v>0.902266512320786</v>
+        <v>0.9022665123207854</v>
       </c>
       <c r="K21">
-        <v>0.8986146377481369</v>
+        <v>0.8986146377481359</v>
       </c>
       <c r="L21">
-        <v>0.9095523082281622</v>
+        <v>0.9095523082281615</v>
       </c>
       <c r="M21">
-        <v>0.9024438594904866</v>
+        <v>0.9024438594904861</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8496436842366041</v>
+        <v>0.8496436842366039</v>
       </c>
       <c r="D22">
-        <v>0.8658299838677961</v>
+        <v>0.8658299838677962</v>
       </c>
       <c r="E22">
-        <v>0.8787678352298091</v>
+        <v>0.8787678352298088</v>
       </c>
       <c r="F22">
-        <v>0.8691721257787619</v>
+        <v>0.8691721257787618</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.014429396694063</v>
       </c>
       <c r="J22">
-        <v>0.8887664432357337</v>
+        <v>0.8887664432357336</v>
       </c>
       <c r="K22">
-        <v>0.8846272771391567</v>
+        <v>0.8846272771391568</v>
       </c>
       <c r="L22">
-        <v>0.8971953381145507</v>
+        <v>0.8971953381145503</v>
       </c>
       <c r="M22">
-        <v>0.8878724485183872</v>
+        <v>0.887872448518387</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8584385868009147</v>
+        <v>0.8584385868009116</v>
       </c>
       <c r="D23">
-        <v>0.874037933727252</v>
+        <v>0.8740379337272491</v>
       </c>
       <c r="E23">
-        <v>0.8860479158106274</v>
+        <v>0.8860479158106248</v>
       </c>
       <c r="F23">
-        <v>0.8777006723699957</v>
+        <v>0.8777006723699932</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016555837319506</v>
+        <v>1.016555837319505</v>
       </c>
       <c r="J23">
-        <v>0.8960906313088146</v>
+        <v>0.8960906313088117</v>
       </c>
       <c r="K23">
-        <v>0.8922153100969241</v>
+        <v>0.8922153100969212</v>
       </c>
       <c r="L23">
-        <v>0.9038982910337741</v>
+        <v>0.9038982910337715</v>
       </c>
       <c r="M23">
-        <v>0.8957770292170504</v>
+        <v>0.8957770292170482</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8891036184952994</v>
+        <v>0.889103618495301</v>
       </c>
       <c r="D24">
-        <v>0.9027316732539059</v>
+        <v>0.9027316732539075</v>
       </c>
       <c r="E24">
-        <v>0.9115346734901655</v>
+        <v>0.911534673490167</v>
       </c>
       <c r="F24">
-        <v>0.907509514265097</v>
+        <v>0.9075095142650983</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.02396001492734</v>
       </c>
       <c r="J24">
-        <v>0.921657275628978</v>
+        <v>0.9216572756289797</v>
       </c>
       <c r="K24">
-        <v>0.9187132350658371</v>
+        <v>0.9187132350658388</v>
       </c>
       <c r="L24">
-        <v>0.9273164667603783</v>
+        <v>0.9273164667603797</v>
       </c>
       <c r="M24">
-        <v>0.9233820098179885</v>
+        <v>0.9233820098179896</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9190237024348521</v>
+        <v>0.9190237024348524</v>
       </c>
       <c r="D25">
-        <v>0.9308284674115835</v>
+        <v>0.930828467411584</v>
       </c>
       <c r="E25">
-        <v>0.9365438275717305</v>
+        <v>0.936543827571731</v>
       </c>
       <c r="F25">
-        <v>0.9366715170761022</v>
+        <v>0.9366715170761021</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.031112428800474</v>
       </c>
       <c r="J25">
-        <v>0.9466213218496012</v>
+        <v>0.9466213218496017</v>
       </c>
       <c r="K25">
-        <v>0.9446047160276194</v>
+        <v>0.9446047160276198</v>
       </c>
       <c r="L25">
-        <v>0.9502141574778323</v>
+        <v>0.9502141574778329</v>
       </c>
       <c r="M25">
         <v>0.950339499833522</v>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9398314239249478</v>
+        <v>0.9398974232922992</v>
       </c>
       <c r="D2">
-        <v>0.9504186186153875</v>
+        <v>0.9504830940662375</v>
       </c>
       <c r="E2">
-        <v>0.9540107034486345</v>
+        <v>0.954069205106592</v>
       </c>
       <c r="F2">
-        <v>0.9569746008467319</v>
+        <v>0.9570305480684215</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035997347579486</v>
+        <v>1.036010846695861</v>
       </c>
       <c r="J2">
-        <v>0.9639738067955753</v>
+        <v>0.9640374612844262</v>
       </c>
       <c r="K2">
-        <v>0.9626148247918832</v>
+        <v>0.9626782780992434</v>
       </c>
       <c r="L2">
-        <v>0.9661502329221815</v>
+        <v>0.9662078160468202</v>
       </c>
       <c r="M2">
-        <v>0.9690677748274885</v>
+        <v>0.9691228505612792</v>
+      </c>
+      <c r="N2">
+        <v>0.9772656424174695</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.95362449305006</v>
+        <v>0.9536760096898346</v>
       </c>
       <c r="D3">
-        <v>0.9634247423511733</v>
+        <v>0.9634751610645991</v>
       </c>
       <c r="E3">
-        <v>0.9656203766762252</v>
+        <v>0.9656662690929925</v>
       </c>
       <c r="F3">
-        <v>0.9704344118712529</v>
+        <v>0.9704779708707133</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039173654855325</v>
+        <v>1.039184178087079</v>
       </c>
       <c r="J3">
-        <v>0.9754645190328399</v>
+        <v>0.9755144360487505</v>
       </c>
       <c r="K3">
-        <v>0.9745480363063471</v>
+        <v>0.9745977466280286</v>
       </c>
       <c r="L3">
-        <v>0.9767129081024192</v>
+        <v>0.9767581594151555</v>
       </c>
       <c r="M3">
-        <v>0.9814601091508123</v>
+        <v>0.9815030672282717</v>
+      </c>
+      <c r="N3">
+        <v>0.9851408839254835</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9620467415947266</v>
+        <v>0.9620898289350102</v>
       </c>
       <c r="D4">
-        <v>0.9713737002516866</v>
+        <v>0.9714159133885707</v>
       </c>
       <c r="E4">
-        <v>0.9727210748931687</v>
+        <v>0.9727596031411241</v>
       </c>
       <c r="F4">
-        <v>0.9786510041744729</v>
+        <v>0.9786873815970973</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041081994312227</v>
+        <v>1.041090789909294</v>
       </c>
       <c r="J4">
-        <v>0.9824737758198495</v>
+        <v>0.9825156387293563</v>
       </c>
       <c r="K4">
-        <v>0.98183035551216</v>
+        <v>0.9818720209423771</v>
       </c>
       <c r="L4">
-        <v>0.9831602775990147</v>
+        <v>0.9831983076799227</v>
       </c>
       <c r="M4">
-        <v>0.9890141100073676</v>
+        <v>0.9890500241651695</v>
+      </c>
+      <c r="N4">
+        <v>0.989942652268738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9654797203002901</v>
+        <v>0.9655194535705057</v>
       </c>
       <c r="D5">
-        <v>0.974615246654664</v>
+        <v>0.9746541898152392</v>
       </c>
       <c r="E5">
-        <v>0.975617848751737</v>
+        <v>0.9756534417910958</v>
       </c>
       <c r="F5">
-        <v>0.9819993020122317</v>
+        <v>0.9820328278025707</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04185202989976</v>
+        <v>1.04186013891617</v>
       </c>
       <c r="J5">
-        <v>0.9853288953703886</v>
+        <v>0.9853675413174339</v>
       </c>
       <c r="K5">
-        <v>0.9847974455844553</v>
+        <v>0.9848359003281736</v>
       </c>
       <c r="L5">
-        <v>0.9857874887417813</v>
+        <v>0.9858226365218586</v>
       </c>
       <c r="M5">
-        <v>0.9920897537438682</v>
+        <v>0.9921228668901433</v>
+      </c>
+      <c r="N5">
+        <v>0.9918980423123566</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9660501412242208</v>
+        <v>0.9660893215650315</v>
       </c>
       <c r="D6">
-        <v>0.9751539402565713</v>
+        <v>0.9751923440828209</v>
       </c>
       <c r="E6">
-        <v>0.9760993112001022</v>
+        <v>0.9761344200963737</v>
       </c>
       <c r="F6">
-        <v>0.9825555933800758</v>
+        <v>0.9825886493967652</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04197950864936</v>
+        <v>1.041987504525516</v>
       </c>
       <c r="J6">
-        <v>0.9858031818888947</v>
+        <v>0.9858412968388779</v>
       </c>
       <c r="K6">
-        <v>0.9852903758572095</v>
+        <v>0.9853283007826417</v>
       </c>
       <c r="L6">
-        <v>0.9862239715458896</v>
+        <v>0.9862586436835656</v>
       </c>
       <c r="M6">
-        <v>0.9926005896329676</v>
+        <v>0.9926332411211569</v>
+      </c>
+      <c r="N6">
+        <v>0.9922228346693032</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9620930215011402</v>
+        <v>0.962136063320196</v>
       </c>
       <c r="D7">
-        <v>0.9714173938574266</v>
+        <v>0.9714595626331166</v>
       </c>
       <c r="E7">
-        <v>0.9727601168028361</v>
+        <v>0.9727986052329135</v>
       </c>
       <c r="F7">
-        <v>0.9786961463035021</v>
+        <v>0.9787324850011601</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041092406686347</v>
+        <v>1.041101192962011</v>
       </c>
       <c r="J7">
-        <v>0.982512273469762</v>
+        <v>0.9825540927654997</v>
       </c>
       <c r="K7">
-        <v>0.9818703599997259</v>
+        <v>0.9819119818913321</v>
       </c>
       <c r="L7">
-        <v>0.9831956983899888</v>
+        <v>0.9832336893864133</v>
       </c>
       <c r="M7">
-        <v>0.9890555867342909</v>
+        <v>0.9890914628700925</v>
+      </c>
+      <c r="N7">
+        <v>0.9899690204171524</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446053349298067</v>
+        <v>0.9446662200667989</v>
       </c>
       <c r="D8">
-        <v>0.9549184339104573</v>
+        <v>0.9549779515765553</v>
       </c>
       <c r="E8">
-        <v>0.9580261864724897</v>
+        <v>0.9580802418947154</v>
       </c>
       <c r="F8">
-        <v>0.9616334045882303</v>
+        <v>0.9616849701919314</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037103169943365</v>
+        <v>1.037115617085365</v>
       </c>
       <c r="J8">
-        <v>0.9679522495680349</v>
+        <v>0.9680110673411053</v>
       </c>
       <c r="K8">
-        <v>0.9667457907942001</v>
+        <v>0.9668044024160186</v>
       </c>
       <c r="L8">
-        <v>0.9698064254094749</v>
+        <v>0.9698596647194397</v>
       </c>
       <c r="M8">
-        <v>0.9733594388707951</v>
+        <v>0.9734102333632596</v>
+      </c>
+      <c r="N8">
+        <v>0.9799927135698838</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9092107644614557</v>
+        <v>0.9093126070419217</v>
       </c>
       <c r="D9">
-        <v>0.9216035607106288</v>
+        <v>0.9217026001843271</v>
       </c>
       <c r="E9">
-        <v>0.9283271036433342</v>
+        <v>0.9284165635386782</v>
       </c>
       <c r="F9">
-        <v>0.9271013431222349</v>
+        <v>0.9271882014915985</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028779579841688</v>
+        <v>1.028800484649597</v>
       </c>
       <c r="J9">
-        <v>0.9384339748778562</v>
+        <v>0.9385311073074579</v>
       </c>
       <c r="K9">
-        <v>0.9361109753888538</v>
+        <v>0.936208028347242</v>
       </c>
       <c r="L9">
-        <v>0.942700922195885</v>
+        <v>0.9427886216576039</v>
       </c>
       <c r="M9">
-        <v>0.941499327709833</v>
+        <v>0.9415844708918876</v>
+      </c>
+      <c r="N9">
+        <v>0.959752026040289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8811260883959748</v>
+        <v>0.8812667852449309</v>
       </c>
       <c r="D10">
-        <v>0.8952563180457946</v>
+        <v>0.8953924777115466</v>
       </c>
       <c r="E10">
-        <v>0.9048894456179472</v>
+        <v>0.9050120614192332</v>
       </c>
       <c r="F10">
-        <v>0.8997452832053608</v>
+        <v>0.8998660020764404</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022037696778493</v>
+        <v>1.022066684075242</v>
       </c>
       <c r="J10">
-        <v>0.9150028094390134</v>
+        <v>0.9151354710979078</v>
       </c>
       <c r="K10">
-        <v>0.911814730292221</v>
+        <v>0.9119475968830743</v>
       </c>
       <c r="L10">
-        <v>0.9212181514977364</v>
+        <v>0.9213378856822202</v>
       </c>
       <c r="M10">
-        <v>0.9161958327715792</v>
+        <v>0.9163136708976011</v>
+      </c>
+      <c r="N10">
+        <v>0.9436803431140591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8673969059584441</v>
+        <v>0.8675594002092185</v>
       </c>
       <c r="D11">
-        <v>0.8824086467094718</v>
+        <v>0.8825654838740488</v>
       </c>
       <c r="E11">
-        <v>0.8934772563795185</v>
+        <v>0.8936182968374516</v>
       </c>
       <c r="F11">
-        <v>0.8863980683868989</v>
+        <v>0.8865379160629019</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018721875361784</v>
+        <v>1.018755414729454</v>
       </c>
       <c r="J11">
-        <v>0.9035554696938964</v>
+        <v>0.9037077575663821</v>
       </c>
       <c r="K11">
-        <v>0.8999503461615888</v>
+        <v>0.9001030574059228</v>
       </c>
       <c r="L11">
-        <v>0.9107325772701212</v>
+        <v>0.9108700304280782</v>
       </c>
       <c r="M11">
-        <v>0.9038354326045606</v>
+        <v>0.9039716459219381</v>
+      </c>
+      <c r="N11">
+        <v>0.9358294751920231</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8619944490747252</v>
+        <v>0.8621661401318664</v>
       </c>
       <c r="D12">
-        <v>0.8773593426143189</v>
+        <v>0.8775248744382785</v>
       </c>
       <c r="E12">
-        <v>0.8889952128010982</v>
+        <v>0.8891439911106719</v>
       </c>
       <c r="F12">
-        <v>0.8811517699918809</v>
+        <v>0.8812997130403152</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017415693267834</v>
+        <v>1.017451155988947</v>
       </c>
       <c r="J12">
-        <v>0.8990531753577947</v>
+        <v>0.8992136843641739</v>
       </c>
       <c r="K12">
-        <v>0.8952849272038254</v>
+        <v>0.8954459628944955</v>
       </c>
       <c r="L12">
-        <v>0.9066102731469445</v>
+        <v>0.9067551523680664</v>
       </c>
       <c r="M12">
-        <v>0.8989749219445966</v>
+        <v>0.8991188933686165</v>
+      </c>
+      <c r="N12">
+        <v>0.9327421343141088</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8631684176955082</v>
+        <v>0.8633380779720233</v>
       </c>
       <c r="D13">
-        <v>0.8784562593855579</v>
+        <v>0.8786198727767426</v>
       </c>
       <c r="E13">
-        <v>0.8899687464864984</v>
+        <v>0.8901158179574057</v>
       </c>
       <c r="F13">
-        <v>0.8822915018483855</v>
+        <v>0.8824376561593332</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017699560608514</v>
+        <v>1.017734598508557</v>
       </c>
       <c r="J13">
-        <v>0.9000314103464095</v>
+        <v>0.9001901069268038</v>
       </c>
       <c r="K13">
-        <v>0.8962985634667838</v>
+        <v>0.8964577633802883</v>
       </c>
       <c r="L13">
-        <v>0.9075058637927187</v>
+        <v>0.9076491056918273</v>
       </c>
       <c r="M13">
-        <v>0.9000309348580904</v>
+        <v>0.9001731929581289</v>
+      </c>
+      <c r="N13">
+        <v>0.9334129094480298</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.866957013535999</v>
+        <v>0.8671202426830968</v>
       </c>
       <c r="D14">
-        <v>0.8819973737918103</v>
+        <v>0.8821549063585076</v>
       </c>
       <c r="E14">
-        <v>0.8931121215127122</v>
+        <v>0.8932537810525989</v>
       </c>
       <c r="F14">
-        <v>0.8859707598425753</v>
+        <v>0.8861112538947939</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018615536824978</v>
+        <v>1.018649229831037</v>
       </c>
       <c r="J14">
-        <v>0.903188818845903</v>
+        <v>0.9033417649077473</v>
       </c>
       <c r="K14">
-        <v>0.8995703925825432</v>
+        <v>0.8997237700387966</v>
       </c>
       <c r="L14">
-        <v>0.9103968353278674</v>
+        <v>0.9105348829438932</v>
       </c>
       <c r="M14">
-        <v>0.9034395873503284</v>
+        <v>0.9035764204998694</v>
+      </c>
+      <c r="N14">
+        <v>0.9355780420709918</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8692486412705106</v>
+        <v>0.8694080681708339</v>
       </c>
       <c r="D15">
-        <v>0.8841401683933592</v>
+        <v>0.8842941018509551</v>
       </c>
       <c r="E15">
-        <v>0.8950146576774632</v>
+        <v>0.8951531127210308</v>
       </c>
       <c r="F15">
-        <v>0.8881970791859769</v>
+        <v>0.8883342299600522</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019169464395896</v>
+        <v>1.019202362604793</v>
       </c>
       <c r="J15">
-        <v>0.9050989916155143</v>
+        <v>0.905248529900295</v>
       </c>
       <c r="K15">
-        <v>0.9015499061636159</v>
+        <v>0.9016998347823528</v>
       </c>
       <c r="L15">
-        <v>0.9121460497852337</v>
+        <v>0.9122810197448092</v>
       </c>
       <c r="M15">
-        <v>0.9055018969780465</v>
+        <v>0.9056355234078357</v>
+      </c>
+      <c r="N15">
+        <v>0.9368879748500956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8819991056647704</v>
+        <v>0.8821384861771722</v>
       </c>
       <c r="D16">
-        <v>0.8960740294502266</v>
+        <v>0.8962089371407567</v>
       </c>
       <c r="E16">
-        <v>0.9056161704877896</v>
+        <v>0.905737669688217</v>
       </c>
       <c r="F16">
-        <v>0.9005946708478143</v>
+        <v>0.9007142373525372</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022248262707232</v>
+        <v>1.022276975449969</v>
       </c>
       <c r="J16">
-        <v>0.9157309548506312</v>
+        <v>0.9158624246199799</v>
       </c>
       <c r="K16">
-        <v>0.9125695194374075</v>
+        <v>0.9127011822111332</v>
       </c>
       <c r="L16">
-        <v>0.921885335649834</v>
+        <v>0.9220039942339447</v>
       </c>
       <c r="M16">
-        <v>0.9169821364605919</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9170988655641372</v>
+      </c>
+      <c r="N16">
+        <v>0.9441797640833602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8895380671284703</v>
+        <v>0.8896663945973891</v>
       </c>
       <c r="D17">
-        <v>0.9031389778302856</v>
+        <v>0.9032633577289255</v>
       </c>
       <c r="E17">
-        <v>0.9118968536123433</v>
+        <v>0.9120089587219647</v>
       </c>
       <c r="F17">
-        <v>0.9079325092848619</v>
+        <v>0.9080424132062853</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024064572903418</v>
+        <v>1.024090982070744</v>
       </c>
       <c r="J17">
-        <v>0.9220197146438668</v>
+        <v>0.9221411448593816</v>
       </c>
       <c r="K17">
-        <v>0.9190890014503674</v>
+        <v>0.9192105305623037</v>
       </c>
       <c r="L17">
-        <v>0.9276486775800283</v>
+        <v>0.9277582784984358</v>
       </c>
       <c r="M17">
-        <v>0.9237734186622879</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9238808388776549</v>
+      </c>
+      <c r="N17">
+        <v>0.9484932307590243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8937897479774033</v>
+        <v>0.8939120771305958</v>
       </c>
       <c r="D18">
-        <v>0.9071261040295456</v>
+        <v>0.9072447591146083</v>
       </c>
       <c r="E18">
-        <v>0.9154428285264857</v>
+        <v>0.9155498218300531</v>
       </c>
       <c r="F18">
-        <v>0.9120729231607718</v>
+        <v>0.9121775939526773</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025086988695294</v>
+        <v>1.02511214920756</v>
       </c>
       <c r="J18">
-        <v>0.9255668641644602</v>
+        <v>0.9256828219176707</v>
       </c>
       <c r="K18">
-        <v>0.922766784955816</v>
+        <v>0.9228827952095082</v>
       </c>
       <c r="L18">
-        <v>0.930900333308044</v>
+        <v>0.9310049988706859</v>
       </c>
       <c r="M18">
-        <v>0.927604115033507</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9277064861785771</v>
+      </c>
+      <c r="N18">
+        <v>0.950926289688477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8952163617214555</v>
+        <v>0.8953367140924572</v>
       </c>
       <c r="D19">
-        <v>0.9084643862935747</v>
+        <v>0.9085811529222505</v>
       </c>
       <c r="E19">
-        <v>0.9166332707502484</v>
+        <v>0.916738577277912</v>
       </c>
       <c r="F19">
-        <v>0.9134625241897746</v>
+        <v>0.9135654720716733</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025429689664193</v>
+        <v>1.025454438916985</v>
       </c>
       <c r="J19">
-        <v>0.9267571422955191</v>
+        <v>0.9268712927445439</v>
       </c>
       <c r="K19">
-        <v>0.9240009812638732</v>
+        <v>0.9241151696685209</v>
       </c>
       <c r="L19">
-        <v>0.9319915972782407</v>
+        <v>0.9320946332304261</v>
       </c>
       <c r="M19">
-        <v>0.9288895426805778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9289902503237012</v>
+      </c>
+      <c r="N19">
+        <v>0.9517427292942591</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8887446718324241</v>
+        <v>0.8888741368651396</v>
       </c>
       <c r="D20">
-        <v>0.9023951690165816</v>
+        <v>0.9025206336859687</v>
       </c>
       <c r="E20">
-        <v>0.9112354581117702</v>
+        <v>0.9113485315606648</v>
       </c>
       <c r="F20">
-        <v>0.9071600428318244</v>
+        <v>0.9072709400608514</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023873616736765</v>
+        <v>1.023900262828575</v>
       </c>
       <c r="J20">
-        <v>0.9213578270859861</v>
+        <v>0.9214802931956785</v>
       </c>
       <c r="K20">
-        <v>0.918402778228711</v>
+        <v>0.9185253524112899</v>
       </c>
       <c r="L20">
-        <v>0.9270419977982856</v>
+        <v>0.9271525330958408</v>
       </c>
       <c r="M20">
-        <v>0.9230586267898437</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.923167004771462</v>
+      </c>
+      <c r="N20">
+        <v>0.9480392329351859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8658504195929495</v>
+        <v>0.8660155081841313</v>
       </c>
       <c r="D21">
-        <v>0.8809628808618365</v>
+        <v>0.8811221724507035</v>
       </c>
       <c r="E21">
-        <v>0.8921937333349216</v>
+        <v>0.8923369586847679</v>
       </c>
       <c r="F21">
-        <v>0.8848959231857164</v>
+        <v>0.8850380531067024</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018348015698167</v>
+        <v>1.018382097484332</v>
       </c>
       <c r="J21">
-        <v>0.9022665123207854</v>
+        <v>0.9024211227570813</v>
       </c>
       <c r="K21">
-        <v>0.8986146377481359</v>
+        <v>0.8987697000605792</v>
       </c>
       <c r="L21">
-        <v>0.9095523082281615</v>
+        <v>0.9096918591216846</v>
       </c>
       <c r="M21">
-        <v>0.9024438594904861</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9025822610283324</v>
+      </c>
+      <c r="N21">
+        <v>0.9349455728852855</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8496436842366039</v>
+        <v>0.8498379240383115</v>
       </c>
       <c r="D22">
-        <v>0.8658299838677962</v>
+        <v>0.8660167630546488</v>
       </c>
       <c r="E22">
-        <v>0.8787678352298088</v>
+        <v>0.8789354995762577</v>
       </c>
       <c r="F22">
-        <v>0.8691721257787618</v>
+        <v>0.8693399713236588</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014429396694063</v>
+        <v>1.014469580111871</v>
       </c>
       <c r="J22">
-        <v>0.8887664432357336</v>
+        <v>0.8889469707732754</v>
       </c>
       <c r="K22">
-        <v>0.8846272771391568</v>
+        <v>0.884808609937671</v>
       </c>
       <c r="L22">
-        <v>0.8971953381145503</v>
+        <v>0.8973583078169228</v>
       </c>
       <c r="M22">
-        <v>0.887872448518387</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8880354510477897</v>
+      </c>
+      <c r="N22">
+        <v>0.9256895718304551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8584385868009116</v>
+        <v>0.8586165430790966</v>
       </c>
       <c r="D23">
-        <v>0.8740379337272491</v>
+        <v>0.8742093790138599</v>
       </c>
       <c r="E23">
-        <v>0.8860479158106248</v>
+        <v>0.886201953660992</v>
       </c>
       <c r="F23">
-        <v>0.8777006723699932</v>
+        <v>0.8778541379279707</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016555837319505</v>
+        <v>1.016592611053271</v>
       </c>
       <c r="J23">
-        <v>0.8960906313088117</v>
+        <v>0.8962567217219761</v>
       </c>
       <c r="K23">
-        <v>0.8922153100969212</v>
+        <v>0.892382001102453</v>
       </c>
       <c r="L23">
-        <v>0.9038982910337715</v>
+        <v>0.9040482130219959</v>
       </c>
       <c r="M23">
-        <v>0.8957770292170482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8959262872134227</v>
+      </c>
+      <c r="N23">
+        <v>0.9307108165560429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.889103618495301</v>
+        <v>0.8892325681485094</v>
       </c>
       <c r="D24">
-        <v>0.9027316732539075</v>
+        <v>0.9028566464982668</v>
       </c>
       <c r="E24">
-        <v>0.911534673490167</v>
+        <v>0.9116473082709479</v>
       </c>
       <c r="F24">
-        <v>0.9075095142650983</v>
+        <v>0.9076199614372006</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02396001492734</v>
+        <v>1.023986553674579</v>
       </c>
       <c r="J24">
-        <v>0.9216572756289797</v>
+        <v>0.9217792724972044</v>
       </c>
       <c r="K24">
-        <v>0.9187132350658388</v>
+        <v>0.9188353358347605</v>
       </c>
       <c r="L24">
-        <v>0.9273164667603797</v>
+        <v>0.9274265787949758</v>
       </c>
       <c r="M24">
-        <v>0.9233820098179896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9234899538697297</v>
+      </c>
+      <c r="N24">
+        <v>0.948244628643275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9190237024348524</v>
+        <v>0.9191134272005311</v>
       </c>
       <c r="D25">
-        <v>0.930828467411584</v>
+        <v>0.9309158569824409</v>
       </c>
       <c r="E25">
-        <v>0.936543827571731</v>
+        <v>0.9366228613627082</v>
       </c>
       <c r="F25">
-        <v>0.9366715170761021</v>
+        <v>0.936747886989031</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031112428800474</v>
+        <v>1.03113082373687</v>
       </c>
       <c r="J25">
-        <v>0.9466213218496017</v>
+        <v>0.9467072160694989</v>
       </c>
       <c r="K25">
-        <v>0.9446047160276198</v>
+        <v>0.9446904732909521</v>
       </c>
       <c r="L25">
-        <v>0.9502141574778329</v>
+        <v>0.9502917383959744</v>
       </c>
       <c r="M25">
-        <v>0.950339499833522</v>
+        <v>0.9504144663368737</v>
+      </c>
+      <c r="N25">
+        <v>0.9653673691425857</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9398974232922992</v>
+        <v>0.9268172187130459</v>
       </c>
       <c r="D2">
-        <v>0.9504830940662375</v>
+        <v>0.9360590572503599</v>
       </c>
       <c r="E2">
-        <v>0.954069205106592</v>
+        <v>0.9485883252036525</v>
       </c>
       <c r="F2">
-        <v>0.9570305480684215</v>
+        <v>0.9555794384768818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036010846695861</v>
+        <v>1.041042914538016</v>
       </c>
       <c r="J2">
-        <v>0.9640374612844262</v>
+        <v>0.9514311655044131</v>
       </c>
       <c r="K2">
-        <v>0.9626782780992434</v>
+        <v>0.9484874213372831</v>
       </c>
       <c r="L2">
-        <v>0.9662078160468202</v>
+        <v>0.9608136216983618</v>
       </c>
       <c r="M2">
-        <v>0.9691228505612792</v>
+        <v>0.9676943870540946</v>
       </c>
       <c r="N2">
-        <v>0.9772656424174695</v>
+        <v>0.9527823068901093</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9536760096898346</v>
+        <v>0.946362448946808</v>
       </c>
       <c r="D3">
-        <v>0.9634751610645991</v>
+        <v>0.9546771105010002</v>
       </c>
       <c r="E3">
-        <v>0.9656662690929925</v>
+        <v>0.9656521466317515</v>
       </c>
       <c r="F3">
-        <v>0.9704779708707133</v>
+        <v>0.9728952853406813</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039184178087079</v>
+        <v>1.042380417044866</v>
       </c>
       <c r="J3">
-        <v>0.9755144360487505</v>
+        <v>0.9684303788502434</v>
       </c>
       <c r="K3">
-        <v>0.9745977466280286</v>
+        <v>0.9659247445487336</v>
       </c>
       <c r="L3">
-        <v>0.9767581594151555</v>
+        <v>0.9767442342325349</v>
       </c>
       <c r="M3">
-        <v>0.9815030672282717</v>
+        <v>0.9838871396810746</v>
       </c>
       <c r="N3">
-        <v>0.9851408839254835</v>
+        <v>0.969805661068728</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9620898289350102</v>
+        <v>0.9580641117271297</v>
       </c>
       <c r="D4">
-        <v>0.9714159133885707</v>
+        <v>0.965836228344227</v>
       </c>
       <c r="E4">
-        <v>0.9727596031411241</v>
+        <v>0.975881473951595</v>
       </c>
       <c r="F4">
-        <v>0.9786873815970973</v>
+        <v>0.983278630661043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041090789909294</v>
+        <v>1.043163690342949</v>
       </c>
       <c r="J4">
-        <v>0.9825156387293563</v>
+        <v>0.9786049734374761</v>
       </c>
       <c r="K4">
-        <v>0.9818720209423771</v>
+        <v>0.9763652514922314</v>
       </c>
       <c r="L4">
-        <v>0.9831983076799227</v>
+        <v>0.9862799763895853</v>
       </c>
       <c r="M4">
-        <v>0.9890500241651695</v>
+        <v>0.9935831471787452</v>
       </c>
       <c r="N4">
-        <v>0.989942652268738</v>
+        <v>0.9799947047473168</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9655194535705057</v>
+        <v>0.9627897941693143</v>
       </c>
       <c r="D5">
-        <v>0.9746541898152392</v>
+        <v>0.9703453397147155</v>
       </c>
       <c r="E5">
-        <v>0.9756534417910958</v>
+        <v>0.9800149396469982</v>
       </c>
       <c r="F5">
-        <v>0.9820328278025707</v>
+        <v>0.9874747007473822</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04186013891617</v>
+        <v>1.043475371545447</v>
       </c>
       <c r="J5">
-        <v>0.9853675413174339</v>
+        <v>0.9827128651570738</v>
       </c>
       <c r="K5">
-        <v>0.9848359003281736</v>
+        <v>0.9805813877686571</v>
       </c>
       <c r="L5">
-        <v>0.9858226365218586</v>
+        <v>0.990129878028583</v>
       </c>
       <c r="M5">
-        <v>0.9921228668901433</v>
+        <v>0.9974982213168985</v>
       </c>
       <c r="N5">
-        <v>0.9918980423123566</v>
+        <v>0.9841084301443379</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9660893215650315</v>
+        <v>0.963572698513768</v>
       </c>
       <c r="D6">
-        <v>0.9751923440828209</v>
+        <v>0.9710925021356656</v>
       </c>
       <c r="E6">
-        <v>0.9761344200963737</v>
+        <v>0.9806998517075846</v>
       </c>
       <c r="F6">
-        <v>0.9825886493967652</v>
+        <v>0.9881699994842693</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041987504525516</v>
+        <v>1.043526722620712</v>
       </c>
       <c r="J6">
-        <v>0.9858412968388779</v>
+        <v>0.983393345472378</v>
       </c>
       <c r="K6">
-        <v>0.9853283007826417</v>
+        <v>0.9812798511468448</v>
       </c>
       <c r="L6">
-        <v>0.9862586436835656</v>
+        <v>0.9907676123211557</v>
       </c>
       <c r="M6">
-        <v>0.9926332411211569</v>
+        <v>0.9981467703556615</v>
       </c>
       <c r="N6">
-        <v>0.9922228346693032</v>
+        <v>0.9847898768197425</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.962136063320196</v>
+        <v>0.9581279804932772</v>
       </c>
       <c r="D7">
-        <v>0.9714595626331166</v>
+        <v>0.9658971605384359</v>
       </c>
       <c r="E7">
-        <v>0.9727986052329135</v>
+        <v>0.975937330189801</v>
       </c>
       <c r="F7">
-        <v>0.9787324850011601</v>
+        <v>0.9833353318097111</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041101192962011</v>
+        <v>1.043167921863074</v>
       </c>
       <c r="J7">
-        <v>0.9825540927654997</v>
+        <v>0.9786604974433591</v>
       </c>
       <c r="K7">
-        <v>0.9819119818913321</v>
+        <v>0.9764222350442834</v>
       </c>
       <c r="L7">
-        <v>0.9832336893864133</v>
+        <v>0.9863320138082731</v>
       </c>
       <c r="M7">
-        <v>0.9890914628700925</v>
+        <v>0.9936360640384044</v>
       </c>
       <c r="N7">
-        <v>0.9899690204171524</v>
+        <v>0.9800503076036569</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446662200667989</v>
+        <v>0.9336409398964343</v>
       </c>
       <c r="D8">
-        <v>0.9549779515765553</v>
+        <v>0.9425559953151913</v>
       </c>
       <c r="E8">
-        <v>0.9580802418947154</v>
+        <v>0.9545422487964119</v>
       </c>
       <c r="F8">
-        <v>0.9616849701919314</v>
+        <v>0.9616204211241228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037115617085365</v>
+        <v>1.041513369955987</v>
       </c>
       <c r="J8">
-        <v>0.9680110673411053</v>
+        <v>0.9573663061956234</v>
       </c>
       <c r="K8">
-        <v>0.9668044024160186</v>
+        <v>0.9545747206236214</v>
       </c>
       <c r="L8">
-        <v>0.9698596647194397</v>
+        <v>0.966375335722566</v>
       </c>
       <c r="M8">
-        <v>0.9734102333632596</v>
+        <v>0.9733466495781511</v>
       </c>
       <c r="N8">
-        <v>0.9799927135698838</v>
+        <v>0.9587258761618713</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9093126070419217</v>
+        <v>0.8810955544450606</v>
       </c>
       <c r="D9">
-        <v>0.9217026001843271</v>
+        <v>0.8926205898229684</v>
       </c>
       <c r="E9">
-        <v>0.9284165635386782</v>
+        <v>0.9088141878589422</v>
       </c>
       <c r="F9">
-        <v>0.9271882014915985</v>
+        <v>0.9152596547676464</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028800484649597</v>
+        <v>1.03783338934781</v>
       </c>
       <c r="J9">
-        <v>0.9385311073074579</v>
+        <v>0.911679626560658</v>
       </c>
       <c r="K9">
-        <v>0.936208028347242</v>
+        <v>0.9077345144159232</v>
       </c>
       <c r="L9">
-        <v>0.9427886216576039</v>
+        <v>0.9235829372883387</v>
       </c>
       <c r="M9">
-        <v>0.9415844708918876</v>
+        <v>0.929895495504251</v>
       </c>
       <c r="N9">
-        <v>0.959752026040289</v>
+        <v>0.9129743162014891</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8812667852449309</v>
+        <v>0.8344430410474898</v>
       </c>
       <c r="D10">
-        <v>0.8953924777115466</v>
+        <v>0.8484917870241795</v>
       </c>
       <c r="E10">
-        <v>0.9050120614192332</v>
+        <v>0.868508376180571</v>
       </c>
       <c r="F10">
-        <v>0.8998660020764404</v>
+        <v>0.8744924116563437</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.022066684075242</v>
+        <v>1.034538737008379</v>
       </c>
       <c r="J10">
-        <v>0.9151354710979078</v>
+        <v>0.8712095327111385</v>
       </c>
       <c r="K10">
-        <v>0.9119475968830743</v>
+        <v>0.8662667752975091</v>
       </c>
       <c r="L10">
-        <v>0.9213378856822202</v>
+        <v>0.8857408835296212</v>
       </c>
       <c r="M10">
-        <v>0.9163136708976011</v>
+        <v>0.8915692633152714</v>
       </c>
       <c r="N10">
-        <v>0.9436803431140591</v>
+        <v>0.8724467501767182</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8675594002092185</v>
+        <v>0.8086228514262126</v>
       </c>
       <c r="D11">
-        <v>0.8825654838740488</v>
+        <v>0.8241686069596886</v>
       </c>
       <c r="E11">
-        <v>0.8936182968374516</v>
+        <v>0.846356099575416</v>
       </c>
       <c r="F11">
-        <v>0.8865379160629019</v>
+        <v>0.8521386302321248</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018755414729454</v>
+        <v>1.032739080061027</v>
       </c>
       <c r="J11">
-        <v>0.9037077575663821</v>
+        <v>0.8488811572418692</v>
       </c>
       <c r="K11">
-        <v>0.9001030574059228</v>
+        <v>0.8433932386462561</v>
       </c>
       <c r="L11">
-        <v>0.9108700304280782</v>
+        <v>0.8649020719063752</v>
       </c>
       <c r="M11">
-        <v>0.9039716459219381</v>
+        <v>0.8705156780577935</v>
       </c>
       <c r="N11">
-        <v>0.9358294751920231</v>
+        <v>0.8500866658531823</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8621661401318664</v>
+        <v>0.7975693149312625</v>
       </c>
       <c r="D12">
-        <v>0.8775248744382785</v>
+        <v>0.8137807183294271</v>
       </c>
       <c r="E12">
-        <v>0.8891439911106719</v>
+        <v>0.8369123893295517</v>
       </c>
       <c r="F12">
-        <v>0.8812997130403152</v>
+        <v>0.8426221310169304</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017451155988947</v>
+        <v>1.031977565935028</v>
       </c>
       <c r="J12">
-        <v>0.8992136843641739</v>
+        <v>0.8393425038283392</v>
       </c>
       <c r="K12">
-        <v>0.8954459628944955</v>
+        <v>0.8336223015064981</v>
       </c>
       <c r="L12">
-        <v>0.9067551523680664</v>
+        <v>0.8560103559236171</v>
       </c>
       <c r="M12">
-        <v>0.8991188933686165</v>
+        <v>0.8615451898928841</v>
       </c>
       <c r="N12">
-        <v>0.9327421343141088</v>
+        <v>0.8405344664577062</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8633380779720233</v>
+        <v>0.8000253563671245</v>
       </c>
       <c r="D13">
-        <v>0.8786198727767426</v>
+        <v>0.8160875013069039</v>
       </c>
       <c r="E13">
-        <v>0.8901158179574057</v>
+        <v>0.8390085511971418</v>
       </c>
       <c r="F13">
-        <v>0.8824376561593332</v>
+        <v>0.8447337323578178</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.017734598508557</v>
+        <v>1.032146242158474</v>
       </c>
       <c r="J13">
-        <v>0.9001901069268038</v>
+        <v>0.8414608017443406</v>
       </c>
       <c r="K13">
-        <v>0.8964577633802883</v>
+        <v>0.8357921627202785</v>
       </c>
       <c r="L13">
-        <v>0.9076491056918273</v>
+        <v>0.8579843928472133</v>
       </c>
       <c r="M13">
-        <v>0.9001731929581289</v>
+        <v>0.8635360152136118</v>
       </c>
       <c r="N13">
-        <v>0.9334129094480298</v>
+        <v>0.8426557725997207</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8671202426830968</v>
+        <v>0.8077453320887374</v>
       </c>
       <c r="D14">
-        <v>0.8821549063585076</v>
+        <v>0.8233433662192641</v>
       </c>
       <c r="E14">
-        <v>0.8932537810525989</v>
+        <v>0.845605470535758</v>
       </c>
       <c r="F14">
-        <v>0.8861112538947939</v>
+        <v>0.8513819156360678</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018649229831037</v>
+        <v>1.032678407390288</v>
       </c>
       <c r="J14">
-        <v>0.9033417649077473</v>
+        <v>0.8481234279678876</v>
       </c>
       <c r="K14">
-        <v>0.8997237700387966</v>
+        <v>0.8426170473711568</v>
       </c>
       <c r="L14">
-        <v>0.9105348829438932</v>
+        <v>0.86419548745196</v>
       </c>
       <c r="M14">
-        <v>0.9035764204998694</v>
+        <v>0.8698025409143589</v>
       </c>
       <c r="N14">
-        <v>0.9355780420709918</v>
+        <v>0.8493278605167189</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8694080681708339</v>
+        <v>0.8122773123245417</v>
       </c>
       <c r="D15">
-        <v>0.8842941018509551</v>
+        <v>0.8276063771356952</v>
       </c>
       <c r="E15">
-        <v>0.8951531127210308</v>
+        <v>0.8494837655267969</v>
       </c>
       <c r="F15">
-        <v>0.8883342299600522</v>
+        <v>0.8552921971138376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019202362604793</v>
+        <v>1.032992135326141</v>
       </c>
       <c r="J15">
-        <v>0.905248529900295</v>
+        <v>0.8520375910290051</v>
       </c>
       <c r="K15">
-        <v>0.9016998347823528</v>
+        <v>0.8466266004329752</v>
       </c>
       <c r="L15">
-        <v>0.9122810197448092</v>
+        <v>0.8678458970069577</v>
       </c>
       <c r="M15">
-        <v>0.9056355234078357</v>
+        <v>0.8734873361967374</v>
       </c>
       <c r="N15">
-        <v>0.9368879748500956</v>
+        <v>0.8532475821383438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8821384861771722</v>
+        <v>0.8359990859859866</v>
       </c>
       <c r="D16">
-        <v>0.8962089371407567</v>
+        <v>0.8499600542519127</v>
       </c>
       <c r="E16">
-        <v>0.905737669688217</v>
+        <v>0.8698472266925735</v>
       </c>
       <c r="F16">
-        <v>0.9007142373525372</v>
+        <v>0.8758447324561375</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.022276975449969</v>
+        <v>1.034647962183352</v>
       </c>
       <c r="J16">
-        <v>0.9158624246199799</v>
+        <v>0.8725570070671438</v>
       </c>
       <c r="K16">
-        <v>0.9127011822111332</v>
+        <v>0.8676472372372886</v>
       </c>
       <c r="L16">
-        <v>0.9220039942339447</v>
+        <v>0.8869994794424709</v>
       </c>
       <c r="M16">
-        <v>0.9170988655641372</v>
+        <v>0.8928421055367534</v>
       </c>
       <c r="N16">
-        <v>0.9441797640833602</v>
+        <v>0.8737961381008669</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8896663945973891</v>
+        <v>0.8491019920090853</v>
       </c>
       <c r="D17">
-        <v>0.9032633577289255</v>
+        <v>0.8623341479882477</v>
       </c>
       <c r="E17">
-        <v>0.9120089587219647</v>
+        <v>0.881137270068221</v>
       </c>
       <c r="F17">
-        <v>0.9080424132062853</v>
+        <v>0.8872537894495487</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024090982070744</v>
+        <v>1.035570320593877</v>
       </c>
       <c r="J17">
-        <v>0.9221411448593816</v>
+        <v>0.8839109261271985</v>
       </c>
       <c r="K17">
-        <v>0.9192105305623037</v>
+        <v>0.8792796334500147</v>
       </c>
       <c r="L17">
-        <v>0.9277582784984358</v>
+        <v>0.8976086258835609</v>
       </c>
       <c r="M17">
-        <v>0.9238808388776549</v>
+        <v>0.9035767285756744</v>
       </c>
       <c r="N17">
-        <v>0.9484932307590243</v>
+        <v>0.8851661810282992</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8939120771305958</v>
+        <v>0.8562576277278583</v>
       </c>
       <c r="D18">
-        <v>0.9072447591146083</v>
+        <v>0.8690993179058083</v>
       </c>
       <c r="E18">
-        <v>0.9155498218300531</v>
+        <v>0.8873144861695047</v>
       </c>
       <c r="F18">
-        <v>0.9121775939526773</v>
+        <v>0.8935000493077813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02511214920756</v>
+        <v>1.036075615567604</v>
       </c>
       <c r="J18">
-        <v>0.9256828219176707</v>
+        <v>0.8901165043480668</v>
       </c>
       <c r="K18">
-        <v>0.9228827952095082</v>
+        <v>0.8856378626286843</v>
       </c>
       <c r="L18">
-        <v>0.9310049988706859</v>
+        <v>0.9034100735587941</v>
       </c>
       <c r="M18">
-        <v>0.9277064861785771</v>
+        <v>0.9094507084828878</v>
       </c>
       <c r="N18">
-        <v>0.950926289688477</v>
+        <v>0.8913805718820311</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8953367140924572</v>
+        <v>0.858625254026445</v>
       </c>
       <c r="D19">
-        <v>0.9085811529222505</v>
+        <v>0.8713388830012158</v>
       </c>
       <c r="E19">
-        <v>0.916738577277912</v>
+        <v>0.8893601005934223</v>
       </c>
       <c r="F19">
-        <v>0.9135654720716733</v>
+        <v>0.8955691111946003</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025454438916985</v>
+        <v>1.036242986415695</v>
       </c>
       <c r="J19">
-        <v>0.9268712927445439</v>
+        <v>0.892170500134661</v>
       </c>
       <c r="K19">
-        <v>0.9241151696685209</v>
+        <v>0.8877424630679499</v>
       </c>
       <c r="L19">
-        <v>0.9320946332304261</v>
+        <v>0.9053307320219046</v>
       </c>
       <c r="M19">
-        <v>0.9289902503237012</v>
+        <v>0.9113959642899689</v>
       </c>
       <c r="N19">
-        <v>0.9517427292942591</v>
+        <v>0.8934374845782389</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8888741368651396</v>
+        <v>0.8477492097169231</v>
       </c>
       <c r="D20">
-        <v>0.9025206336859687</v>
+        <v>0.8610557723651142</v>
       </c>
       <c r="E20">
-        <v>0.9113485315606648</v>
+        <v>0.8799703588896484</v>
       </c>
       <c r="F20">
-        <v>0.9072709400608514</v>
+        <v>0.8860741397968418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023900262828575</v>
+        <v>1.035474902812752</v>
       </c>
       <c r="J20">
-        <v>0.9214802931956785</v>
+        <v>0.8827381384152092</v>
       </c>
       <c r="K20">
-        <v>0.9185253524112899</v>
+        <v>0.8780780341467722</v>
       </c>
       <c r="L20">
-        <v>0.9271525330958408</v>
+        <v>0.8965124393852364</v>
       </c>
       <c r="M20">
-        <v>0.923167004771462</v>
+        <v>0.9024671413885927</v>
       </c>
       <c r="N20">
-        <v>0.9480392329351859</v>
+        <v>0.8839917278232383</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8660155081841313</v>
+        <v>0.8055211666035968</v>
       </c>
       <c r="D21">
-        <v>0.8811221724507035</v>
+        <v>0.8212521380542508</v>
       </c>
       <c r="E21">
-        <v>0.8923369586847679</v>
+        <v>0.8437036153471064</v>
       </c>
       <c r="F21">
-        <v>0.8850380531067024</v>
+        <v>0.8494648704337664</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018382097484332</v>
+        <v>1.032524789319172</v>
       </c>
       <c r="J21">
-        <v>0.9024211227570813</v>
+        <v>0.8462032409340166</v>
       </c>
       <c r="K21">
-        <v>0.8987697000605792</v>
+        <v>0.8406500835777032</v>
       </c>
       <c r="L21">
-        <v>0.9096918591216846</v>
+        <v>0.8624050952919396</v>
       </c>
       <c r="M21">
-        <v>0.9025822610283324</v>
+        <v>0.8679957689653012</v>
       </c>
       <c r="N21">
-        <v>0.9349455728852855</v>
+        <v>0.8474049465970112</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8498379240383115</v>
+        <v>0.7692667749840375</v>
       </c>
       <c r="D22">
-        <v>0.8660167630546488</v>
+        <v>0.7872577276829367</v>
       </c>
       <c r="E22">
-        <v>0.8789354995762577</v>
+        <v>0.8128536762828162</v>
       </c>
       <c r="F22">
-        <v>0.8693399713236588</v>
+        <v>0.8184174223866045</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.014469580111871</v>
+        <v>1.030058337277336</v>
       </c>
       <c r="J22">
-        <v>0.8889469707732754</v>
+        <v>0.8149843241749142</v>
       </c>
       <c r="K22">
-        <v>0.884808609937671</v>
+        <v>0.8086716147147812</v>
       </c>
       <c r="L22">
-        <v>0.8973583078169228</v>
+        <v>0.8333374842832054</v>
       </c>
       <c r="M22">
-        <v>0.8880354510477897</v>
+        <v>0.8387097755735833</v>
       </c>
       <c r="N22">
-        <v>0.9256895718304551</v>
+        <v>0.8161416953952512</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8586165430790966</v>
+        <v>0.7899199759735877</v>
       </c>
       <c r="D23">
-        <v>0.8742093790138599</v>
+        <v>0.8066013550144453</v>
       </c>
       <c r="E23">
-        <v>0.886201953660992</v>
+        <v>0.8303921652398514</v>
       </c>
       <c r="F23">
-        <v>0.8778541379279707</v>
+        <v>0.8360565777261052</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.016592611053271</v>
+        <v>1.031454279429991</v>
       </c>
       <c r="J23">
-        <v>0.8962567217219761</v>
+        <v>0.8327494692589837</v>
       </c>
       <c r="K23">
-        <v>0.892382001102453</v>
+        <v>0.8268688380006171</v>
       </c>
       <c r="L23">
-        <v>0.9040482130219959</v>
+        <v>0.849868576465349</v>
       </c>
       <c r="M23">
-        <v>0.8959262872134227</v>
+        <v>0.8553538005638378</v>
       </c>
       <c r="N23">
-        <v>0.9307108165560429</v>
+        <v>0.8339320690230306</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8892325681485094</v>
+        <v>0.8483619444220363</v>
       </c>
       <c r="D24">
-        <v>0.9028566464982668</v>
+        <v>0.8616347815478171</v>
       </c>
       <c r="E24">
-        <v>0.9116473082709479</v>
+        <v>0.8804988683661585</v>
       </c>
       <c r="F24">
-        <v>0.9076199614372006</v>
+        <v>0.8866084065144799</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023986553674579</v>
+        <v>1.035518116978591</v>
       </c>
       <c r="J24">
-        <v>0.9217792724972044</v>
+        <v>0.8832693299862542</v>
       </c>
       <c r="K24">
-        <v>0.9188353358347605</v>
+        <v>0.8786222739455508</v>
       </c>
       <c r="L24">
-        <v>0.9274265787949758</v>
+        <v>0.8970089268489281</v>
       </c>
       <c r="M24">
-        <v>0.9234899538697297</v>
+        <v>0.9029696861605743</v>
       </c>
       <c r="N24">
-        <v>0.948244628643275</v>
+        <v>0.8845236737472428</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9191134272005311</v>
+        <v>0.8961789357525937</v>
       </c>
       <c r="D25">
-        <v>0.9309158569824409</v>
+        <v>0.9069317727640271</v>
       </c>
       <c r="E25">
-        <v>0.9366228613627082</v>
+        <v>0.9219099598022813</v>
       </c>
       <c r="F25">
-        <v>0.936747886989031</v>
+        <v>0.9285269684630784</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03113082373687</v>
+        <v>1.038899366691076</v>
       </c>
       <c r="J25">
-        <v>0.9467072160694989</v>
+        <v>0.924787779199941</v>
       </c>
       <c r="K25">
-        <v>0.9446904732909521</v>
+        <v>0.9211699059430684</v>
       </c>
       <c r="L25">
-        <v>0.9502917383959744</v>
+        <v>0.9358549230589845</v>
       </c>
       <c r="M25">
-        <v>0.9504144663368737</v>
+        <v>0.9423463501236289</v>
       </c>
       <c r="N25">
-        <v>0.9653673691425857</v>
+        <v>0.9261010839210457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9268172187130459</v>
+        <v>0.9757055239985859</v>
       </c>
       <c r="D2">
-        <v>0.9360590572503599</v>
+        <v>0.9907277479332522</v>
       </c>
       <c r="E2">
-        <v>0.9485883252036525</v>
+        <v>0.9916691755842691</v>
       </c>
       <c r="F2">
-        <v>0.9555794384768818</v>
+        <v>0.9971737913101105</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041042914538016</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.9514311655044131</v>
+        <v>0.9986379809869061</v>
       </c>
       <c r="K2">
-        <v>0.9484874213372831</v>
+        <v>1.002317789488499</v>
       </c>
       <c r="L2">
-        <v>0.9608136216983618</v>
+        <v>1.00324580523908</v>
       </c>
       <c r="M2">
-        <v>0.9676943870540946</v>
+        <v>1.008672640640885</v>
       </c>
       <c r="N2">
-        <v>0.9527823068901093</v>
+        <v>1.000749740510013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.946362448946808</v>
+        <v>0.9860335503276039</v>
       </c>
       <c r="D3">
-        <v>0.9546771105010002</v>
+        <v>0.9999928869964934</v>
       </c>
       <c r="E3">
-        <v>0.9656521466317515</v>
+        <v>1.000743953675865</v>
       </c>
       <c r="F3">
-        <v>0.9728952853406813</v>
+        <v>1.006873352081026</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042380417044866</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.9684303788502434</v>
+        <v>1.006912333998754</v>
       </c>
       <c r="K3">
-        <v>0.9659247445487336</v>
+        <v>1.0106258588356</v>
       </c>
       <c r="L3">
-        <v>0.9767442342325349</v>
+        <v>1.011367324317951</v>
       </c>
       <c r="M3">
-        <v>0.9838871396810746</v>
+        <v>1.017419036045901</v>
       </c>
       <c r="N3">
-        <v>0.969805661068728</v>
+        <v>1.003818265571313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9580641117271297</v>
+        <v>0.9924590845532976</v>
       </c>
       <c r="D4">
-        <v>0.965836228344227</v>
+        <v>1.005764317754744</v>
       </c>
       <c r="E4">
-        <v>0.975881473951595</v>
+        <v>1.006397052630199</v>
       </c>
       <c r="F4">
-        <v>0.983278630661043</v>
+        <v>1.012917245095571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043163690342949</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.9786049734374761</v>
+        <v>1.012057674728311</v>
       </c>
       <c r="K4">
-        <v>0.9763652514922314</v>
+        <v>1.015793666839335</v>
       </c>
       <c r="L4">
-        <v>0.9862799763895853</v>
+        <v>1.016418879154576</v>
       </c>
       <c r="M4">
-        <v>0.9935831471787452</v>
+        <v>1.022862230609533</v>
       </c>
       <c r="N4">
-        <v>0.9799947047473168</v>
+        <v>1.005723031985282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9627897941693143</v>
+        <v>0.9951035036019155</v>
       </c>
       <c r="D5">
-        <v>0.9703453397147155</v>
+        <v>1.008141097542983</v>
       </c>
       <c r="E5">
-        <v>0.9800149396469982</v>
+        <v>1.00872514294088</v>
       </c>
       <c r="F5">
-        <v>0.9874747007473822</v>
+        <v>1.015406682451448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043475371545447</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.9827128651570738</v>
+        <v>1.014174509262876</v>
       </c>
       <c r="K5">
-        <v>0.9805813877686571</v>
+        <v>1.017920088844431</v>
       </c>
       <c r="L5">
-        <v>0.990129878028583</v>
+        <v>1.018497403532922</v>
       </c>
       <c r="M5">
-        <v>0.9974982213168985</v>
+        <v>1.025102622338139</v>
       </c>
       <c r="N5">
-        <v>0.9841084301443379</v>
+        <v>1.006505768718927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.963572698513768</v>
+        <v>0.9955443054610376</v>
       </c>
       <c r="D6">
-        <v>0.9710925021356656</v>
+        <v>1.008537373364081</v>
       </c>
       <c r="E6">
-        <v>0.9806998517075846</v>
+        <v>1.009113302834144</v>
       </c>
       <c r="F6">
-        <v>0.9881699994842693</v>
+        <v>1.015821768301859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043526722620712</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>0.983393345472378</v>
+        <v>1.014527321537465</v>
       </c>
       <c r="K6">
-        <v>0.9812798511468448</v>
+        <v>1.018274518886591</v>
       </c>
       <c r="L6">
-        <v>0.9907676123211557</v>
+        <v>1.018843846075241</v>
       </c>
       <c r="M6">
-        <v>0.9981467703556615</v>
+        <v>1.025476087252201</v>
       </c>
       <c r="N6">
-        <v>0.9847898768197425</v>
+        <v>1.006636171819972</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9581279804932772</v>
+        <v>0.992494637042304</v>
       </c>
       <c r="D7">
-        <v>0.9658971605384359</v>
+        <v>1.005796266042698</v>
       </c>
       <c r="E7">
-        <v>0.975937330189801</v>
+        <v>1.006428346298874</v>
       </c>
       <c r="F7">
-        <v>0.9833353318097111</v>
+        <v>1.012950705903696</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043167921863074</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.9786604974433591</v>
+        <v>1.012086137203661</v>
       </c>
       <c r="K7">
-        <v>0.9764222350442834</v>
+        <v>1.015822256880247</v>
       </c>
       <c r="L7">
-        <v>0.9863320138082731</v>
+        <v>1.016446825466245</v>
       </c>
       <c r="M7">
-        <v>0.9936360640384044</v>
+        <v>1.022892350393535</v>
       </c>
       <c r="N7">
-        <v>0.9800503076036569</v>
+        <v>1.005733560166982</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9336409398964343</v>
+        <v>0.9792522680240811</v>
       </c>
       <c r="D8">
-        <v>0.9425559953151913</v>
+        <v>0.9939078566556259</v>
       </c>
       <c r="E8">
-        <v>0.9545422487964119</v>
+        <v>0.9947838818208812</v>
       </c>
       <c r="F8">
-        <v>0.9616204211241228</v>
+        <v>1.000502620381671</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041513369955987</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9573663061956234</v>
+        <v>1.001479927707144</v>
       </c>
       <c r="K8">
-        <v>0.9545747206236214</v>
+        <v>1.005170987204334</v>
       </c>
       <c r="L8">
-        <v>0.966375335722566</v>
+        <v>1.006034975422101</v>
       </c>
       <c r="M8">
-        <v>0.9733466495781511</v>
+        <v>1.011675787656509</v>
       </c>
       <c r="N8">
-        <v>0.9587258761618713</v>
+        <v>1.001804327812886</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8810955544450606</v>
+        <v>0.9536967690200878</v>
       </c>
       <c r="D9">
-        <v>0.8926205898229684</v>
+        <v>0.9710338855732413</v>
       </c>
       <c r="E9">
-        <v>0.9088141878589422</v>
+        <v>0.972382310884591</v>
       </c>
       <c r="F9">
-        <v>0.9152596547676464</v>
+        <v>0.976566685997885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03783338934781</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.911679626560658</v>
+        <v>0.9809976775977732</v>
       </c>
       <c r="K9">
-        <v>0.9077345144159232</v>
+        <v>0.984615076438456</v>
       </c>
       <c r="L9">
-        <v>0.9235829372883387</v>
+        <v>0.9859399435115476</v>
       </c>
       <c r="M9">
-        <v>0.929895495504251</v>
+        <v>0.9900517493664148</v>
       </c>
       <c r="N9">
-        <v>0.9129743162014891</v>
+        <v>0.9941932284888042</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8344430410474898</v>
+        <v>0.9347440842594841</v>
       </c>
       <c r="D10">
-        <v>0.8484917870241795</v>
+        <v>0.9541329813716837</v>
       </c>
       <c r="E10">
-        <v>0.868508376180571</v>
+        <v>0.955834235821118</v>
       </c>
       <c r="F10">
-        <v>0.8744924116563437</v>
+        <v>0.9588906306215115</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034538737008379</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.8712095327111385</v>
+        <v>0.9658093515980837</v>
       </c>
       <c r="K10">
-        <v>0.8662667752975091</v>
+        <v>0.9693828879350117</v>
       </c>
       <c r="L10">
-        <v>0.8857408835296212</v>
+        <v>0.9710494888025312</v>
       </c>
       <c r="M10">
-        <v>0.8915692633152714</v>
+        <v>0.9740440332287331</v>
       </c>
       <c r="N10">
-        <v>0.8724467501767182</v>
+        <v>0.9885413239239873</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8086228514262126</v>
+        <v>0.925959624032853</v>
       </c>
       <c r="D11">
-        <v>0.8241686069596886</v>
+        <v>0.9463190838689189</v>
       </c>
       <c r="E11">
-        <v>0.846356099575416</v>
+        <v>0.9481848535871099</v>
       </c>
       <c r="F11">
-        <v>0.8521386302321248</v>
+        <v>0.9507204031958494</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032739080061027</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.8488811572418692</v>
+        <v>0.958773454403905</v>
       </c>
       <c r="K11">
-        <v>0.8433932386462561</v>
+        <v>0.9623296842135511</v>
       </c>
       <c r="L11">
-        <v>0.8649020719063752</v>
+        <v>0.9641548687238691</v>
       </c>
       <c r="M11">
-        <v>0.8705156780577935</v>
+        <v>0.966635602404547</v>
       </c>
       <c r="N11">
-        <v>0.8500866658531823</v>
+        <v>0.9859233609472645</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7975693149312625</v>
+        <v>0.9225964164161484</v>
       </c>
       <c r="D12">
-        <v>0.8137807183294271</v>
+        <v>0.9433308883664031</v>
       </c>
       <c r="E12">
-        <v>0.8369123893295517</v>
+        <v>0.9452598327474112</v>
       </c>
       <c r="F12">
-        <v>0.8426221310169304</v>
+        <v>0.9475962250969107</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031977565935028</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.8393425038283392</v>
+        <v>0.9560806295943834</v>
       </c>
       <c r="K12">
-        <v>0.8336223015064981</v>
+        <v>0.95963073607757</v>
       </c>
       <c r="L12">
-        <v>0.8560103559236171</v>
+        <v>0.9615166864811064</v>
       </c>
       <c r="M12">
-        <v>0.8615451898928841</v>
+        <v>0.9638013150906077</v>
       </c>
       <c r="N12">
-        <v>0.8405344664577062</v>
+        <v>0.9849216526809627</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8000253563671245</v>
+        <v>0.9233226231426106</v>
       </c>
       <c r="D13">
-        <v>0.8160875013069039</v>
+        <v>0.9439759569131388</v>
       </c>
       <c r="E13">
-        <v>0.8390085511971418</v>
+        <v>0.945891250949905</v>
       </c>
       <c r="F13">
-        <v>0.8447337323578178</v>
+        <v>0.948270636075372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032146242158474</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>0.8414608017443406</v>
+        <v>0.9566620342511696</v>
       </c>
       <c r="K13">
-        <v>0.8357921627202785</v>
+        <v>0.9602134394062042</v>
       </c>
       <c r="L13">
-        <v>0.8579843928472133</v>
+        <v>0.9620862661406792</v>
       </c>
       <c r="M13">
-        <v>0.8635360152136118</v>
+        <v>0.9644132114253205</v>
       </c>
       <c r="N13">
-        <v>0.8426557725997207</v>
+        <v>0.9851379149352512</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8077453320887374</v>
+        <v>0.9256837545300902</v>
       </c>
       <c r="D14">
-        <v>0.8233433662192641</v>
+        <v>0.9460739027401227</v>
       </c>
       <c r="E14">
-        <v>0.845605470535758</v>
+        <v>0.9479448503322062</v>
       </c>
       <c r="F14">
-        <v>0.8513819156360678</v>
+        <v>0.9504640590910787</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032678407390288</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.8481234279678876</v>
+        <v>0.9585525524253822</v>
       </c>
       <c r="K14">
-        <v>0.8426170473711568</v>
+        <v>0.9621082695019855</v>
       </c>
       <c r="L14">
-        <v>0.86419548745196</v>
+        <v>0.9639384372123346</v>
       </c>
       <c r="M14">
-        <v>0.8698025409143589</v>
+        <v>0.9664030728382567</v>
       </c>
       <c r="N14">
-        <v>0.8493278605167189</v>
+        <v>0.9858411807172616</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8122773123245417</v>
+        <v>0.9271247843469729</v>
       </c>
       <c r="D15">
-        <v>0.8276063771356952</v>
+        <v>0.9473547705740427</v>
       </c>
       <c r="E15">
-        <v>0.8494837655267969</v>
+        <v>0.9491986789538036</v>
       </c>
       <c r="F15">
-        <v>0.8552921971138376</v>
+        <v>0.9518032556042941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032992135326141</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.8520375910290051</v>
+        <v>0.9597064942338321</v>
       </c>
       <c r="K15">
-        <v>0.8466266004329752</v>
+        <v>0.9632649102574805</v>
       </c>
       <c r="L15">
-        <v>0.8678458970069577</v>
+        <v>0.9650690499556377</v>
       </c>
       <c r="M15">
-        <v>0.8734873361967374</v>
+        <v>0.9676178000410289</v>
       </c>
       <c r="N15">
-        <v>0.8532475821383438</v>
+        <v>0.9862704833197891</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8359990859859866</v>
+        <v>0.9353138243113504</v>
       </c>
       <c r="D16">
-        <v>0.8499600542519127</v>
+        <v>0.9546402118301095</v>
       </c>
       <c r="E16">
-        <v>0.8698472266925735</v>
+        <v>0.956330819530734</v>
       </c>
       <c r="F16">
-        <v>0.8758447324561375</v>
+        <v>0.9594210320831001</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034647962183352</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.8725570070671438</v>
+        <v>0.9662657899547855</v>
       </c>
       <c r="K16">
-        <v>0.8676472372372886</v>
+        <v>0.9698405144877364</v>
       </c>
       <c r="L16">
-        <v>0.8869994794424709</v>
+        <v>0.9714968356433673</v>
       </c>
       <c r="M16">
-        <v>0.8928421055367534</v>
+        <v>0.9745247877278014</v>
       </c>
       <c r="N16">
-        <v>0.8737961381008669</v>
+        <v>0.9887111809737948</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8491019920090853</v>
+        <v>0.9402872893536548</v>
       </c>
       <c r="D17">
-        <v>0.8623341479882477</v>
+        <v>0.9590702345661318</v>
       </c>
       <c r="E17">
-        <v>0.881137270068221</v>
+        <v>0.9606680162330579</v>
       </c>
       <c r="F17">
-        <v>0.8872537894495487</v>
+        <v>0.9640536508922791</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035570320593877</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.8839109261271985</v>
+        <v>0.9702506622034812</v>
       </c>
       <c r="K17">
-        <v>0.8792796334500147</v>
+        <v>0.9738361002871944</v>
       </c>
       <c r="L17">
-        <v>0.8976086258835609</v>
+        <v>0.9754027096861362</v>
       </c>
       <c r="M17">
-        <v>0.9035767285756744</v>
+        <v>0.9787227388278991</v>
       </c>
       <c r="N17">
-        <v>0.8851661810282992</v>
+        <v>0.9901941443287204</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8562576277278583</v>
+        <v>0.9431335240086678</v>
       </c>
       <c r="D18">
-        <v>0.8690993179058083</v>
+        <v>0.9616072428256411</v>
       </c>
       <c r="E18">
-        <v>0.8873144861695047</v>
+        <v>0.963151989471879</v>
       </c>
       <c r="F18">
-        <v>0.8935000493077813</v>
+        <v>0.9667068746506655</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036075615567604</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.8901165043480668</v>
+        <v>0.9725314671517938</v>
       </c>
       <c r="K18">
-        <v>0.8856378626286843</v>
+        <v>0.9761233128075721</v>
       </c>
       <c r="L18">
-        <v>0.9034100735587941</v>
+        <v>0.9776385977961649</v>
       </c>
       <c r="M18">
-        <v>0.9094507084828878</v>
+        <v>0.9811261509024458</v>
       </c>
       <c r="N18">
-        <v>0.8913805718820311</v>
+        <v>0.9910429493472643</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.858625254026445</v>
+        <v>0.9440950995785383</v>
       </c>
       <c r="D19">
-        <v>0.8713388830012158</v>
+        <v>0.9624646378148221</v>
       </c>
       <c r="E19">
-        <v>0.8893601005934223</v>
+        <v>0.9639914808667275</v>
       </c>
       <c r="F19">
-        <v>0.8955691111946003</v>
+        <v>0.9676035783843775</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036242986415695</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>0.892170500134661</v>
+        <v>0.9733020632367191</v>
       </c>
       <c r="K19">
-        <v>0.8877424630679499</v>
+        <v>0.976896119255186</v>
       </c>
       <c r="L19">
-        <v>0.9053307320219046</v>
+        <v>0.9783940669130539</v>
       </c>
       <c r="M19">
-        <v>0.9113959642899689</v>
+        <v>0.9819382796405531</v>
       </c>
       <c r="N19">
-        <v>0.8934374845782389</v>
+        <v>0.9913297232766201</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8477492097169231</v>
+        <v>0.9397594296577439</v>
       </c>
       <c r="D20">
-        <v>0.8610557723651142</v>
+        <v>0.958599865012304</v>
       </c>
       <c r="E20">
-        <v>0.8799703588896484</v>
+        <v>0.9602074893743683</v>
       </c>
       <c r="F20">
-        <v>0.8860741397968418</v>
+        <v>0.9635617503300944</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035474902812752</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.8827381384152092</v>
+        <v>0.9698276907382264</v>
       </c>
       <c r="K20">
-        <v>0.8780780341467722</v>
+        <v>0.9734119626326874</v>
       </c>
       <c r="L20">
-        <v>0.8965124393852364</v>
+        <v>0.9749880917791905</v>
       </c>
       <c r="M20">
-        <v>0.9024671413885927</v>
+        <v>0.9782770823722555</v>
       </c>
       <c r="N20">
-        <v>0.8839917278232383</v>
+        <v>0.9900367340387017</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8055211666035968</v>
+        <v>0.9249913516162848</v>
       </c>
       <c r="D21">
-        <v>0.8212521380542508</v>
+        <v>0.9454585810541544</v>
       </c>
       <c r="E21">
-        <v>0.8437036153471064</v>
+        <v>0.947342527731981</v>
       </c>
       <c r="F21">
-        <v>0.8494648704337664</v>
+        <v>0.9498207266015574</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032524789319172</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.8462032409340166</v>
+        <v>0.9579981283711307</v>
       </c>
       <c r="K21">
-        <v>0.8406500835777032</v>
+        <v>0.9615525667811601</v>
       </c>
       <c r="L21">
-        <v>0.8624050952919396</v>
+        <v>0.9633952426855507</v>
       </c>
       <c r="M21">
-        <v>0.8679957689653012</v>
+        <v>0.9658194837484424</v>
       </c>
       <c r="N21">
-        <v>0.8474049465970112</v>
+        <v>0.9856349280932235</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7692667749840375</v>
+        <v>0.9151168248276688</v>
       </c>
       <c r="D22">
-        <v>0.7872577276829367</v>
+        <v>0.9366922854574548</v>
       </c>
       <c r="E22">
-        <v>0.8128536762828162</v>
+        <v>0.9387621302302187</v>
       </c>
       <c r="F22">
-        <v>0.8184174223866045</v>
+        <v>0.9406560212198016</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030058337277336</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.8149843241749142</v>
+        <v>0.9500941289077257</v>
       </c>
       <c r="K22">
-        <v>0.8086716147147812</v>
+        <v>0.9536316127961511</v>
       </c>
       <c r="L22">
-        <v>0.8333374842832054</v>
+        <v>0.9556528258579073</v>
       </c>
       <c r="M22">
-        <v>0.8387097755735833</v>
+        <v>0.9575024701443987</v>
       </c>
       <c r="N22">
-        <v>0.8161416953952512</v>
+        <v>0.9826954761545472</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7899199759735877</v>
+        <v>0.9204127087222649</v>
       </c>
       <c r="D23">
-        <v>0.8066013550144453</v>
+        <v>0.9413917086675688</v>
       </c>
       <c r="E23">
-        <v>0.8303921652398514</v>
+        <v>0.943361731011443</v>
       </c>
       <c r="F23">
-        <v>0.8360565777261052</v>
+        <v>0.9455688771438713</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031454279429991</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.8327494692589837</v>
+        <v>0.9543325109600618</v>
       </c>
       <c r="K23">
-        <v>0.8268688380006171</v>
+        <v>0.9578787903262584</v>
       </c>
       <c r="L23">
-        <v>0.849868576465349</v>
+        <v>0.9598042130579733</v>
       </c>
       <c r="M23">
-        <v>0.8553538005638378</v>
+        <v>0.9619616854386713</v>
       </c>
       <c r="N23">
-        <v>0.8339320690230306</v>
+        <v>0.9842714699605416</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8483619444220363</v>
+        <v>0.9399981147957063</v>
       </c>
       <c r="D24">
-        <v>0.8616347815478171</v>
+        <v>0.9588125490249636</v>
       </c>
       <c r="E24">
-        <v>0.8804988683661585</v>
+        <v>0.9604157224923296</v>
       </c>
       <c r="F24">
-        <v>0.8866084065144799</v>
+        <v>0.9637841692833141</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035518116978591</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.8832693299862542</v>
+        <v>0.9700189470142617</v>
       </c>
       <c r="K24">
-        <v>0.8786222739455508</v>
+        <v>0.9736037453732985</v>
       </c>
       <c r="L24">
-        <v>0.8970089268489281</v>
+        <v>0.9751755698758177</v>
       </c>
       <c r="M24">
-        <v>0.9029696861605743</v>
+        <v>0.9784785941739997</v>
       </c>
       <c r="N24">
-        <v>0.8845236737472428</v>
+        <v>0.9901079107143875</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8961789357525937</v>
+        <v>0.9606055731382017</v>
       </c>
       <c r="D25">
-        <v>0.9069317727640271</v>
+        <v>0.9772084509611645</v>
       </c>
       <c r="E25">
-        <v>0.9219099598022813</v>
+        <v>0.9784288568261494</v>
       </c>
       <c r="F25">
-        <v>0.9285269684630784</v>
+        <v>0.983026266635166</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038899366691076</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.924787779199941</v>
+        <v>0.9865355508503818</v>
       </c>
       <c r="K25">
-        <v>0.9211699059430684</v>
+        <v>0.9901711898879919</v>
       </c>
       <c r="L25">
-        <v>0.9358549230589845</v>
+        <v>0.9913715290248321</v>
       </c>
       <c r="M25">
-        <v>0.9423463501236289</v>
+        <v>0.9958939196879691</v>
       </c>
       <c r="N25">
-        <v>0.9261010839210457</v>
+        <v>0.9962530175741438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9757055239985859</v>
+        <v>1.059880695826387</v>
       </c>
       <c r="D2">
-        <v>0.9907277479332522</v>
+        <v>1.066195651312385</v>
       </c>
       <c r="E2">
-        <v>0.9916691755842691</v>
+        <v>1.06559725020907</v>
       </c>
       <c r="F2">
-        <v>0.9971737913101105</v>
+        <v>1.076294384897704</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.02359499962809</v>
       </c>
       <c r="J2">
-        <v>0.9986379809869061</v>
+        <v>1.064864431662581</v>
       </c>
       <c r="K2">
-        <v>1.002317789488499</v>
+        <v>1.068906852217692</v>
       </c>
       <c r="L2">
-        <v>1.00324580523908</v>
+        <v>1.06831006178296</v>
       </c>
       <c r="M2">
-        <v>1.008672640640885</v>
+        <v>1.078978695818275</v>
       </c>
       <c r="N2">
-        <v>1.000749740510013</v>
+        <v>1.024944988265652</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9860335503276039</v>
+        <v>1.061845146055405</v>
       </c>
       <c r="D3">
-        <v>0.9999928869964934</v>
+        <v>1.068008479248407</v>
       </c>
       <c r="E3">
-        <v>1.000743953675865</v>
+        <v>1.067371612228636</v>
       </c>
       <c r="F3">
-        <v>1.006873352081026</v>
+        <v>1.07820486085402</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208684</v>
       </c>
       <c r="J3">
-        <v>1.006912333998754</v>
+        <v>1.066477460189505</v>
       </c>
       <c r="K3">
-        <v>1.0106258588356</v>
+        <v>1.070532738703228</v>
       </c>
       <c r="L3">
-        <v>1.011367324317951</v>
+        <v>1.069897459242697</v>
       </c>
       <c r="M3">
-        <v>1.017419036045901</v>
+        <v>1.080703977836677</v>
       </c>
       <c r="N3">
-        <v>1.003818265571313</v>
+        <v>1.025517505399298</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9924590845532976</v>
+        <v>1.063113377602309</v>
       </c>
       <c r="D4">
-        <v>1.005764317754744</v>
+        <v>1.069178901813843</v>
       </c>
       <c r="E4">
-        <v>1.006397052630199</v>
+        <v>1.068517146255217</v>
       </c>
       <c r="F4">
-        <v>1.012917245095571</v>
+        <v>1.079438591075603</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.012057674728311</v>
+        <v>1.067518081017153</v>
       </c>
       <c r="K4">
-        <v>1.015793666839335</v>
+        <v>1.071581758037445</v>
       </c>
       <c r="L4">
-        <v>1.016418879154576</v>
+        <v>1.070921567324904</v>
       </c>
       <c r="M4">
-        <v>1.022862230609533</v>
+        <v>1.081817449544657</v>
       </c>
       <c r="N4">
-        <v>1.005723031985282</v>
+        <v>1.025886005745347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9951035036019155</v>
+        <v>1.063645868060701</v>
       </c>
       <c r="D5">
-        <v>1.008141097542983</v>
+        <v>1.06967034282929</v>
       </c>
       <c r="E5">
-        <v>1.00872514294088</v>
+        <v>1.068998124028754</v>
       </c>
       <c r="F5">
-        <v>1.015406682451448</v>
+        <v>1.079956676848268</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.014174509262876</v>
+        <v>1.067954828209848</v>
       </c>
       <c r="K5">
-        <v>1.017920088844431</v>
+        <v>1.072022054706459</v>
       </c>
       <c r="L5">
-        <v>1.018497403532922</v>
+        <v>1.071351389393252</v>
       </c>
       <c r="M5">
-        <v>1.025102622338139</v>
+        <v>1.08228487548647</v>
       </c>
       <c r="N5">
-        <v>1.006505768718927</v>
+        <v>1.026040460367392</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9955443054610376</v>
+        <v>1.063735236599872</v>
       </c>
       <c r="D6">
-        <v>1.008537373364081</v>
+        <v>1.0697528229853</v>
       </c>
       <c r="E6">
-        <v>1.009113302834144</v>
+        <v>1.069078847341389</v>
       </c>
       <c r="F6">
-        <v>1.015821768301859</v>
+        <v>1.080043632571595</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.014527321537465</v>
+        <v>1.068028117659704</v>
       </c>
       <c r="K6">
-        <v>1.018274518886591</v>
+        <v>1.072095941226434</v>
       </c>
       <c r="L6">
-        <v>1.018843846075241</v>
+        <v>1.071423517057895</v>
       </c>
       <c r="M6">
-        <v>1.025476087252201</v>
+        <v>1.08236331911628</v>
       </c>
       <c r="N6">
-        <v>1.006636171819972</v>
+        <v>1.026066366989902</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.992494637042304</v>
+        <v>1.06312049538743</v>
       </c>
       <c r="D7">
-        <v>1.005796266042698</v>
+        <v>1.069185470824823</v>
       </c>
       <c r="E7">
-        <v>1.006428346298874</v>
+        <v>1.068523575456853</v>
       </c>
       <c r="F7">
-        <v>1.012950705903696</v>
+        <v>1.079445515995302</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.02344298551034</v>
       </c>
       <c r="J7">
-        <v>1.012086137203661</v>
+        <v>1.06752391969997</v>
       </c>
       <c r="K7">
-        <v>1.015822256880247</v>
+        <v>1.071587644074963</v>
       </c>
       <c r="L7">
-        <v>1.016446825466245</v>
+        <v>1.070927313408352</v>
       </c>
       <c r="M7">
-        <v>1.022892350393535</v>
+        <v>1.081823697952229</v>
       </c>
       <c r="N7">
-        <v>1.005733560166982</v>
+        <v>1.025888071387038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9792522680240811</v>
+        <v>1.060545203331269</v>
       </c>
       <c r="D8">
-        <v>0.9939078566556259</v>
+        <v>1.06680885353093</v>
       </c>
       <c r="E8">
-        <v>0.9947838818208812</v>
+        <v>1.066197452109527</v>
       </c>
       <c r="F8">
-        <v>1.000502620381671</v>
+        <v>1.076940562770609</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>1.001479927707144</v>
+        <v>1.065410217344836</v>
       </c>
       <c r="K8">
-        <v>1.005170987204334</v>
+        <v>1.069456967007026</v>
       </c>
       <c r="L8">
-        <v>1.006034975422101</v>
+        <v>1.068847170079768</v>
       </c>
       <c r="M8">
-        <v>1.011675787656509</v>
+        <v>1.079562373911781</v>
       </c>
       <c r="N8">
-        <v>1.001804327812886</v>
+        <v>1.02513888153306</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9536967690200878</v>
+        <v>1.05598410572061</v>
       </c>
       <c r="D9">
-        <v>0.9710338855732413</v>
+        <v>1.062600264868534</v>
       </c>
       <c r="E9">
-        <v>0.972382310884591</v>
+        <v>1.062077872050329</v>
       </c>
       <c r="F9">
-        <v>0.976566685997885</v>
+        <v>1.072506734448362</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9809976775977732</v>
+        <v>1.06166100050086</v>
       </c>
       <c r="K9">
-        <v>0.984615076438456</v>
+        <v>1.065678442843346</v>
       </c>
       <c r="L9">
-        <v>0.9859399435115476</v>
+        <v>1.06515766306946</v>
       </c>
       <c r="M9">
-        <v>0.9900517493664148</v>
+        <v>1.075554647605434</v>
       </c>
       <c r="N9">
-        <v>0.9941932284888042</v>
+        <v>1.023803481430824</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9347440842594841</v>
+        <v>1.05292657621234</v>
       </c>
       <c r="D10">
-        <v>0.9541329813716837</v>
+        <v>1.059779528477301</v>
       </c>
       <c r="E10">
-        <v>0.955834235821118</v>
+        <v>1.059316524790412</v>
       </c>
       <c r="F10">
-        <v>0.9588906306215115</v>
+        <v>1.069536395660843</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.9658093515980837</v>
+        <v>1.059143948768712</v>
       </c>
       <c r="K10">
-        <v>0.9693828879350117</v>
+        <v>1.063142262967229</v>
       </c>
       <c r="L10">
-        <v>0.9710494888025312</v>
+        <v>1.062680833646136</v>
       </c>
       <c r="M10">
-        <v>0.9740440332287331</v>
+        <v>1.072866301648161</v>
       </c>
       <c r="N10">
-        <v>0.9885413239239873</v>
+        <v>1.022902625331242</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.925959624032853</v>
+        <v>1.051598365262403</v>
       </c>
       <c r="D11">
-        <v>0.9463190838689189</v>
+        <v>1.058554311315541</v>
       </c>
       <c r="E11">
-        <v>0.9481848535871099</v>
+        <v>1.05811704204199</v>
       </c>
       <c r="F11">
-        <v>0.9507204031958494</v>
+        <v>1.068246519868483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.958773454403905</v>
+        <v>1.058049638298319</v>
       </c>
       <c r="K11">
-        <v>0.9623296842135511</v>
+        <v>1.062039767897639</v>
       </c>
       <c r="L11">
-        <v>0.9641548687238691</v>
+        <v>1.061604045054462</v>
       </c>
       <c r="M11">
-        <v>0.966635602404547</v>
+        <v>1.07169805724299</v>
       </c>
       <c r="N11">
-        <v>0.9859233609472645</v>
+        <v>1.022509954756825</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9225964164161484</v>
+        <v>1.051104341028799</v>
       </c>
       <c r="D12">
-        <v>0.9433308883664031</v>
+        <v>1.05809861587819</v>
       </c>
       <c r="E12">
-        <v>0.9452598327474112</v>
+        <v>1.057670908844888</v>
       </c>
       <c r="F12">
-        <v>0.9475962250969107</v>
+        <v>1.067766824418723</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9560806295943834</v>
+        <v>1.057642480039465</v>
       </c>
       <c r="K12">
-        <v>0.95963073607757</v>
+        <v>1.06162958431155</v>
       </c>
       <c r="L12">
-        <v>0.9615166864811064</v>
+        <v>1.061203411594794</v>
       </c>
       <c r="M12">
-        <v>0.9638013150906077</v>
+        <v>1.071263471498063</v>
       </c>
       <c r="N12">
-        <v>0.9849216526809627</v>
+        <v>1.022363702895156</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9233226231426106</v>
+        <v>1.051210341507673</v>
       </c>
       <c r="D13">
-        <v>0.9439759569131388</v>
+        <v>1.058196391377689</v>
       </c>
       <c r="E13">
-        <v>0.945891250949905</v>
+        <v>1.057766633051658</v>
       </c>
       <c r="F13">
-        <v>0.948270636075372</v>
+        <v>1.067869747245153</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9566620342511696</v>
+        <v>1.0577298480822</v>
       </c>
       <c r="K13">
-        <v>0.9602134394062042</v>
+        <v>1.061717600626473</v>
       </c>
       <c r="L13">
-        <v>0.9620862661406792</v>
+        <v>1.061289379294981</v>
       </c>
       <c r="M13">
-        <v>0.9644132114253205</v>
+        <v>1.071356721265141</v>
       </c>
       <c r="N13">
-        <v>0.9851379149352512</v>
+        <v>1.022395092470031</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9256837545300902</v>
+        <v>1.051557542825475</v>
       </c>
       <c r="D14">
-        <v>0.9460739027401227</v>
+        <v>1.058516655655621</v>
       </c>
       <c r="E14">
-        <v>0.9479448503322062</v>
+        <v>1.05808017672863</v>
       </c>
       <c r="F14">
-        <v>0.9504640590910787</v>
+        <v>1.068206880017272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9585525524253822</v>
+        <v>1.058015996511619</v>
       </c>
       <c r="K14">
-        <v>0.9621082695019855</v>
+        <v>1.062005875734166</v>
       </c>
       <c r="L14">
-        <v>0.9639384372123346</v>
+        <v>1.061570942271987</v>
       </c>
       <c r="M14">
-        <v>0.9664030728382567</v>
+        <v>1.071662147585233</v>
       </c>
       <c r="N14">
-        <v>0.9858411807172616</v>
+        <v>1.022497873661107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9271247843469729</v>
+        <v>1.051771375823082</v>
       </c>
       <c r="D15">
-        <v>0.9473547705740427</v>
+        <v>1.05871390152969</v>
       </c>
       <c r="E15">
-        <v>0.9491986789538036</v>
+        <v>1.058273282276895</v>
       </c>
       <c r="F15">
-        <v>0.9518032556042941</v>
+        <v>1.068414521361465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9597064942338321</v>
+        <v>1.058192210945733</v>
       </c>
       <c r="K15">
-        <v>0.9632649102574805</v>
+        <v>1.062183402447911</v>
       </c>
       <c r="L15">
-        <v>0.9650690499556377</v>
+        <v>1.061744333646821</v>
       </c>
       <c r="M15">
-        <v>0.9676178000410289</v>
+        <v>1.071850244359645</v>
       </c>
       <c r="N15">
-        <v>0.9862704833197891</v>
+        <v>1.022561147795983</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9353138243113504</v>
+        <v>1.053014632933413</v>
       </c>
       <c r="D16">
-        <v>0.9546402118301095</v>
+        <v>1.059860759811118</v>
       </c>
       <c r="E16">
-        <v>0.956330819530734</v>
+        <v>1.059396048653099</v>
       </c>
       <c r="F16">
-        <v>0.9594210320831001</v>
+        <v>1.069621920624346</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9662657899547855</v>
+        <v>1.059216479925519</v>
       </c>
       <c r="K16">
-        <v>0.9698405144877364</v>
+        <v>1.063215339380079</v>
       </c>
       <c r="L16">
-        <v>0.9714968356433673</v>
+        <v>1.062752204201316</v>
       </c>
       <c r="M16">
-        <v>0.9745247877278014</v>
+        <v>1.072943744492237</v>
       </c>
       <c r="N16">
-        <v>0.9887111809737948</v>
+        <v>1.022928630352987</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9402872893536548</v>
+        <v>1.053793332094963</v>
       </c>
       <c r="D17">
-        <v>0.9590702345661318</v>
+        <v>1.060579116072283</v>
       </c>
       <c r="E17">
-        <v>0.9606680162330579</v>
+        <v>1.06009929804501</v>
       </c>
       <c r="F17">
-        <v>0.9640536508922791</v>
+        <v>1.070378284137798</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862359</v>
       </c>
       <c r="J17">
-        <v>0.9702506622034812</v>
+        <v>1.059857781946441</v>
       </c>
       <c r="K17">
-        <v>0.9738361002871944</v>
+        <v>1.063861477596405</v>
       </c>
       <c r="L17">
-        <v>0.9754027096861362</v>
+        <v>1.063383248526231</v>
       </c>
       <c r="M17">
-        <v>0.9787227388278991</v>
+        <v>1.073628536416646</v>
       </c>
       <c r="N17">
-        <v>0.9901941443287204</v>
+        <v>1.023158443197648</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9431335240086678</v>
+        <v>1.054247122801946</v>
       </c>
       <c r="D18">
-        <v>0.9616072428256411</v>
+        <v>1.060997754037345</v>
       </c>
       <c r="E18">
-        <v>0.963151989471879</v>
+        <v>1.060509126179034</v>
       </c>
       <c r="F18">
-        <v>0.9667068746506655</v>
+        <v>1.070819102753552</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9725314671517938</v>
+        <v>1.060231418383327</v>
       </c>
       <c r="K18">
-        <v>0.9761233128075721</v>
+        <v>1.064237944356233</v>
       </c>
       <c r="L18">
-        <v>0.9776385977961649</v>
+        <v>1.063750911949206</v>
       </c>
       <c r="M18">
-        <v>0.9811261509024458</v>
+        <v>1.074027562759262</v>
       </c>
       <c r="N18">
-        <v>0.9910429493472643</v>
+        <v>1.023292239329578</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9440950995785383</v>
+        <v>1.054401784671152</v>
       </c>
       <c r="D19">
-        <v>0.9624646378148221</v>
+        <v>1.061140437142805</v>
       </c>
       <c r="E19">
-        <v>0.9639914808667275</v>
+        <v>1.060648805640096</v>
       </c>
       <c r="F19">
-        <v>0.9676035783843775</v>
+        <v>1.070969350895389</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9733020632367191</v>
+        <v>1.060358747405628</v>
       </c>
       <c r="K19">
-        <v>0.976896119255186</v>
+        <v>1.064366240046567</v>
       </c>
       <c r="L19">
-        <v>0.9783940669130539</v>
+        <v>1.06387620602876</v>
       </c>
       <c r="M19">
-        <v>0.9819382796405531</v>
+        <v>1.074163553006096</v>
       </c>
       <c r="N19">
-        <v>0.9913297232766201</v>
+        <v>1.023337818185289</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9397594296577439</v>
+        <v>1.053709827767501</v>
       </c>
       <c r="D20">
-        <v>0.958599865012304</v>
+        <v>1.06050208136764</v>
       </c>
       <c r="E20">
-        <v>0.9602074893743683</v>
+        <v>1.060023883979475</v>
       </c>
       <c r="F20">
-        <v>0.9635617503300944</v>
+        <v>1.070297170415311</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030143</v>
       </c>
       <c r="J20">
-        <v>0.9698276907382264</v>
+        <v>1.059789020328171</v>
       </c>
       <c r="K20">
-        <v>0.9734119626326874</v>
+        <v>1.063792196121958</v>
       </c>
       <c r="L20">
-        <v>0.9749880917791905</v>
+        <v>1.06331558641015</v>
       </c>
       <c r="M20">
-        <v>0.9782770823722555</v>
+        <v>1.073555106372267</v>
       </c>
       <c r="N20">
-        <v>0.9900367340387017</v>
+        <v>1.023133812342748</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9249913516162848</v>
+        <v>1.051455319316625</v>
       </c>
       <c r="D21">
-        <v>0.9454585810541544</v>
+        <v>1.058422362412335</v>
       </c>
       <c r="E21">
-        <v>0.947342527731981</v>
+        <v>1.057987862438356</v>
       </c>
       <c r="F21">
-        <v>0.9498207266015574</v>
+        <v>1.068107618959234</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9579981283711307</v>
+        <v>1.057931751936927</v>
       </c>
       <c r="K21">
-        <v>0.9615525667811601</v>
+        <v>1.061921004496668</v>
       </c>
       <c r="L21">
-        <v>0.9633952426855507</v>
+        <v>1.061488047541635</v>
       </c>
       <c r="M21">
-        <v>0.9658194837484424</v>
+        <v>1.071572225196355</v>
       </c>
       <c r="N21">
-        <v>0.9856349280932235</v>
+        <v>1.022467618163366</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9151168248276688</v>
+        <v>1.050033945810125</v>
       </c>
       <c r="D22">
-        <v>0.9366922854574548</v>
+        <v>1.057111305962144</v>
       </c>
       <c r="E22">
-        <v>0.9387621302302187</v>
+        <v>1.056704299849443</v>
       </c>
       <c r="F22">
-        <v>0.9406560212198016</v>
+        <v>1.066727604795404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9500941289077257</v>
+        <v>1.056760054029482</v>
       </c>
       <c r="K22">
-        <v>0.9536316127961511</v>
+        <v>1.060740638148382</v>
       </c>
       <c r="L22">
-        <v>0.9556528258579073</v>
+        <v>1.060335136896347</v>
       </c>
       <c r="M22">
-        <v>0.9575024701443987</v>
+        <v>1.070321750871319</v>
       </c>
       <c r="N22">
-        <v>0.9826954761545472</v>
+        <v>1.022046457816724</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9204127087222649</v>
+        <v>1.050787818305922</v>
       </c>
       <c r="D23">
-        <v>0.9413917086675688</v>
+        <v>1.057806656451157</v>
       </c>
       <c r="E23">
-        <v>0.943361731011443</v>
+        <v>1.057385073282811</v>
       </c>
       <c r="F23">
-        <v>0.9455688771438713</v>
+        <v>1.067459502080612</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288664</v>
       </c>
       <c r="J23">
-        <v>0.9543325109600618</v>
+        <v>1.057381575323464</v>
       </c>
       <c r="K23">
-        <v>0.9578787903262584</v>
+        <v>1.061366746604083</v>
       </c>
       <c r="L23">
-        <v>0.9598042130579733</v>
+        <v>1.060946689499404</v>
       </c>
       <c r="M23">
-        <v>0.9619616854386713</v>
+        <v>1.070985014230036</v>
       </c>
       <c r="N23">
-        <v>0.9842714699605416</v>
+        <v>1.022269942973165</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9399981147957063</v>
+        <v>1.053747561049086</v>
       </c>
       <c r="D24">
-        <v>0.9588125490249636</v>
+        <v>1.060536891168557</v>
       </c>
       <c r="E24">
-        <v>0.9604157224923296</v>
+        <v>1.060057961477949</v>
       </c>
       <c r="F24">
-        <v>0.9637841692833141</v>
+        <v>1.07033382331275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9700189470142617</v>
+        <v>1.059820092053894</v>
       </c>
       <c r="K24">
-        <v>0.9736037453732985</v>
+        <v>1.063823502719114</v>
       </c>
       <c r="L24">
-        <v>0.9751755698758177</v>
+        <v>1.063346161286895</v>
       </c>
       <c r="M24">
-        <v>0.9784785941739997</v>
+        <v>1.07358828748778</v>
       </c>
       <c r="N24">
-        <v>0.9901079107143875</v>
+        <v>1.023144942737654</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9606055731382017</v>
+        <v>1.057166125959337</v>
       </c>
       <c r="D25">
-        <v>0.9772084509611645</v>
+        <v>1.063690850005483</v>
       </c>
       <c r="E25">
-        <v>0.9784288568261494</v>
+        <v>1.063145439626395</v>
       </c>
       <c r="F25">
-        <v>0.983026266635166</v>
+        <v>1.07365544743386</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9865355508503818</v>
+        <v>1.062633284044241</v>
       </c>
       <c r="K25">
-        <v>0.9901711898879919</v>
+        <v>1.066658231033259</v>
       </c>
       <c r="L25">
-        <v>0.9913715290248321</v>
+        <v>1.066114439089632</v>
       </c>
       <c r="M25">
-        <v>0.9958939196879691</v>
+        <v>1.076593574600589</v>
       </c>
       <c r="N25">
-        <v>0.9962530175741438</v>
+        <v>1.024150555004768</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.059880695826387</v>
+        <v>0.9757055239985855</v>
       </c>
       <c r="D2">
-        <v>1.066195651312385</v>
+        <v>0.9907277479332518</v>
       </c>
       <c r="E2">
-        <v>1.06559725020907</v>
+        <v>0.9916691755842686</v>
       </c>
       <c r="F2">
-        <v>1.076294384897704</v>
+        <v>0.9971737913101099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02359499962809</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.064864431662581</v>
+        <v>0.9986379809869056</v>
       </c>
       <c r="K2">
-        <v>1.068906852217692</v>
+        <v>1.002317789488498</v>
       </c>
       <c r="L2">
-        <v>1.06831006178296</v>
+        <v>1.00324580523908</v>
       </c>
       <c r="M2">
-        <v>1.078978695818275</v>
+        <v>1.008672640640885</v>
       </c>
       <c r="N2">
-        <v>1.024944988265652</v>
+        <v>1.000749740510013</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061845146055405</v>
+        <v>0.9860335503276065</v>
       </c>
       <c r="D3">
-        <v>1.068008479248407</v>
+        <v>0.9999928869964955</v>
       </c>
       <c r="E3">
-        <v>1.067371612228636</v>
+        <v>1.000743953675867</v>
       </c>
       <c r="F3">
-        <v>1.07820486085402</v>
+        <v>1.006873352081028</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208684</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.066477460189505</v>
+        <v>1.006912333998757</v>
       </c>
       <c r="K3">
-        <v>1.070532738703228</v>
+        <v>1.010625858835602</v>
       </c>
       <c r="L3">
-        <v>1.069897459242697</v>
+        <v>1.011367324317954</v>
       </c>
       <c r="M3">
-        <v>1.080703977836677</v>
+        <v>1.017419036045904</v>
       </c>
       <c r="N3">
-        <v>1.025517505399298</v>
+        <v>1.003818265571313</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063113377602309</v>
+        <v>0.992459084553297</v>
       </c>
       <c r="D4">
-        <v>1.069178901813843</v>
+        <v>1.005764317754743</v>
       </c>
       <c r="E4">
-        <v>1.068517146255217</v>
+        <v>1.006397052630199</v>
       </c>
       <c r="F4">
-        <v>1.079438591075603</v>
+        <v>1.012917245095571</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.067518081017153</v>
+        <v>1.012057674728311</v>
       </c>
       <c r="K4">
-        <v>1.071581758037445</v>
+        <v>1.015793666839334</v>
       </c>
       <c r="L4">
-        <v>1.070921567324904</v>
+        <v>1.016418879154576</v>
       </c>
       <c r="M4">
-        <v>1.081817449544657</v>
+        <v>1.022862230609533</v>
       </c>
       <c r="N4">
-        <v>1.025886005745347</v>
+        <v>1.005723031985282</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063645868060701</v>
+        <v>0.9951035036019175</v>
       </c>
       <c r="D5">
-        <v>1.06967034282929</v>
+        <v>1.008141097542985</v>
       </c>
       <c r="E5">
-        <v>1.068998124028754</v>
+        <v>1.008725142940882</v>
       </c>
       <c r="F5">
-        <v>1.079956676848268</v>
+        <v>1.01540668245145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.067954828209848</v>
+        <v>1.014174509262878</v>
       </c>
       <c r="K5">
-        <v>1.072022054706459</v>
+        <v>1.017920088844432</v>
       </c>
       <c r="L5">
-        <v>1.071351389393252</v>
+        <v>1.018497403532923</v>
       </c>
       <c r="M5">
-        <v>1.08228487548647</v>
+        <v>1.02510262233814</v>
       </c>
       <c r="N5">
-        <v>1.026040460367392</v>
+        <v>1.006505768718928</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.063735236599872</v>
+        <v>0.9955443054610376</v>
       </c>
       <c r="D6">
-        <v>1.0697528229853</v>
+        <v>1.008537373364081</v>
       </c>
       <c r="E6">
-        <v>1.069078847341389</v>
+        <v>1.009113302834144</v>
       </c>
       <c r="F6">
-        <v>1.080043632571595</v>
+        <v>1.015821768301859</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.068028117659704</v>
+        <v>1.014527321537465</v>
       </c>
       <c r="K6">
-        <v>1.072095941226434</v>
+        <v>1.018274518886591</v>
       </c>
       <c r="L6">
-        <v>1.071423517057895</v>
+        <v>1.018843846075241</v>
       </c>
       <c r="M6">
-        <v>1.08236331911628</v>
+        <v>1.025476087252201</v>
       </c>
       <c r="N6">
-        <v>1.026066366989902</v>
+        <v>1.006636171819972</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.06312049538743</v>
+        <v>0.9924946370423045</v>
       </c>
       <c r="D7">
-        <v>1.069185470824823</v>
+        <v>1.005796266042698</v>
       </c>
       <c r="E7">
-        <v>1.068523575456853</v>
+        <v>1.006428346298874</v>
       </c>
       <c r="F7">
-        <v>1.079445515995302</v>
+        <v>1.012950705903697</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.02344298551034</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.06752391969997</v>
+        <v>1.012086137203661</v>
       </c>
       <c r="K7">
-        <v>1.071587644074963</v>
+        <v>1.015822256880248</v>
       </c>
       <c r="L7">
-        <v>1.070927313408352</v>
+        <v>1.016446825466246</v>
       </c>
       <c r="M7">
-        <v>1.081823697952229</v>
+        <v>1.022892350393535</v>
       </c>
       <c r="N7">
-        <v>1.025888071387038</v>
+        <v>1.005733560166983</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.060545203331269</v>
+        <v>0.9792522680240818</v>
       </c>
       <c r="D8">
-        <v>1.06680885353093</v>
+        <v>0.9939078566556269</v>
       </c>
       <c r="E8">
-        <v>1.066197452109527</v>
+        <v>0.994783881820882</v>
       </c>
       <c r="F8">
-        <v>1.076940562770609</v>
+        <v>1.000502620381672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.065410217344836</v>
+        <v>1.001479927707145</v>
       </c>
       <c r="K8">
-        <v>1.069456967007026</v>
+        <v>1.005170987204334</v>
       </c>
       <c r="L8">
-        <v>1.068847170079768</v>
+        <v>1.006034975422102</v>
       </c>
       <c r="M8">
-        <v>1.079562373911781</v>
+        <v>1.01167578765651</v>
       </c>
       <c r="N8">
-        <v>1.02513888153306</v>
+        <v>1.001804327812886</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05598410572061</v>
+        <v>0.9536967690200898</v>
       </c>
       <c r="D9">
-        <v>1.062600264868534</v>
+        <v>0.9710338855732433</v>
       </c>
       <c r="E9">
-        <v>1.062077872050329</v>
+        <v>0.9723823108845929</v>
       </c>
       <c r="F9">
-        <v>1.072506734448362</v>
+        <v>0.9765666859978871</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.06166100050086</v>
+        <v>0.9809976775977753</v>
       </c>
       <c r="K9">
-        <v>1.065678442843346</v>
+        <v>0.9846150764384577</v>
       </c>
       <c r="L9">
-        <v>1.06515766306946</v>
+        <v>0.9859399435115496</v>
       </c>
       <c r="M9">
-        <v>1.075554647605434</v>
+        <v>0.990051749366417</v>
       </c>
       <c r="N9">
-        <v>1.023803481430824</v>
+        <v>0.9941932284888046</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.05292657621234</v>
+        <v>0.9347440842594823</v>
       </c>
       <c r="D10">
-        <v>1.059779528477301</v>
+        <v>0.9541329813716819</v>
       </c>
       <c r="E10">
-        <v>1.059316524790412</v>
+        <v>0.9558342358211166</v>
       </c>
       <c r="F10">
-        <v>1.069536395660843</v>
+        <v>0.95889063062151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.059143948768712</v>
+        <v>0.9658093515980819</v>
       </c>
       <c r="K10">
-        <v>1.063142262967229</v>
+        <v>0.9693828879350102</v>
       </c>
       <c r="L10">
-        <v>1.062680833646136</v>
+        <v>0.9710494888025297</v>
       </c>
       <c r="M10">
-        <v>1.072866301648161</v>
+        <v>0.9740440332287317</v>
       </c>
       <c r="N10">
-        <v>1.022902625331242</v>
+        <v>0.9885413239239866</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.051598365262403</v>
+        <v>0.925959624032853</v>
       </c>
       <c r="D11">
-        <v>1.058554311315541</v>
+        <v>0.9463190838689186</v>
       </c>
       <c r="E11">
-        <v>1.05811704204199</v>
+        <v>0.9481848535871098</v>
       </c>
       <c r="F11">
-        <v>1.068246519868483</v>
+        <v>0.9507204031958488</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.058049638298319</v>
+        <v>0.9587734544039049</v>
       </c>
       <c r="K11">
-        <v>1.062039767897639</v>
+        <v>0.9623296842135508</v>
       </c>
       <c r="L11">
-        <v>1.061604045054462</v>
+        <v>0.9641548687238689</v>
       </c>
       <c r="M11">
-        <v>1.07169805724299</v>
+        <v>0.9666356024045466</v>
       </c>
       <c r="N11">
-        <v>1.022509954756825</v>
+        <v>0.9859233609472644</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051104341028799</v>
+        <v>0.9225964164161481</v>
       </c>
       <c r="D12">
-        <v>1.05809861587819</v>
+        <v>0.9433308883664026</v>
       </c>
       <c r="E12">
-        <v>1.057670908844888</v>
+        <v>0.9452598327474104</v>
       </c>
       <c r="F12">
-        <v>1.067766824418723</v>
+        <v>0.9475962250969101</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.057642480039465</v>
+        <v>0.9560806295943831</v>
       </c>
       <c r="K12">
-        <v>1.06162958431155</v>
+        <v>0.9596307360775692</v>
       </c>
       <c r="L12">
-        <v>1.061203411594794</v>
+        <v>0.9615166864811059</v>
       </c>
       <c r="M12">
-        <v>1.071263471498063</v>
+        <v>0.963801315090607</v>
       </c>
       <c r="N12">
-        <v>1.022363702895156</v>
+        <v>0.9849216526809624</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051210341507673</v>
+        <v>0.9233226231426129</v>
       </c>
       <c r="D13">
-        <v>1.058196391377689</v>
+        <v>0.9439759569131408</v>
       </c>
       <c r="E13">
-        <v>1.057766633051658</v>
+        <v>0.945891250949907</v>
       </c>
       <c r="F13">
-        <v>1.067869747245153</v>
+        <v>0.948270636075374</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.0577298480822</v>
+        <v>0.9566620342511715</v>
       </c>
       <c r="K13">
-        <v>1.061717600626473</v>
+        <v>0.9602134394062062</v>
       </c>
       <c r="L13">
-        <v>1.061289379294981</v>
+        <v>0.9620862661406809</v>
       </c>
       <c r="M13">
-        <v>1.071356721265141</v>
+        <v>0.9644132114253224</v>
       </c>
       <c r="N13">
-        <v>1.022395092470031</v>
+        <v>0.9851379149352516</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.051557542825475</v>
+        <v>0.9256837545300881</v>
       </c>
       <c r="D14">
-        <v>1.058516655655621</v>
+        <v>0.9460739027401203</v>
       </c>
       <c r="E14">
-        <v>1.05808017672863</v>
+        <v>0.9479448503322039</v>
       </c>
       <c r="F14">
-        <v>1.068206880017272</v>
+        <v>0.9504640590910761</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.058015996511619</v>
+        <v>0.95855255242538</v>
       </c>
       <c r="K14">
-        <v>1.062005875734166</v>
+        <v>0.9621082695019834</v>
       </c>
       <c r="L14">
-        <v>1.061570942271987</v>
+        <v>0.9639384372123322</v>
       </c>
       <c r="M14">
-        <v>1.071662147585233</v>
+        <v>0.9664030728382539</v>
       </c>
       <c r="N14">
-        <v>1.022497873661107</v>
+        <v>0.9858411807172606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.051771375823082</v>
+        <v>0.9271247843469725</v>
       </c>
       <c r="D15">
-        <v>1.05871390152969</v>
+        <v>0.9473547705740427</v>
       </c>
       <c r="E15">
-        <v>1.058273282276895</v>
+        <v>0.9491986789538033</v>
       </c>
       <c r="F15">
-        <v>1.068414521361465</v>
+        <v>0.9518032556042934</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.058192210945733</v>
+        <v>0.9597064942338317</v>
       </c>
       <c r="K15">
-        <v>1.062183402447911</v>
+        <v>0.9632649102574803</v>
       </c>
       <c r="L15">
-        <v>1.061744333646821</v>
+        <v>0.9650690499556372</v>
       </c>
       <c r="M15">
-        <v>1.071850244359645</v>
+        <v>0.9676178000410283</v>
       </c>
       <c r="N15">
-        <v>1.022561147795983</v>
+        <v>0.9862704833197889</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053014632933413</v>
+        <v>0.9353138243113497</v>
       </c>
       <c r="D16">
-        <v>1.059860759811118</v>
+        <v>0.9546402118301091</v>
       </c>
       <c r="E16">
-        <v>1.059396048653099</v>
+        <v>0.9563308195307335</v>
       </c>
       <c r="F16">
-        <v>1.069621920624346</v>
+        <v>0.9594210320830994</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.059216479925519</v>
+        <v>0.9662657899547848</v>
       </c>
       <c r="K16">
-        <v>1.063215339380079</v>
+        <v>0.969840514487736</v>
       </c>
       <c r="L16">
-        <v>1.062752204201316</v>
+        <v>0.9714968356433669</v>
       </c>
       <c r="M16">
-        <v>1.072943744492237</v>
+        <v>0.9745247877278007</v>
       </c>
       <c r="N16">
-        <v>1.022928630352987</v>
+        <v>0.9887111809737947</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053793332094963</v>
+        <v>0.940287289353653</v>
       </c>
       <c r="D17">
-        <v>1.060579116072283</v>
+        <v>0.9590702345661303</v>
       </c>
       <c r="E17">
-        <v>1.06009929804501</v>
+        <v>0.9606680162330562</v>
       </c>
       <c r="F17">
-        <v>1.070378284137798</v>
+        <v>0.9640536508922776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862359</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.059857781946441</v>
+        <v>0.9702506622034798</v>
       </c>
       <c r="K17">
-        <v>1.063861477596405</v>
+        <v>0.9738361002871927</v>
       </c>
       <c r="L17">
-        <v>1.063383248526231</v>
+        <v>0.9754027096861344</v>
       </c>
       <c r="M17">
-        <v>1.073628536416646</v>
+        <v>0.9787227388278975</v>
       </c>
       <c r="N17">
-        <v>1.023158443197648</v>
+        <v>0.9901941443287201</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.054247122801946</v>
+        <v>0.9431335240086686</v>
       </c>
       <c r="D18">
-        <v>1.060997754037345</v>
+        <v>0.9616072428256416</v>
       </c>
       <c r="E18">
-        <v>1.060509126179034</v>
+        <v>0.9631519894718795</v>
       </c>
       <c r="F18">
-        <v>1.070819102753552</v>
+        <v>0.9667068746506658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.060231418383327</v>
+        <v>0.9725314671517946</v>
       </c>
       <c r="K18">
-        <v>1.064237944356233</v>
+        <v>0.9761233128075724</v>
       </c>
       <c r="L18">
-        <v>1.063750911949206</v>
+        <v>0.9776385977961654</v>
       </c>
       <c r="M18">
-        <v>1.074027562759262</v>
+        <v>0.9811261509024463</v>
       </c>
       <c r="N18">
-        <v>1.023292239329578</v>
+        <v>0.9910429493472646</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054401784671152</v>
+        <v>0.9440950995785374</v>
       </c>
       <c r="D19">
-        <v>1.061140437142805</v>
+        <v>0.9624646378148214</v>
       </c>
       <c r="E19">
-        <v>1.060648805640096</v>
+        <v>0.9639914808667266</v>
       </c>
       <c r="F19">
-        <v>1.070969350895389</v>
+        <v>0.9676035783843766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.060358747405628</v>
+        <v>0.9733020632367184</v>
       </c>
       <c r="K19">
-        <v>1.064366240046567</v>
+        <v>0.9768961192551854</v>
       </c>
       <c r="L19">
-        <v>1.06387620602876</v>
+        <v>0.9783940669130531</v>
       </c>
       <c r="M19">
-        <v>1.074163553006096</v>
+        <v>0.9819382796405526</v>
       </c>
       <c r="N19">
-        <v>1.023337818185289</v>
+        <v>0.9913297232766199</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053709827767501</v>
+        <v>0.9397594296577417</v>
       </c>
       <c r="D20">
-        <v>1.06050208136764</v>
+        <v>0.9585998650123018</v>
       </c>
       <c r="E20">
-        <v>1.060023883979475</v>
+        <v>0.960207489374366</v>
       </c>
       <c r="F20">
-        <v>1.070297170415311</v>
+        <v>0.9635617503300918</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030143</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.059789020328171</v>
+        <v>0.9698276907382244</v>
       </c>
       <c r="K20">
-        <v>1.063792196121958</v>
+        <v>0.9734119626326853</v>
       </c>
       <c r="L20">
-        <v>1.06331558641015</v>
+        <v>0.9749880917791883</v>
       </c>
       <c r="M20">
-        <v>1.073555106372267</v>
+        <v>0.9782770823722532</v>
       </c>
       <c r="N20">
-        <v>1.023133812342748</v>
+        <v>0.990036734038701</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051455319316625</v>
+        <v>0.9249913516162849</v>
       </c>
       <c r="D21">
-        <v>1.058422362412335</v>
+        <v>0.9454585810541544</v>
       </c>
       <c r="E21">
-        <v>1.057987862438356</v>
+        <v>0.9473425277319811</v>
       </c>
       <c r="F21">
-        <v>1.068107618959234</v>
+        <v>0.9498207266015575</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.057931751936927</v>
+        <v>0.9579981283711307</v>
       </c>
       <c r="K21">
-        <v>1.061921004496668</v>
+        <v>0.96155256678116</v>
       </c>
       <c r="L21">
-        <v>1.061488047541635</v>
+        <v>0.9633952426855507</v>
       </c>
       <c r="M21">
-        <v>1.071572225196355</v>
+        <v>0.9658194837484425</v>
       </c>
       <c r="N21">
-        <v>1.022467618163366</v>
+        <v>0.9856349280932238</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050033945810125</v>
+        <v>0.9151168248276673</v>
       </c>
       <c r="D22">
-        <v>1.057111305962144</v>
+        <v>0.9366922854574536</v>
       </c>
       <c r="E22">
-        <v>1.056704299849443</v>
+        <v>0.9387621302302175</v>
       </c>
       <c r="F22">
-        <v>1.066727604795404</v>
+        <v>0.9406560212198004</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.056760054029482</v>
+        <v>0.9500941289077246</v>
       </c>
       <c r="K22">
-        <v>1.060740638148382</v>
+        <v>0.9536316127961498</v>
       </c>
       <c r="L22">
-        <v>1.060335136896347</v>
+        <v>0.9556528258579063</v>
       </c>
       <c r="M22">
-        <v>1.070321750871319</v>
+        <v>0.9575024701443975</v>
       </c>
       <c r="N22">
-        <v>1.022046457816724</v>
+        <v>0.9826954761545468</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050787818305922</v>
+        <v>0.920412708722267</v>
       </c>
       <c r="D23">
-        <v>1.057806656451157</v>
+        <v>0.9413917086675705</v>
       </c>
       <c r="E23">
-        <v>1.057385073282811</v>
+        <v>0.9433617310114449</v>
       </c>
       <c r="F23">
-        <v>1.067459502080612</v>
+        <v>0.9455688771438731</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288664</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.057381575323464</v>
+        <v>0.9543325109600636</v>
       </c>
       <c r="K23">
-        <v>1.061366746604083</v>
+        <v>0.9578787903262604</v>
       </c>
       <c r="L23">
-        <v>1.060946689499404</v>
+        <v>0.9598042130579747</v>
       </c>
       <c r="M23">
-        <v>1.070985014230036</v>
+        <v>0.961961685438673</v>
       </c>
       <c r="N23">
-        <v>1.022269942973165</v>
+        <v>0.9842714699605419</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053747561049086</v>
+        <v>0.9399981147957044</v>
       </c>
       <c r="D24">
-        <v>1.060536891168557</v>
+        <v>0.9588125490249615</v>
       </c>
       <c r="E24">
-        <v>1.060057961477949</v>
+        <v>0.9604157224923278</v>
       </c>
       <c r="F24">
-        <v>1.07033382331275</v>
+        <v>0.9637841692833119</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.059820092053894</v>
+        <v>0.9700189470142598</v>
       </c>
       <c r="K24">
-        <v>1.063823502719114</v>
+        <v>0.9736037453732967</v>
       </c>
       <c r="L24">
-        <v>1.063346161286895</v>
+        <v>0.9751755698758159</v>
       </c>
       <c r="M24">
-        <v>1.07358828748778</v>
+        <v>0.9784785941739977</v>
       </c>
       <c r="N24">
-        <v>1.023144942737654</v>
+        <v>0.9901079107143869</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.057166125959337</v>
+        <v>0.9606055731382006</v>
       </c>
       <c r="D25">
-        <v>1.063690850005483</v>
+        <v>0.9772084509611635</v>
       </c>
       <c r="E25">
-        <v>1.063145439626395</v>
+        <v>0.9784288568261486</v>
       </c>
       <c r="F25">
-        <v>1.07365544743386</v>
+        <v>0.9830262666351653</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.062633284044241</v>
+        <v>0.9865355508503806</v>
       </c>
       <c r="K25">
-        <v>1.066658231033259</v>
+        <v>0.9901711898879908</v>
       </c>
       <c r="L25">
-        <v>1.066114439089632</v>
+        <v>0.9913715290248312</v>
       </c>
       <c r="M25">
-        <v>1.076593574600589</v>
+        <v>0.9958939196879685</v>
       </c>
       <c r="N25">
-        <v>1.024150555004768</v>
+        <v>0.9962530175741434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9757055239985855</v>
+        <v>0.9922704895639155</v>
       </c>
       <c r="D2">
-        <v>0.9907277479332518</v>
+        <v>1.006324218787208</v>
       </c>
       <c r="E2">
-        <v>0.9916691755842686</v>
+        <v>1.010216706122995</v>
       </c>
       <c r="F2">
-        <v>0.9971737913101099</v>
+        <v>1.022591216985502</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.046831944119209</v>
       </c>
       <c r="J2">
-        <v>0.9986379809869056</v>
+        <v>1.014684872686032</v>
       </c>
       <c r="K2">
-        <v>1.002317789488498</v>
+        <v>1.017696144753903</v>
       </c>
       <c r="L2">
-        <v>1.00324580523908</v>
+        <v>1.021535517595292</v>
       </c>
       <c r="M2">
-        <v>1.008672640640885</v>
+        <v>1.033744542447173</v>
       </c>
       <c r="N2">
-        <v>1.000749740510013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008503908159018</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035278913133116</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.023582565578574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9860335503276065</v>
+        <v>0.9962350133361484</v>
       </c>
       <c r="D3">
-        <v>0.9999928869964955</v>
+        <v>1.009226252087149</v>
       </c>
       <c r="E3">
-        <v>1.000743953675867</v>
+        <v>1.013312659291556</v>
       </c>
       <c r="F3">
-        <v>1.006873352081028</v>
+        <v>1.025590440881388</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.047024244895765</v>
       </c>
       <c r="J3">
-        <v>1.006912333998757</v>
+        <v>1.01682884456452</v>
       </c>
       <c r="K3">
-        <v>1.010625858835602</v>
+        <v>1.019742426836617</v>
       </c>
       <c r="L3">
-        <v>1.011367324317954</v>
+        <v>1.023777989359321</v>
       </c>
       <c r="M3">
-        <v>1.017419036045904</v>
+        <v>1.035906031677221</v>
       </c>
       <c r="N3">
-        <v>1.003818265571313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009267324697228</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036989597380393</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.025026807944703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.992459084553297</v>
+        <v>0.9987573019266042</v>
       </c>
       <c r="D4">
-        <v>1.005764317754743</v>
+        <v>1.011079866160352</v>
       </c>
       <c r="E4">
-        <v>1.006397052630199</v>
+        <v>1.015287670374438</v>
       </c>
       <c r="F4">
-        <v>1.012917245095571</v>
+        <v>1.027501830115268</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.047128559527335</v>
       </c>
       <c r="J4">
-        <v>1.012057674728311</v>
+        <v>1.018192849554976</v>
       </c>
       <c r="K4">
-        <v>1.015793666839334</v>
+        <v>1.021046381207556</v>
       </c>
       <c r="L4">
-        <v>1.016418879154576</v>
+        <v>1.025205022693884</v>
       </c>
       <c r="M4">
-        <v>1.022862230609533</v>
+        <v>1.037279287268663</v>
       </c>
       <c r="N4">
-        <v>1.005723031985282</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009752278735663</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038076441605176</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.025949767258934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9951035036019175</v>
+        <v>0.9998125109273149</v>
       </c>
       <c r="D5">
-        <v>1.008141097542985</v>
+        <v>1.011860108835525</v>
       </c>
       <c r="E5">
-        <v>1.008725142940882</v>
+        <v>1.016115437307411</v>
       </c>
       <c r="F5">
-        <v>1.01540668245145</v>
+        <v>1.028301794903835</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.047167951278581</v>
       </c>
       <c r="J5">
-        <v>1.014174509262878</v>
+        <v>1.018765541195779</v>
       </c>
       <c r="K5">
-        <v>1.017920088844432</v>
+        <v>1.021596405026845</v>
       </c>
       <c r="L5">
-        <v>1.018497403532923</v>
+        <v>1.025803353932483</v>
       </c>
       <c r="M5">
-        <v>1.02510262233814</v>
+        <v>1.037853885152594</v>
       </c>
       <c r="N5">
-        <v>1.006505768718928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009956065189242</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038531198695803</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.026346000977733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9955443054610376</v>
+        <v>0.9999949698692105</v>
       </c>
       <c r="D6">
-        <v>1.008537373364081</v>
+        <v>1.011998826847699</v>
       </c>
       <c r="E6">
-        <v>1.009113302834144</v>
+        <v>1.01625898103534</v>
       </c>
       <c r="F6">
-        <v>1.015821768301859</v>
+        <v>1.028439692764193</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.04717470492484</v>
       </c>
       <c r="J6">
-        <v>1.014527321537465</v>
+        <v>1.018867100366549</v>
       </c>
       <c r="K6">
-        <v>1.018274518886591</v>
+        <v>1.021696430859518</v>
       </c>
       <c r="L6">
-        <v>1.018843846075241</v>
+        <v>1.025908375230677</v>
       </c>
       <c r="M6">
-        <v>1.025476087252201</v>
+        <v>1.037953951225774</v>
       </c>
       <c r="N6">
-        <v>1.006636171819972</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009992627516404</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038610394496202</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.02642563770966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9924946370423045</v>
+        <v>0.998787294431528</v>
       </c>
       <c r="D7">
-        <v>1.005796266042698</v>
+        <v>1.011111965285454</v>
       </c>
       <c r="E7">
-        <v>1.006428346298874</v>
+        <v>1.015312126899618</v>
       </c>
       <c r="F7">
-        <v>1.012950705903697</v>
+        <v>1.027523326028901</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.047130249187616</v>
       </c>
       <c r="J7">
-        <v>1.012086137203661</v>
+        <v>1.018215970225243</v>
       </c>
       <c r="K7">
-        <v>1.015822256880248</v>
+        <v>1.021075146318601</v>
       </c>
       <c r="L7">
-        <v>1.016446825466246</v>
+        <v>1.025226254324569</v>
       </c>
       <c r="M7">
-        <v>1.022892350393535</v>
+        <v>1.037297646707364</v>
       </c>
       <c r="N7">
-        <v>1.005733560166983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009761697284929</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038090971918868</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.025990599060804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9792522680240818</v>
+        <v>0.9936396560163341</v>
       </c>
       <c r="D8">
-        <v>0.9939078566556269</v>
+        <v>1.007337324095034</v>
       </c>
       <c r="E8">
-        <v>0.994783881820882</v>
+        <v>1.011286065262047</v>
       </c>
       <c r="F8">
-        <v>1.000502620381672</v>
+        <v>1.023624834956417</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.04690258421812</v>
       </c>
       <c r="J8">
-        <v>1.001479927707145</v>
+        <v>1.015433980961004</v>
       </c>
       <c r="K8">
-        <v>1.005170987204334</v>
+        <v>1.018418815530943</v>
       </c>
       <c r="L8">
-        <v>1.006034975422102</v>
+        <v>1.02231529936135</v>
       </c>
       <c r="M8">
-        <v>1.01167578765651</v>
+        <v>1.034494026295078</v>
       </c>
       <c r="N8">
-        <v>1.001804327812886</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008772378310549</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035872083436523</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.024116944153671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9536967690200898</v>
+        <v>0.9841977198041385</v>
       </c>
       <c r="D9">
-        <v>0.9710338855732433</v>
+        <v>1.000457247042665</v>
       </c>
       <c r="E9">
-        <v>0.9723823108845929</v>
+        <v>1.003944069926757</v>
       </c>
       <c r="F9">
-        <v>0.9765666859978871</v>
+        <v>1.016504797731211</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.046344955401057</v>
       </c>
       <c r="J9">
-        <v>0.9809976775977753</v>
+        <v>1.010321109055354</v>
       </c>
       <c r="K9">
-        <v>0.9846150764384577</v>
+        <v>1.013542910086118</v>
       </c>
       <c r="L9">
-        <v>0.9859399435115496</v>
+        <v>1.016973479818228</v>
       </c>
       <c r="M9">
-        <v>0.990051749366417</v>
+        <v>1.029335653669484</v>
       </c>
       <c r="N9">
-        <v>0.9941932284888046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00694656957454</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031789539109806</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.020665961533091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9347440842594823</v>
+        <v>0.9777172974975088</v>
       </c>
       <c r="D10">
-        <v>0.9541329813716819</v>
+        <v>0.9957887573537343</v>
       </c>
       <c r="E10">
-        <v>0.9558342358211166</v>
+        <v>0.9989712172553032</v>
       </c>
       <c r="F10">
-        <v>0.95889063062151</v>
+        <v>1.011724503544702</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.045883824163574</v>
       </c>
       <c r="J10">
-        <v>0.9658093515980819</v>
+        <v>1.006843762420194</v>
       </c>
       <c r="K10">
-        <v>0.9693828879350102</v>
+        <v>1.010234465665449</v>
       </c>
       <c r="L10">
-        <v>0.9710494888025297</v>
+        <v>1.013359071569506</v>
       </c>
       <c r="M10">
-        <v>0.9740440332287317</v>
+        <v>1.025885246753277</v>
       </c>
       <c r="N10">
-        <v>0.9885413239239866</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005707015511067</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029110764283193</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.018343769117563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.925959624032853</v>
+        <v>0.9753844349845786</v>
       </c>
       <c r="D11">
-        <v>0.9463190838689186</v>
+        <v>0.9941944241545607</v>
       </c>
       <c r="E11">
-        <v>0.9481848535871098</v>
+        <v>0.9974524277615612</v>
       </c>
       <c r="F11">
-        <v>0.9507204031958488</v>
+        <v>1.010672553280193</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.045781920912146</v>
       </c>
       <c r="J11">
-        <v>0.9587734544039049</v>
+        <v>1.005818356753585</v>
       </c>
       <c r="K11">
-        <v>0.9623296842135508</v>
+        <v>1.0092266619523</v>
       </c>
       <c r="L11">
-        <v>0.9641548687238689</v>
+        <v>1.012422548013107</v>
       </c>
       <c r="M11">
-        <v>0.9666356024045466</v>
+        <v>1.025395968934597</v>
       </c>
       <c r="N11">
-        <v>0.9859233609472644</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.00538678337625</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029164500836136</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.017664795765884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9225964164161481</v>
+        <v>0.9746990695401915</v>
       </c>
       <c r="D12">
-        <v>0.9433308883664026</v>
+        <v>0.9937531462434376</v>
       </c>
       <c r="E12">
-        <v>0.9452598327474104</v>
+        <v>0.9971212429118825</v>
       </c>
       <c r="F12">
-        <v>0.9475962250969101</v>
+        <v>1.010659304465661</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.045787192426951</v>
       </c>
       <c r="J12">
-        <v>0.9560806295943831</v>
+        <v>1.005614196320207</v>
       </c>
       <c r="K12">
-        <v>0.9596307360775692</v>
+        <v>1.009001012745236</v>
       </c>
       <c r="L12">
-        <v>0.9615166864811059</v>
+        <v>1.012303803967444</v>
       </c>
       <c r="M12">
-        <v>0.963801315090607</v>
+        <v>1.025585099186321</v>
       </c>
       <c r="N12">
-        <v>0.9849216526809624</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005351847353087</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.02964361323686</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.017505247267568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9233226231426129</v>
+        <v>0.9752575837307595</v>
       </c>
       <c r="D13">
-        <v>0.9439759569131408</v>
+        <v>0.9941952322133278</v>
       </c>
       <c r="E13">
-        <v>0.945891250949907</v>
+        <v>0.9977017710212971</v>
       </c>
       <c r="F13">
-        <v>0.948270636075374</v>
+        <v>1.011471627994902</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.045883708646791</v>
       </c>
       <c r="J13">
-        <v>0.9566620342511715</v>
+        <v>1.006050692123522</v>
       </c>
       <c r="K13">
-        <v>0.9602134394062062</v>
+        <v>1.00939008294163</v>
       </c>
       <c r="L13">
-        <v>0.9620862661406809</v>
+        <v>1.012828951917824</v>
       </c>
       <c r="M13">
-        <v>0.9644132114253224</v>
+        <v>1.02633899375642</v>
       </c>
       <c r="N13">
-        <v>0.9851379149352516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005543535421196</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030518622367062</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.017777793141091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9256837545300881</v>
+        <v>0.9762136695646472</v>
       </c>
       <c r="D14">
-        <v>0.9460739027401203</v>
+        <v>0.9949081846125791</v>
       </c>
       <c r="E14">
-        <v>0.9479448503322039</v>
+        <v>0.9985212313318164</v>
       </c>
       <c r="F14">
-        <v>0.9504640590910761</v>
+        <v>1.012413473557216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.045992015935217</v>
       </c>
       <c r="J14">
-        <v>0.95855255242538</v>
+        <v>1.006647718277956</v>
       </c>
       <c r="K14">
-        <v>0.9621082695019834</v>
+        <v>1.009943864078777</v>
       </c>
       <c r="L14">
-        <v>0.9639384372123322</v>
+        <v>1.013488094600299</v>
       </c>
       <c r="M14">
-        <v>0.9664030728382539</v>
+        <v>1.027121693339312</v>
       </c>
       <c r="N14">
-        <v>0.9858411807172606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005781045055778</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031311816731602</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.018170810481251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9271247843469725</v>
+        <v>0.9767245949737919</v>
       </c>
       <c r="D15">
-        <v>0.9473547705740427</v>
+        <v>0.9952835254400296</v>
       </c>
       <c r="E15">
-        <v>0.9491986789538033</v>
+        <v>0.9989302925142926</v>
       </c>
       <c r="F15">
-        <v>0.9518032556042934</v>
+        <v>1.012839809293377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833738</v>
+        <v>1.046039278603124</v>
       </c>
       <c r="J15">
-        <v>0.9597064942338317</v>
+        <v>1.006941601319457</v>
       </c>
       <c r="K15">
-        <v>0.9632649102574803</v>
+        <v>1.010222513387841</v>
       </c>
       <c r="L15">
-        <v>0.9650690499556372</v>
+        <v>1.013800370214427</v>
       </c>
       <c r="M15">
-        <v>0.9676178000410283</v>
+        <v>1.027452975192026</v>
       </c>
       <c r="N15">
-        <v>0.9862704833197889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005891606610881</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031611419369056</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.018373841435583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9353138243113497</v>
+        <v>0.9793604197042729</v>
       </c>
       <c r="D16">
-        <v>0.9546402118301091</v>
+        <v>0.9971726340656403</v>
       </c>
       <c r="E16">
-        <v>0.9563308195307335</v>
+        <v>1.000928649934644</v>
       </c>
       <c r="F16">
-        <v>0.9594210320830994</v>
+        <v>1.014740497910549</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.046236078685515</v>
       </c>
       <c r="J16">
-        <v>0.9662657899547848</v>
+        <v>1.008338055456149</v>
       </c>
       <c r="K16">
-        <v>0.969840514487736</v>
+        <v>1.01155629734452</v>
       </c>
       <c r="L16">
-        <v>0.9714968356433669</v>
+        <v>1.015244529030634</v>
       </c>
       <c r="M16">
-        <v>0.9745247877278007</v>
+        <v>1.028812701018729</v>
       </c>
       <c r="N16">
-        <v>0.9887111809737947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006382353262048</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032647191045225</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.019320151682156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.940287289353653</v>
+        <v>0.9808844458166164</v>
       </c>
       <c r="D17">
-        <v>0.9590702345661303</v>
+        <v>0.99825247853525</v>
       </c>
       <c r="E17">
-        <v>0.9606680162330562</v>
+        <v>1.00203458371196</v>
       </c>
       <c r="F17">
-        <v>0.9640536508922776</v>
+        <v>1.015701233973314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.046326088338251</v>
       </c>
       <c r="J17">
-        <v>0.9702506622034798</v>
+        <v>1.009097557162664</v>
       </c>
       <c r="K17">
-        <v>0.9738361002871927</v>
+        <v>1.012291217668408</v>
       </c>
       <c r="L17">
-        <v>0.9754027096861344</v>
+        <v>1.016007033102762</v>
       </c>
       <c r="M17">
-        <v>0.9787227388278975</v>
+        <v>1.029439452688222</v>
       </c>
       <c r="N17">
-        <v>0.9901941443287201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006634589164275</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033012754937275</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.019842433728936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9431335240086686</v>
+        <v>0.9815776998520233</v>
       </c>
       <c r="D18">
-        <v>0.9616072428256416</v>
+        <v>0.9987123609252657</v>
       </c>
       <c r="E18">
-        <v>0.9631519894718795</v>
+        <v>1.002443541048197</v>
       </c>
       <c r="F18">
-        <v>0.9667068746506658</v>
+        <v>1.015889910122168</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.046332993159025</v>
       </c>
       <c r="J18">
-        <v>0.9725314671517946</v>
+        <v>1.009355211340581</v>
       </c>
       <c r="K18">
-        <v>0.9761233128075724</v>
+        <v>1.01255335777437</v>
       </c>
       <c r="L18">
-        <v>0.9776385977961654</v>
+        <v>1.01622022867379</v>
       </c>
       <c r="M18">
-        <v>0.9811261509024463</v>
+        <v>1.029439886306323</v>
       </c>
       <c r="N18">
-        <v>0.9910429493472646</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006695627133369</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032773728955266</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.020015885572603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9440950995785374</v>
+        <v>0.9815447422365725</v>
       </c>
       <c r="D19">
-        <v>0.9624646378148214</v>
+        <v>0.9986458603836005</v>
       </c>
       <c r="E19">
-        <v>0.9639914808667266</v>
+        <v>1.002237424629125</v>
       </c>
       <c r="F19">
-        <v>0.9676035783843766</v>
+        <v>1.015390394823914</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044801</v>
+        <v>1.046269637164629</v>
       </c>
       <c r="J19">
-        <v>0.9733020632367184</v>
+        <v>1.009184741595273</v>
       </c>
       <c r="K19">
-        <v>0.9768961192551854</v>
+        <v>1.012423339870609</v>
       </c>
       <c r="L19">
-        <v>0.9783940669130531</v>
+        <v>1.015953311924608</v>
       </c>
       <c r="M19">
-        <v>0.9819382796405526</v>
+        <v>1.028885506792133</v>
       </c>
       <c r="N19">
-        <v>0.9913297232766199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006598939389292</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032007187836034</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.019930493020512</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9397594296577417</v>
+        <v>0.9794413496022383</v>
       </c>
       <c r="D20">
-        <v>0.9585998650123018</v>
+        <v>0.9970534262352418</v>
       </c>
       <c r="E20">
-        <v>0.960207489374366</v>
+        <v>1.000296715998916</v>
       </c>
       <c r="F20">
-        <v>0.9635617503300918</v>
+        <v>1.01299643421369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.046013431006756</v>
       </c>
       <c r="J20">
-        <v>0.9698276907382244</v>
+        <v>1.007788440576852</v>
       </c>
       <c r="K20">
-        <v>0.9734119626326853</v>
+        <v>1.011148286226775</v>
       </c>
       <c r="L20">
-        <v>0.9749880917791883</v>
+        <v>1.014334350019403</v>
       </c>
       <c r="M20">
-        <v>0.9782770823722532</v>
+        <v>1.026814542743204</v>
       </c>
       <c r="N20">
-        <v>0.990036734038701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.00604790914798</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029835543246374</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.019032955817144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9249913516162849</v>
+        <v>0.9744739424104059</v>
       </c>
       <c r="D21">
-        <v>0.9454585810541544</v>
+        <v>0.9934719071001711</v>
       </c>
       <c r="E21">
-        <v>0.9473425277319811</v>
+        <v>0.9964459377280623</v>
       </c>
       <c r="F21">
-        <v>0.9498207266015575</v>
+        <v>1.009213558904093</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.045614621516091</v>
       </c>
       <c r="J21">
-        <v>0.9579981283711307</v>
+        <v>1.005079071158867</v>
       </c>
       <c r="K21">
-        <v>0.96155256678116</v>
+        <v>1.008578020712346</v>
       </c>
       <c r="L21">
-        <v>0.9633952426855507</v>
+        <v>1.011494957198966</v>
       </c>
       <c r="M21">
-        <v>0.9658194837484425</v>
+        <v>1.024022455030865</v>
       </c>
       <c r="N21">
-        <v>0.9856349280932238</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005072747021173</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027584434263211</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.017218914705077</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9151168248276673</v>
+        <v>0.9713033101577971</v>
       </c>
       <c r="D22">
-        <v>0.9366922854574536</v>
+        <v>0.9911896236375795</v>
       </c>
       <c r="E22">
-        <v>0.9387621302302175</v>
+        <v>0.9940112337381684</v>
       </c>
       <c r="F22">
-        <v>0.9406560212198004</v>
+        <v>1.006848382697039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.045347915439131</v>
       </c>
       <c r="J22">
-        <v>0.9500941289077246</v>
+        <v>1.003356823729158</v>
       </c>
       <c r="K22">
-        <v>0.9536316127961498</v>
+        <v>1.006937659853783</v>
       </c>
       <c r="L22">
-        <v>0.9556528258579063</v>
+        <v>1.009702270188642</v>
       </c>
       <c r="M22">
-        <v>0.9575024701443975</v>
+        <v>1.022285381730979</v>
       </c>
       <c r="N22">
-        <v>0.9826954761545468</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004453179364846</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026209630610376</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.016045224857618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.920412708722267</v>
+        <v>0.9729737511920092</v>
       </c>
       <c r="D23">
-        <v>0.9413917086675705</v>
+        <v>0.9923819428451233</v>
       </c>
       <c r="E23">
-        <v>0.9433617310114449</v>
+        <v>0.9952918386966917</v>
       </c>
       <c r="F23">
-        <v>0.9455688771438731</v>
+        <v>1.008094621266873</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.045490146335148</v>
       </c>
       <c r="J23">
-        <v>0.9543325109600636</v>
+        <v>1.004257338262986</v>
       </c>
       <c r="K23">
-        <v>0.9578787903262604</v>
+        <v>1.007789490723458</v>
       </c>
       <c r="L23">
-        <v>0.9598042130579747</v>
+        <v>1.010642156699537</v>
       </c>
       <c r="M23">
-        <v>0.961961685438673</v>
+        <v>1.023198272817998</v>
       </c>
       <c r="N23">
-        <v>0.9842714699605419</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004775808938392</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026932137022817</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.016637660390812</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9399981147957044</v>
+        <v>0.9794476288402548</v>
       </c>
       <c r="D24">
-        <v>0.9588125490249615</v>
+        <v>0.9970371946728064</v>
       </c>
       <c r="E24">
-        <v>0.9604157224923278</v>
+        <v>1.000273773379795</v>
       </c>
       <c r="F24">
-        <v>0.9637841692833119</v>
+        <v>1.012936930281481</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.046005961256133</v>
       </c>
       <c r="J24">
-        <v>0.9700189470142598</v>
+        <v>1.007760442068302</v>
       </c>
       <c r="K24">
-        <v>0.9736037453732967</v>
+        <v>1.011116541039277</v>
       </c>
       <c r="L24">
-        <v>0.9751755698758159</v>
+        <v>1.014296082955975</v>
       </c>
       <c r="M24">
-        <v>0.9784785941739977</v>
+        <v>1.026740604987991</v>
       </c>
       <c r="N24">
-        <v>0.9901079107143869</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006031967997662</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029735703823877</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.018982470902564</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9606055731382006</v>
+        <v>0.986708497316561</v>
       </c>
       <c r="D25">
-        <v>0.9772084509611635</v>
+        <v>1.002295269195363</v>
       </c>
       <c r="E25">
-        <v>0.9784288568261486</v>
+        <v>1.005892753399465</v>
       </c>
       <c r="F25">
-        <v>0.9830262666351653</v>
+        <v>1.018392608407815</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.046509486983382</v>
       </c>
       <c r="J25">
-        <v>0.9865355508503806</v>
+        <v>1.011691605191603</v>
       </c>
       <c r="K25">
-        <v>0.9901711898879908</v>
+        <v>1.014858058253942</v>
       </c>
       <c r="L25">
-        <v>0.9913715290248312</v>
+        <v>1.018400275546696</v>
       </c>
       <c r="M25">
-        <v>0.9958939196879685</v>
+        <v>1.030711957962078</v>
       </c>
       <c r="N25">
-        <v>0.9962530175741434</v>
+        <v>1.007438732820195</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032878804205293</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.021625100876529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9922704895639155</v>
+        <v>0.9937497747180886</v>
       </c>
       <c r="D2">
-        <v>1.006324218787208</v>
+        <v>1.008006109424488</v>
       </c>
       <c r="E2">
-        <v>1.010216706122995</v>
+        <v>1.011416450436451</v>
       </c>
       <c r="F2">
-        <v>1.022591216985502</v>
+        <v>1.023524296204019</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046831944119209</v>
+        <v>1.046913933312227</v>
       </c>
       <c r="J2">
-        <v>1.014684872686032</v>
+        <v>1.016119049704014</v>
       </c>
       <c r="K2">
-        <v>1.017696144753903</v>
+        <v>1.019355021975255</v>
       </c>
       <c r="L2">
-        <v>1.021535517595292</v>
+        <v>1.022718994614997</v>
       </c>
       <c r="M2">
-        <v>1.033744542447173</v>
+        <v>1.034665346873506</v>
       </c>
       <c r="N2">
-        <v>1.008503908159018</v>
+        <v>1.0112715668416</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035278913133116</v>
+        <v>1.036007673052626</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.023582565578574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.024764529523424</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017106650675108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9962350133361484</v>
+        <v>0.9974781640363549</v>
       </c>
       <c r="D3">
-        <v>1.009226252087149</v>
+        <v>1.01059374654657</v>
       </c>
       <c r="E3">
-        <v>1.013312659291556</v>
+        <v>1.014321827648921</v>
       </c>
       <c r="F3">
-        <v>1.025590440881388</v>
+        <v>1.026374642127399</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047024244895765</v>
+        <v>1.0470933087107</v>
       </c>
       <c r="J3">
-        <v>1.01682884456452</v>
+        <v>1.018037813728155</v>
       </c>
       <c r="K3">
-        <v>1.019742426836617</v>
+        <v>1.021092849354946</v>
       </c>
       <c r="L3">
-        <v>1.023777989359321</v>
+        <v>1.024774679770319</v>
       </c>
       <c r="M3">
-        <v>1.035906031677221</v>
+        <v>1.036680819867624</v>
       </c>
       <c r="N3">
-        <v>1.009267324697228</v>
+        <v>1.011812791915961</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036989597380393</v>
+        <v>1.03760279302662</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.025026807944703</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.025990374241734</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.017495082809191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987573019266042</v>
+        <v>0.9998522311681283</v>
       </c>
       <c r="D4">
-        <v>1.011079866160352</v>
+        <v>1.012248367716534</v>
       </c>
       <c r="E4">
-        <v>1.015287670374438</v>
+        <v>1.016177125595177</v>
       </c>
       <c r="F4">
-        <v>1.027501830115268</v>
+        <v>1.028192734103744</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047128559527335</v>
+        <v>1.047189558823657</v>
       </c>
       <c r="J4">
-        <v>1.018192849554976</v>
+        <v>1.019259717642953</v>
       </c>
       <c r="K4">
-        <v>1.021046381207556</v>
+        <v>1.022201179623501</v>
       </c>
       <c r="L4">
-        <v>1.025205022693884</v>
+        <v>1.02608415021835</v>
       </c>
       <c r="M4">
-        <v>1.037279287268663</v>
+        <v>1.037962400352368</v>
       </c>
       <c r="N4">
-        <v>1.009752278735663</v>
+        <v>1.01215703663843</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038076441605176</v>
+        <v>1.038617081430963</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.025949767258934</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.026775080780255</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.017740331596882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9998125109273149</v>
+        <v>1.000845697568864</v>
       </c>
       <c r="D5">
-        <v>1.011860108835525</v>
+        <v>1.012945434413558</v>
       </c>
       <c r="E5">
-        <v>1.016115437307411</v>
+        <v>1.016955001056577</v>
       </c>
       <c r="F5">
-        <v>1.028301794903835</v>
+        <v>1.028953873642692</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047167951278581</v>
+        <v>1.047225601004104</v>
       </c>
       <c r="J5">
-        <v>1.018765541195779</v>
+        <v>1.019773043408155</v>
       </c>
       <c r="K5">
-        <v>1.021596405026845</v>
+        <v>1.022669343718605</v>
       </c>
       <c r="L5">
-        <v>1.025803353932483</v>
+        <v>1.026633431464612</v>
       </c>
       <c r="M5">
-        <v>1.037853885152594</v>
+        <v>1.038498807369582</v>
       </c>
       <c r="N5">
-        <v>1.009956065189242</v>
+        <v>1.012301822572544</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038531198695803</v>
+        <v>1.039041612607027</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.026346000977733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.027114135700826</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.017843978489736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,105 +687,123 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9999949698692105</v>
+        <v>1.001017268677529</v>
       </c>
       <c r="D6">
-        <v>1.011998826847699</v>
+        <v>1.013069584547397</v>
       </c>
       <c r="E6">
-        <v>1.01625898103534</v>
+        <v>1.017089734982932</v>
       </c>
       <c r="F6">
-        <v>1.028439692764193</v>
+        <v>1.029084923254382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.04717470492484</v>
+        <v>1.047231761458288</v>
       </c>
       <c r="J6">
-        <v>1.018867100366549</v>
+        <v>1.019864116782764</v>
       </c>
       <c r="K6">
-        <v>1.021696430859518</v>
+        <v>1.022755024353996</v>
       </c>
       <c r="L6">
-        <v>1.025908375230677</v>
+        <v>1.026729785950531</v>
       </c>
       <c r="M6">
-        <v>1.037953951225774</v>
+        <v>1.038592132917634</v>
       </c>
       <c r="N6">
-        <v>1.009992627516404</v>
+        <v>1.012327834959264</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038610394496202</v>
+        <v>1.03911547366705</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.02642563770966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.027184493086609</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.017863706794911</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>0.998787294431528</v>
+        <v>0.9998879041218963</v>
       </c>
       <c r="D7">
-        <v>1.011111965285454</v>
+        <v>1.012284070208051</v>
       </c>
       <c r="E7">
-        <v>1.015312126899618</v>
+        <v>1.016206473061683</v>
       </c>
       <c r="F7">
-        <v>1.027523326028901</v>
+        <v>1.02821829449245</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047130249187616</v>
+        <v>1.047191720796925</v>
       </c>
       <c r="J7">
-        <v>1.018215970225243</v>
+        <v>1.019288386018183</v>
       </c>
       <c r="K7">
-        <v>1.021075146318601</v>
+        <v>1.02223351158941</v>
       </c>
       <c r="L7">
-        <v>1.025226254324569</v>
+        <v>1.026110220155927</v>
       </c>
       <c r="M7">
-        <v>1.037297646707364</v>
+        <v>1.037984781489891</v>
       </c>
       <c r="N7">
-        <v>1.009761697284929</v>
+        <v>1.012192106705395</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038090971918868</v>
+        <v>1.038634794646912</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.025990599060804</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.026820423271672</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.017750368702031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9936396560163341</v>
+        <v>0.9950610521265348</v>
       </c>
       <c r="D8">
-        <v>1.007337324095034</v>
+        <v>1.008929825337113</v>
       </c>
       <c r="E8">
-        <v>1.011286065262047</v>
+        <v>1.012440225893113</v>
       </c>
       <c r="F8">
-        <v>1.023624834956417</v>
+        <v>1.024523108813707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.04690258421812</v>
+        <v>1.046981962894558</v>
       </c>
       <c r="J8">
-        <v>1.015433980961004</v>
+        <v>1.016813499301475</v>
       </c>
       <c r="K8">
-        <v>1.018418815530943</v>
+        <v>1.019990179980595</v>
       </c>
       <c r="L8">
-        <v>1.02231529936135</v>
+        <v>1.023454282422014</v>
       </c>
       <c r="M8">
-        <v>1.034494026295078</v>
+        <v>1.035380836974551</v>
       </c>
       <c r="N8">
-        <v>1.008772378310549</v>
+        <v>1.011548105029283</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035872083436523</v>
+        <v>1.03657393882772</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.024116944153671</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.025239274573552</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017254150438938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9841977198041385</v>
+        <v>0.9861986615679748</v>
       </c>
       <c r="D9">
-        <v>1.000457247042665</v>
+        <v>1.00280879911083</v>
       </c>
       <c r="E9">
-        <v>1.003944069926757</v>
+        <v>1.005565537452771</v>
       </c>
       <c r="F9">
-        <v>1.016504797731211</v>
+        <v>1.017769795317794</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046344955401057</v>
+        <v>1.04645650945223</v>
       </c>
       <c r="J9">
-        <v>1.010321109055354</v>
+        <v>1.012248374066137</v>
       </c>
       <c r="K9">
-        <v>1.013542910086118</v>
+        <v>1.01585646929397</v>
       </c>
       <c r="L9">
-        <v>1.016973479818228</v>
+        <v>1.018568958480848</v>
       </c>
       <c r="M9">
-        <v>1.029335653669484</v>
+        <v>1.030581001843914</v>
       </c>
       <c r="N9">
-        <v>1.00694656957454</v>
+        <v>1.010266994843183</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031789539109806</v>
+        <v>1.032775160099197</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.020665961533091</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.022312846884992</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016314443859943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9777172974975088</v>
+        <v>0.9801623699549791</v>
       </c>
       <c r="D10">
-        <v>0.9957887573537343</v>
+        <v>0.9986943290331545</v>
       </c>
       <c r="E10">
-        <v>0.9989712172553032</v>
+        <v>1.000951411033191</v>
       </c>
       <c r="F10">
-        <v>1.011724503544702</v>
+        <v>1.013273711096348</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045883824163574</v>
+        <v>1.046020913169307</v>
       </c>
       <c r="J10">
-        <v>1.006843762420194</v>
+        <v>1.009185779818013</v>
       </c>
       <c r="K10">
-        <v>1.010234465665449</v>
+        <v>1.013087197857175</v>
       </c>
       <c r="L10">
-        <v>1.013359071569506</v>
+        <v>1.015303508681386</v>
       </c>
       <c r="M10">
-        <v>1.025885246753277</v>
+        <v>1.027407370231924</v>
       </c>
       <c r="N10">
-        <v>1.005707015511067</v>
+        <v>1.009521830681011</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029110764283193</v>
+        <v>1.030315364627827</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.018343769117563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.020373583321562</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015681166254261</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9753844349845786</v>
+        <v>0.9780239882446967</v>
       </c>
       <c r="D11">
-        <v>0.9941944241545607</v>
+        <v>0.9973213531685933</v>
       </c>
       <c r="E11">
-        <v>0.9974524277615612</v>
+        <v>0.9995898061786406</v>
       </c>
       <c r="F11">
-        <v>1.010672553280193</v>
+        <v>1.01234726717049</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045781920912146</v>
+        <v>1.045928389458012</v>
       </c>
       <c r="J11">
-        <v>1.005818356753585</v>
+        <v>1.008340460076548</v>
       </c>
       <c r="K11">
-        <v>1.0092266619523</v>
+        <v>1.012293962260683</v>
       </c>
       <c r="L11">
-        <v>1.012422548013107</v>
+        <v>1.014519462302325</v>
       </c>
       <c r="M11">
-        <v>1.025395968934597</v>
+        <v>1.027040029079446</v>
       </c>
       <c r="N11">
-        <v>1.00538678337625</v>
+        <v>1.009547344782775</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029164500836136</v>
+        <v>1.030464933557658</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.017664795765884</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.019849506929337</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015543375555133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9746990695401915</v>
+        <v>0.9773925393770162</v>
       </c>
       <c r="D12">
-        <v>0.9937531462434376</v>
+        <v>0.9969401950223057</v>
       </c>
       <c r="E12">
-        <v>0.9971212429118825</v>
+        <v>0.9993010395734718</v>
       </c>
       <c r="F12">
-        <v>1.010659304465661</v>
+        <v>1.012367402472227</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045787192426951</v>
+        <v>1.04593438736596</v>
       </c>
       <c r="J12">
-        <v>1.005614196320207</v>
+        <v>1.008185491670623</v>
       </c>
       <c r="K12">
-        <v>1.009001012745236</v>
+        <v>1.012126251789294</v>
       </c>
       <c r="L12">
-        <v>1.012303803967444</v>
+        <v>1.01444164282425</v>
       </c>
       <c r="M12">
-        <v>1.025585099186321</v>
+        <v>1.027261437210852</v>
       </c>
       <c r="N12">
-        <v>1.005351847353087</v>
+        <v>1.009633352632301</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.02964361323686</v>
+        <v>1.030969120436938</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.017505247267568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.01973092812872</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015536641124267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9752575837307595</v>
+        <v>0.9778855582445934</v>
       </c>
       <c r="D13">
-        <v>0.9941952322133278</v>
+        <v>0.9973096374717171</v>
       </c>
       <c r="E13">
-        <v>0.9977017710212971</v>
+        <v>0.9998257740141231</v>
       </c>
       <c r="F13">
-        <v>1.011471627994902</v>
+        <v>1.013133613685255</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045883708646791</v>
+        <v>1.046024102021977</v>
       </c>
       <c r="J13">
-        <v>1.006050692123522</v>
+        <v>1.008560085134722</v>
       </c>
       <c r="K13">
-        <v>1.00939008294163</v>
+        <v>1.012444354888598</v>
       </c>
       <c r="L13">
-        <v>1.012828951917824</v>
+        <v>1.014912267546241</v>
       </c>
       <c r="M13">
-        <v>1.02633899375642</v>
+        <v>1.027970242962622</v>
       </c>
       <c r="N13">
-        <v>1.005543535421196</v>
+        <v>1.009740919149819</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030518622367062</v>
+        <v>1.031808148219774</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.017777793141091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.019953050303772</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.015636231997454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9762136695646472</v>
+        <v>0.9787421943368291</v>
       </c>
       <c r="D14">
-        <v>0.9949081846125791</v>
+        <v>0.9979119794524468</v>
       </c>
       <c r="E14">
-        <v>0.9985212313318164</v>
+        <v>1.000562224805216</v>
       </c>
       <c r="F14">
-        <v>1.012413473557216</v>
+        <v>1.014007742764703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045992015935217</v>
+        <v>1.0461244834314</v>
       </c>
       <c r="J14">
-        <v>1.006647718277956</v>
+        <v>1.009063826806021</v>
       </c>
       <c r="K14">
-        <v>1.009943864078777</v>
+        <v>1.012890401214994</v>
       </c>
       <c r="L14">
-        <v>1.013488094600299</v>
+        <v>1.015490501125958</v>
       </c>
       <c r="M14">
-        <v>1.027121693339312</v>
+        <v>1.028686870616297</v>
       </c>
       <c r="N14">
-        <v>1.005781045055778</v>
+        <v>1.009827746456073</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031311816731602</v>
+        <v>1.032548943071323</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.018170810481251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.020270020243816</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.015755342854025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9767245949737919</v>
+        <v>0.9792032208007451</v>
       </c>
       <c r="D15">
-        <v>0.9952835254400296</v>
+        <v>0.9982313777043186</v>
       </c>
       <c r="E15">
-        <v>0.9989302925142926</v>
+        <v>1.000930058153494</v>
       </c>
       <c r="F15">
-        <v>1.012839809293377</v>
+        <v>1.014400699473813</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046039278603124</v>
+        <v>1.046168325518863</v>
       </c>
       <c r="J15">
-        <v>1.006941601319457</v>
+        <v>1.009311013210163</v>
       </c>
       <c r="K15">
-        <v>1.010222513387841</v>
+        <v>1.013114611326731</v>
       </c>
       <c r="L15">
-        <v>1.013800370214427</v>
+        <v>1.01576262603516</v>
       </c>
       <c r="M15">
-        <v>1.027452975192026</v>
+        <v>1.028985607042807</v>
       </c>
       <c r="N15">
-        <v>1.005891606610881</v>
+        <v>1.009859140234135</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031611419369056</v>
+        <v>1.032822789520046</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.018373841435583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.020435118683436</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.015810649484724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9793604197042729</v>
+        <v>0.9816073142054572</v>
       </c>
       <c r="D16">
-        <v>0.9971726340656403</v>
+        <v>0.9998547138978807</v>
       </c>
       <c r="E16">
-        <v>1.000928649934644</v>
+        <v>1.002739316515404</v>
       </c>
       <c r="F16">
-        <v>1.014740497910549</v>
+        <v>1.01614975166694</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046236078685515</v>
+        <v>1.046351780561174</v>
       </c>
       <c r="J16">
-        <v>1.008338055456149</v>
+        <v>1.010490975352142</v>
       </c>
       <c r="K16">
-        <v>1.01155629734452</v>
+        <v>1.014189906565747</v>
       </c>
       <c r="L16">
-        <v>1.015244529030634</v>
+        <v>1.01702275438495</v>
       </c>
       <c r="M16">
-        <v>1.028812701018729</v>
+        <v>1.030197573689634</v>
       </c>
       <c r="N16">
-        <v>1.006382353262048</v>
+        <v>1.009977450812631</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032647191045225</v>
+        <v>1.033741806195511</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.019320151682156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.021198947119264</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016049803198288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9808844458166164</v>
+        <v>0.9830151679707547</v>
       </c>
       <c r="D17">
-        <v>0.99825247853525</v>
+        <v>1.000796053084635</v>
       </c>
       <c r="E17">
-        <v>1.00203458371196</v>
+        <v>1.003751732603032</v>
       </c>
       <c r="F17">
-        <v>1.015701233973314</v>
+        <v>1.017036452855283</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046326088338251</v>
+        <v>1.046436234030287</v>
       </c>
       <c r="J17">
-        <v>1.009097557162664</v>
+        <v>1.011142067058902</v>
       </c>
       <c r="K17">
-        <v>1.012291217668408</v>
+        <v>1.014790138988844</v>
       </c>
       <c r="L17">
-        <v>1.016007033102762</v>
+        <v>1.017694298583717</v>
       </c>
       <c r="M17">
-        <v>1.029439452688222</v>
+        <v>1.030752222650582</v>
       </c>
       <c r="N17">
-        <v>1.006634589164275</v>
+        <v>1.010052805886758</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033012754937275</v>
+        <v>1.03405048398115</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.019842433728936</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.021626235859163</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016173136887552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9815776998520233</v>
+        <v>0.9836699663834967</v>
       </c>
       <c r="D18">
-        <v>0.9987123609252657</v>
+        <v>1.001206377937166</v>
       </c>
       <c r="E18">
-        <v>1.002443541048197</v>
+        <v>1.004131210418369</v>
       </c>
       <c r="F18">
-        <v>1.015889910122168</v>
+        <v>1.017202644913311</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046332993159025</v>
+        <v>1.046442848514711</v>
       </c>
       <c r="J18">
-        <v>1.009355211340581</v>
+        <v>1.011364421694716</v>
       </c>
       <c r="K18">
-        <v>1.01255335777437</v>
+        <v>1.01500432016739</v>
       </c>
       <c r="L18">
-        <v>1.01622022867379</v>
+        <v>1.017879012789356</v>
       </c>
       <c r="M18">
-        <v>1.029439886306323</v>
+        <v>1.0307309011188</v>
       </c>
       <c r="N18">
-        <v>1.006695627133369</v>
+        <v>1.010052341470164</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032773728955266</v>
+        <v>1.033794476276479</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.020015885572603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.021764653088062</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016197847009524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9815447422365725</v>
+        <v>0.9836576736948682</v>
       </c>
       <c r="D19">
-        <v>0.9986458603836005</v>
+        <v>1.001161150593184</v>
       </c>
       <c r="E19">
-        <v>1.002237424629125</v>
+        <v>1.003943976088233</v>
       </c>
       <c r="F19">
-        <v>1.015390394823914</v>
+        <v>1.01671938039189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046269637164629</v>
+        <v>1.046383051607631</v>
       </c>
       <c r="J19">
-        <v>1.009184741595273</v>
+        <v>1.011214284036758</v>
       </c>
       <c r="K19">
-        <v>1.012423339870609</v>
+        <v>1.014895435130652</v>
       </c>
       <c r="L19">
-        <v>1.015953311924608</v>
+        <v>1.017630796917971</v>
       </c>
       <c r="M19">
-        <v>1.028885506792133</v>
+        <v>1.03019259377347</v>
       </c>
       <c r="N19">
-        <v>1.006598939389292</v>
+        <v>1.009972961697721</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032007187836034</v>
+        <v>1.033040985717488</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.019930493020512</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.021694821240929</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016144461929685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9794413496022383</v>
+        <v>0.9817420358757084</v>
       </c>
       <c r="D20">
-        <v>0.9970534262352418</v>
+        <v>0.9997904110708911</v>
       </c>
       <c r="E20">
-        <v>1.000296715998916</v>
+        <v>1.00215896589929</v>
       </c>
       <c r="F20">
-        <v>1.01299643421369</v>
+        <v>1.014451280866743</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046013431006756</v>
+        <v>1.046141561199414</v>
       </c>
       <c r="J20">
-        <v>1.007788440576852</v>
+        <v>1.00999537829368</v>
       </c>
       <c r="K20">
-        <v>1.011148286226775</v>
+        <v>1.013836946848759</v>
       </c>
       <c r="L20">
-        <v>1.014334350019403</v>
+        <v>1.016163958429959</v>
       </c>
       <c r="M20">
-        <v>1.026814542743204</v>
+        <v>1.028244694007539</v>
       </c>
       <c r="N20">
-        <v>1.00604790914798</v>
+        <v>1.009653533187842</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029835543246374</v>
+        <v>1.030967370978138</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.019032955817144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.020950803591534</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.015857334047783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9744739424104059</v>
+        <v>0.9772368377757469</v>
       </c>
       <c r="D21">
-        <v>0.9934719071001711</v>
+        <v>0.9967322499766154</v>
       </c>
       <c r="E21">
-        <v>0.9964459377280623</v>
+        <v>0.9986886093998572</v>
       </c>
       <c r="F21">
-        <v>1.009213558904093</v>
+        <v>1.010975778826155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045614621516091</v>
+        <v>1.045773351710371</v>
       </c>
       <c r="J21">
-        <v>1.005079071158867</v>
+        <v>1.007718100314138</v>
       </c>
       <c r="K21">
-        <v>1.008578020712346</v>
+        <v>1.011775796476277</v>
       </c>
       <c r="L21">
-        <v>1.011494957198966</v>
+        <v>1.013694869143023</v>
       </c>
       <c r="M21">
-        <v>1.024022455030865</v>
+        <v>1.025752153146798</v>
       </c>
       <c r="N21">
-        <v>1.005072747021173</v>
+        <v>1.00942841621464</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027584434263211</v>
+        <v>1.028953398107325</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.017218914705077</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.019497081674261</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015385188165823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9713033101577971</v>
+        <v>0.9743630824071049</v>
       </c>
       <c r="D22">
-        <v>0.9911896236375795</v>
+        <v>0.9947847664369295</v>
       </c>
       <c r="E22">
-        <v>0.9940112337381684</v>
+        <v>0.9964987419162783</v>
       </c>
       <c r="F22">
-        <v>1.006848382697039</v>
+        <v>1.00880975590356</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045347915439131</v>
+        <v>1.045526734835274</v>
       </c>
       <c r="J22">
-        <v>1.003356823729158</v>
+        <v>1.006271252869521</v>
       </c>
       <c r="K22">
-        <v>1.006937659853783</v>
+        <v>1.010460250955266</v>
       </c>
       <c r="L22">
-        <v>1.009702270188642</v>
+        <v>1.01213987997221</v>
       </c>
       <c r="M22">
-        <v>1.022285381730979</v>
+        <v>1.024208686964904</v>
       </c>
       <c r="N22">
-        <v>1.004453179364846</v>
+        <v>1.009279071558286</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026209630610376</v>
+        <v>1.027731827041221</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.016045224857618</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.018551790854205</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015082044051546</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9729737511920092</v>
+        <v>0.9758639586890159</v>
       </c>
       <c r="D23">
-        <v>0.9923819428451233</v>
+        <v>0.9957900590553055</v>
       </c>
       <c r="E23">
-        <v>0.9952918386966917</v>
+        <v>0.9976387324675644</v>
       </c>
       <c r="F23">
-        <v>1.008094621266873</v>
+        <v>1.009940933762225</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045490146335148</v>
+        <v>1.045657098520823</v>
       </c>
       <c r="J23">
-        <v>1.004257338262986</v>
+        <v>1.007014367402971</v>
       </c>
       <c r="K23">
-        <v>1.007789490723458</v>
+        <v>1.011130622396665</v>
       </c>
       <c r="L23">
-        <v>1.010642156699537</v>
+        <v>1.012943212270028</v>
       </c>
       <c r="M23">
-        <v>1.023198272817998</v>
+        <v>1.025009687210445</v>
       </c>
       <c r="N23">
-        <v>1.004775808938392</v>
+        <v>1.009310197341935</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026932137022817</v>
+        <v>1.028365776234548</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.016637660390812</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.019014986162359</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015233059059888</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9794476288402548</v>
+        <v>0.9817507236509645</v>
       </c>
       <c r="D24">
-        <v>0.9970371946728064</v>
+        <v>0.9997765845553203</v>
       </c>
       <c r="E24">
-        <v>1.000273773379795</v>
+        <v>1.002138255754333</v>
       </c>
       <c r="F24">
-        <v>1.012936930281481</v>
+        <v>1.014393636404621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046005961256133</v>
+        <v>1.046134499910944</v>
       </c>
       <c r="J24">
-        <v>1.007760442068302</v>
+        <v>1.00996982473687</v>
       </c>
       <c r="K24">
-        <v>1.011116541039277</v>
+        <v>1.013807624755505</v>
       </c>
       <c r="L24">
-        <v>1.014296082955975</v>
+        <v>1.016127924991568</v>
       </c>
       <c r="M24">
-        <v>1.026740604987991</v>
+        <v>1.028172612230678</v>
       </c>
       <c r="N24">
-        <v>1.006031967997662</v>
+        <v>1.009637991121204</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029735703823877</v>
+        <v>1.030869057880647</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.018982470902564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.020899391395313</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.015843796346949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.986708497316561</v>
+        <v>0.9885418605349207</v>
       </c>
       <c r="D25">
-        <v>1.002295269195363</v>
+        <v>1.004434635323962</v>
       </c>
       <c r="E25">
-        <v>1.005892753399465</v>
+        <v>1.007378675005751</v>
       </c>
       <c r="F25">
-        <v>1.018392608407815</v>
+        <v>1.019550681606663</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046509486983382</v>
+        <v>1.046611429739954</v>
       </c>
       <c r="J25">
-        <v>1.011691605191603</v>
+        <v>1.013461086983436</v>
       </c>
       <c r="K25">
-        <v>1.014858058253942</v>
+        <v>1.016964497154742</v>
       </c>
       <c r="L25">
-        <v>1.018400275546696</v>
+        <v>1.019863516322056</v>
       </c>
       <c r="M25">
-        <v>1.030711957962078</v>
+        <v>1.031852894288805</v>
       </c>
       <c r="N25">
-        <v>1.007438732820195</v>
+        <v>1.010578543173986</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032878804205293</v>
+        <v>1.033781787911051</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.021625100876529</v>
+        <v>1.023128302019625</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.016571173006494</v>
       </c>
     </row>
   </sheetData>
